--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>GRP.U</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>186300</v>
+        <v>198900</v>
       </c>
       <c r="E8" s="3">
-        <v>184200</v>
+        <v>179800</v>
       </c>
       <c r="F8" s="3">
-        <v>168200</v>
+        <v>177800</v>
       </c>
       <c r="G8" s="3">
-        <v>162800</v>
+        <v>162300</v>
       </c>
       <c r="H8" s="3">
-        <v>156100</v>
+        <v>157200</v>
       </c>
       <c r="I8" s="3">
-        <v>143000</v>
+        <v>150700</v>
       </c>
       <c r="J8" s="3">
+        <v>138000</v>
+      </c>
+      <c r="K8" s="3">
         <v>136300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>139000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>23300</v>
+        <v>25700</v>
       </c>
       <c r="E9" s="3">
-        <v>23600</v>
+        <v>22500</v>
       </c>
       <c r="F9" s="3">
-        <v>5700</v>
+        <v>22800</v>
       </c>
       <c r="G9" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="H9" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="I9" s="3">
-        <v>8400</v>
+        <v>5000</v>
       </c>
       <c r="J9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K9" s="3">
         <v>36400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>163000</v>
+        <v>173200</v>
       </c>
       <c r="E10" s="3">
-        <v>160600</v>
+        <v>157400</v>
       </c>
       <c r="F10" s="3">
-        <v>162400</v>
+        <v>155000</v>
       </c>
       <c r="G10" s="3">
-        <v>157500</v>
+        <v>156800</v>
       </c>
       <c r="H10" s="3">
-        <v>151000</v>
+        <v>152100</v>
       </c>
       <c r="I10" s="3">
-        <v>134600</v>
+        <v>145700</v>
       </c>
       <c r="J10" s="3">
+        <v>129900</v>
+      </c>
+      <c r="K10" s="3">
         <v>99900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>106200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,50 +887,56 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>10700</v>
-      </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>15000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>700</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
-        <v>300</v>
-      </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -923,17 +945,20 @@
         <v>500</v>
       </c>
       <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59500</v>
+        <v>65100</v>
       </c>
       <c r="E17" s="3">
-        <v>63500</v>
+        <v>57400</v>
       </c>
       <c r="F17" s="3">
-        <v>41800</v>
+        <v>61300</v>
       </c>
       <c r="G17" s="3">
-        <v>41000</v>
+        <v>40300</v>
       </c>
       <c r="H17" s="3">
-        <v>42600</v>
+        <v>39600</v>
       </c>
       <c r="I17" s="3">
-        <v>51100</v>
+        <v>41200</v>
       </c>
       <c r="J17" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K17" s="3">
         <v>39500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>97900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>126800</v>
+        <v>133700</v>
       </c>
       <c r="E18" s="3">
-        <v>120700</v>
+        <v>122400</v>
       </c>
       <c r="F18" s="3">
-        <v>126400</v>
+        <v>116500</v>
       </c>
       <c r="G18" s="3">
-        <v>121800</v>
+        <v>122000</v>
       </c>
       <c r="H18" s="3">
-        <v>113500</v>
+        <v>117600</v>
       </c>
       <c r="I18" s="3">
-        <v>91900</v>
+        <v>109600</v>
       </c>
       <c r="J18" s="3">
+        <v>88700</v>
+      </c>
+      <c r="K18" s="3">
         <v>96800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>41100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>263100</v>
+        <v>175100</v>
       </c>
       <c r="E20" s="3">
-        <v>158700</v>
+        <v>254000</v>
       </c>
       <c r="F20" s="3">
-        <v>120800</v>
+        <v>153200</v>
       </c>
       <c r="G20" s="3">
-        <v>52600</v>
+        <v>116600</v>
       </c>
       <c r="H20" s="3">
-        <v>-59200</v>
+        <v>50800</v>
       </c>
       <c r="I20" s="3">
-        <v>-8800</v>
+        <v>-57100</v>
       </c>
       <c r="J20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K20" s="3">
         <v>24800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>390200</v>
+        <v>309500</v>
       </c>
       <c r="E21" s="3">
-        <v>279700</v>
+        <v>376600</v>
       </c>
       <c r="F21" s="3">
-        <v>247700</v>
+        <v>270000</v>
       </c>
       <c r="G21" s="3">
-        <v>175000</v>
+        <v>239100</v>
       </c>
       <c r="H21" s="3">
-        <v>54800</v>
+        <v>168900</v>
       </c>
       <c r="I21" s="3">
-        <v>83400</v>
+        <v>52900</v>
       </c>
       <c r="J21" s="3">
+        <v>80500</v>
+      </c>
+      <c r="K21" s="3">
         <v>121800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>74100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>390000</v>
+        <v>308800</v>
       </c>
       <c r="E23" s="3">
-        <v>279400</v>
+        <v>376400</v>
       </c>
       <c r="F23" s="3">
-        <v>247200</v>
+        <v>269700</v>
       </c>
       <c r="G23" s="3">
-        <v>174400</v>
+        <v>238600</v>
       </c>
       <c r="H23" s="3">
-        <v>54300</v>
+        <v>168400</v>
       </c>
       <c r="I23" s="3">
-        <v>83000</v>
+        <v>52400</v>
       </c>
       <c r="J23" s="3">
+        <v>80200</v>
+      </c>
+      <c r="K23" s="3">
         <v>121600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>41100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39600</v>
+        <v>31000</v>
       </c>
       <c r="E24" s="3">
-        <v>10100</v>
+        <v>38300</v>
       </c>
       <c r="F24" s="3">
-        <v>35900</v>
+        <v>9800</v>
       </c>
       <c r="G24" s="3">
-        <v>27200</v>
+        <v>34600</v>
       </c>
       <c r="H24" s="3">
-        <v>6400</v>
+        <v>26300</v>
       </c>
       <c r="I24" s="3">
-        <v>-24900</v>
+        <v>6200</v>
       </c>
       <c r="J24" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K24" s="3">
         <v>8800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>350300</v>
+        <v>277800</v>
       </c>
       <c r="E26" s="3">
-        <v>269300</v>
+        <v>338200</v>
       </c>
       <c r="F26" s="3">
-        <v>211300</v>
+        <v>260000</v>
       </c>
       <c r="G26" s="3">
-        <v>147200</v>
+        <v>204000</v>
       </c>
       <c r="H26" s="3">
-        <v>47900</v>
+        <v>142100</v>
       </c>
       <c r="I26" s="3">
-        <v>108000</v>
+        <v>46300</v>
       </c>
       <c r="J26" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K26" s="3">
         <v>112800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>350200</v>
+        <v>277700</v>
       </c>
       <c r="E27" s="3">
-        <v>269300</v>
+        <v>338000</v>
       </c>
       <c r="F27" s="3">
-        <v>210300</v>
+        <v>259900</v>
       </c>
       <c r="G27" s="3">
-        <v>145500</v>
+        <v>203000</v>
       </c>
       <c r="H27" s="3">
-        <v>47800</v>
+        <v>140500</v>
       </c>
       <c r="I27" s="3">
-        <v>107800</v>
+        <v>46100</v>
       </c>
       <c r="J27" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K27" s="3">
         <v>112700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1304,21 +1364,24 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>5100</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>1400</v>
+        <v>4900</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>72600</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-263100</v>
+        <v>-175100</v>
       </c>
       <c r="E32" s="3">
-        <v>-158700</v>
+        <v>-254000</v>
       </c>
       <c r="F32" s="3">
-        <v>-120800</v>
+        <v>-153200</v>
       </c>
       <c r="G32" s="3">
-        <v>-52600</v>
+        <v>-116600</v>
       </c>
       <c r="H32" s="3">
-        <v>59200</v>
+        <v>-50800</v>
       </c>
       <c r="I32" s="3">
-        <v>8800</v>
+        <v>57100</v>
       </c>
       <c r="J32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-24800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>350200</v>
+        <v>277700</v>
       </c>
       <c r="E33" s="3">
-        <v>269300</v>
+        <v>338000</v>
       </c>
       <c r="F33" s="3">
-        <v>210300</v>
+        <v>259900</v>
       </c>
       <c r="G33" s="3">
-        <v>145500</v>
+        <v>203000</v>
       </c>
       <c r="H33" s="3">
-        <v>52900</v>
+        <v>140500</v>
       </c>
       <c r="I33" s="3">
-        <v>109200</v>
+        <v>51000</v>
       </c>
       <c r="J33" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K33" s="3">
         <v>112700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>117100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>350200</v>
+        <v>277700</v>
       </c>
       <c r="E35" s="3">
-        <v>269300</v>
+        <v>338000</v>
       </c>
       <c r="F35" s="3">
-        <v>210300</v>
+        <v>259900</v>
       </c>
       <c r="G35" s="3">
-        <v>145500</v>
+        <v>203000</v>
       </c>
       <c r="H35" s="3">
-        <v>52900</v>
+        <v>140500</v>
       </c>
       <c r="I35" s="3">
-        <v>109200</v>
+        <v>51000</v>
       </c>
       <c r="J35" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K35" s="3">
         <v>112700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>117100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,55 +1645,59 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>402700</v>
+        <v>180500</v>
       </c>
       <c r="E41" s="3">
-        <v>41900</v>
+        <v>388500</v>
       </c>
       <c r="F41" s="3">
-        <v>82400</v>
+        <v>40400</v>
       </c>
       <c r="G41" s="3">
-        <v>48500</v>
+        <v>79500</v>
       </c>
       <c r="H41" s="3">
-        <v>87500</v>
+        <v>46800</v>
       </c>
       <c r="I41" s="3">
-        <v>71900</v>
+        <v>84400</v>
       </c>
       <c r="J41" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K41" s="3">
         <v>38400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>92800</v>
+        <v>36400</v>
       </c>
       <c r="E42" s="3">
-        <v>10100</v>
+        <v>89500</v>
       </c>
       <c r="F42" s="3">
-        <v>103000</v>
+        <v>9700</v>
       </c>
       <c r="G42" s="3">
-        <v>41200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>99400</v>
+      </c>
+      <c r="H42" s="3">
+        <v>39700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1619,39 +1708,45 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3400</v>
+        <v>14400</v>
       </c>
       <c r="E43" s="3">
-        <v>1900</v>
+        <v>3300</v>
       </c>
       <c r="F43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
-        <v>5300</v>
-      </c>
       <c r="H43" s="3">
-        <v>2400</v>
+        <v>5100</v>
       </c>
       <c r="I43" s="3">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="J43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K43" s="3">
         <v>6700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,80 +1774,89 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35500</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="3">
-        <v>296600</v>
+        <v>34300</v>
       </c>
       <c r="F45" s="3">
-        <v>2300</v>
+        <v>286100</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H45" s="3">
-        <v>5000</v>
+        <v>1900</v>
       </c>
       <c r="I45" s="3">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="J45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>534500</v>
+        <v>233700</v>
       </c>
       <c r="E46" s="3">
-        <v>350400</v>
+        <v>515600</v>
       </c>
       <c r="F46" s="3">
-        <v>188700</v>
+        <v>338100</v>
       </c>
       <c r="G46" s="3">
-        <v>97000</v>
+        <v>182000</v>
       </c>
       <c r="H46" s="3">
-        <v>94900</v>
+        <v>93600</v>
       </c>
       <c r="I46" s="3">
-        <v>78800</v>
+        <v>91600</v>
       </c>
       <c r="J46" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K46" s="3">
         <v>46100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>54100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>12200</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>400</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>400</v>
@@ -1764,44 +1868,50 @@
         <v>400</v>
       </c>
       <c r="J47" s="3">
+        <v>400</v>
+      </c>
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2578900</v>
+        <v>3239200</v>
       </c>
       <c r="E48" s="3">
-        <v>2058500</v>
+        <v>2488000</v>
       </c>
       <c r="F48" s="3">
-        <v>1997800</v>
+        <v>1986000</v>
       </c>
       <c r="G48" s="3">
-        <v>1952400</v>
+        <v>1927400</v>
       </c>
       <c r="H48" s="3">
-        <v>1740500</v>
+        <v>1883600</v>
       </c>
       <c r="I48" s="3">
-        <v>1771900</v>
+        <v>1679200</v>
       </c>
       <c r="J48" s="3">
+        <v>1709500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2321200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>515800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1829,9 +1939,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39900</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I52" s="3">
         <v>6600</v>
       </c>
-      <c r="H52" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>7200</v>
-      </c>
       <c r="J52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K52" s="3">
         <v>11300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3153300</v>
+        <v>3489000</v>
       </c>
       <c r="E54" s="3">
-        <v>2413800</v>
+        <v>3042200</v>
       </c>
       <c r="F54" s="3">
-        <v>2191900</v>
+        <v>2328700</v>
       </c>
       <c r="G54" s="3">
-        <v>2056500</v>
+        <v>2114600</v>
       </c>
       <c r="H54" s="3">
-        <v>1842600</v>
+        <v>1984100</v>
       </c>
       <c r="I54" s="3">
-        <v>1858400</v>
+        <v>1777700</v>
       </c>
       <c r="J54" s="3">
+        <v>1792900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1510900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>956800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="E57" s="3">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="F57" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G57" s="3">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="H57" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="I57" s="3">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="J57" s="3">
         <v>4200</v>
       </c>
       <c r="K57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>24500</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>23600</v>
       </c>
       <c r="G58" s="3">
-        <v>30300</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>47800</v>
+        <v>29200</v>
       </c>
       <c r="I58" s="3">
-        <v>40000</v>
+        <v>46100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>38600</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59700</v>
+        <v>56400</v>
       </c>
       <c r="E59" s="3">
-        <v>58400</v>
+        <v>57600</v>
       </c>
       <c r="F59" s="3">
-        <v>39800</v>
+        <v>56300</v>
       </c>
       <c r="G59" s="3">
-        <v>43900</v>
+        <v>38400</v>
       </c>
       <c r="H59" s="3">
-        <v>45800</v>
+        <v>42400</v>
       </c>
       <c r="I59" s="3">
-        <v>36000</v>
+        <v>44100</v>
       </c>
       <c r="J59" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K59" s="3">
         <v>57600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>63700</v>
+        <v>61800</v>
       </c>
       <c r="E60" s="3">
-        <v>87100</v>
+        <v>61500</v>
       </c>
       <c r="F60" s="3">
-        <v>44000</v>
+        <v>84100</v>
       </c>
       <c r="G60" s="3">
-        <v>77700</v>
+        <v>42500</v>
       </c>
       <c r="H60" s="3">
-        <v>97000</v>
+        <v>74900</v>
       </c>
       <c r="I60" s="3">
-        <v>80400</v>
+        <v>93600</v>
       </c>
       <c r="J60" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K60" s="3">
         <v>31900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>902200</v>
+        <v>885600</v>
       </c>
       <c r="E61" s="3">
-        <v>487300</v>
+        <v>870400</v>
       </c>
       <c r="F61" s="3">
-        <v>486900</v>
+        <v>470100</v>
       </c>
       <c r="G61" s="3">
-        <v>394300</v>
+        <v>469700</v>
       </c>
       <c r="H61" s="3">
-        <v>385700</v>
+        <v>380400</v>
       </c>
       <c r="I61" s="3">
-        <v>379400</v>
+        <v>372100</v>
       </c>
       <c r="J61" s="3">
+        <v>366000</v>
+      </c>
+      <c r="K61" s="3">
         <v>198400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>202200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>307700</v>
+        <v>255200</v>
       </c>
       <c r="E62" s="3">
-        <v>230000</v>
+        <v>296800</v>
       </c>
       <c r="F62" s="3">
-        <v>193200</v>
+        <v>221900</v>
       </c>
       <c r="G62" s="3">
-        <v>185300</v>
+        <v>186400</v>
       </c>
       <c r="H62" s="3">
-        <v>128200</v>
+        <v>178700</v>
       </c>
       <c r="I62" s="3">
-        <v>136600</v>
+        <v>123700</v>
       </c>
       <c r="J62" s="3">
+        <v>131700</v>
+      </c>
+      <c r="K62" s="3">
         <v>143000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1274700</v>
+        <v>1204000</v>
       </c>
       <c r="E66" s="3">
-        <v>805300</v>
+        <v>1229700</v>
       </c>
       <c r="F66" s="3">
-        <v>725300</v>
+        <v>777000</v>
       </c>
       <c r="G66" s="3">
-        <v>664600</v>
+        <v>699700</v>
       </c>
       <c r="H66" s="3">
-        <v>615600</v>
+        <v>641200</v>
       </c>
       <c r="I66" s="3">
-        <v>600300</v>
+        <v>593900</v>
       </c>
       <c r="J66" s="3">
+        <v>579100</v>
+      </c>
+      <c r="K66" s="3">
         <v>370600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>258300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>93700</v>
+        <v>266700</v>
       </c>
       <c r="E72" s="3">
-        <v>-121000</v>
+        <v>90400</v>
       </c>
       <c r="F72" s="3">
-        <v>-297600</v>
+        <v>-116700</v>
       </c>
       <c r="G72" s="3">
-        <v>-419400</v>
+        <v>-287100</v>
       </c>
       <c r="H72" s="3">
-        <v>-483400</v>
+        <v>-404600</v>
       </c>
       <c r="I72" s="3">
-        <v>-458200</v>
+        <v>-466300</v>
       </c>
       <c r="J72" s="3">
+        <v>-442100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-492900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-673300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1878600</v>
+        <v>2284900</v>
       </c>
       <c r="E76" s="3">
-        <v>1608400</v>
+        <v>1812400</v>
       </c>
       <c r="F76" s="3">
-        <v>1466600</v>
+        <v>1551800</v>
       </c>
       <c r="G76" s="3">
-        <v>1391900</v>
+        <v>1414900</v>
       </c>
       <c r="H76" s="3">
-        <v>1227000</v>
+        <v>1342900</v>
       </c>
       <c r="I76" s="3">
-        <v>1258100</v>
+        <v>1183800</v>
       </c>
       <c r="J76" s="3">
+        <v>1213800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1140300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>698500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>350200</v>
+        <v>277700</v>
       </c>
       <c r="E81" s="3">
-        <v>269300</v>
+        <v>338000</v>
       </c>
       <c r="F81" s="3">
-        <v>210300</v>
+        <v>259900</v>
       </c>
       <c r="G81" s="3">
-        <v>145500</v>
+        <v>203000</v>
       </c>
       <c r="H81" s="3">
-        <v>52900</v>
+        <v>140500</v>
       </c>
       <c r="I81" s="3">
-        <v>109200</v>
+        <v>51000</v>
       </c>
       <c r="J81" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K81" s="3">
         <v>112700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>117100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,19 +2898,20 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
-        <v>300</v>
-      </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -2722,17 +2920,20 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>118900</v>
+        <v>133300</v>
       </c>
       <c r="E89" s="3">
-        <v>119500</v>
+        <v>114700</v>
       </c>
       <c r="F89" s="3">
-        <v>120400</v>
+        <v>115300</v>
       </c>
       <c r="G89" s="3">
-        <v>120300</v>
+        <v>116300</v>
       </c>
       <c r="H89" s="3">
-        <v>69900</v>
+        <v>116200</v>
       </c>
       <c r="I89" s="3">
-        <v>96300</v>
+        <v>67500</v>
       </c>
       <c r="J89" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K89" s="3">
         <v>87400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>86000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12600</v>
+        <v>-22100</v>
       </c>
       <c r="E91" s="3">
-        <v>-54900</v>
+        <v>-25100</v>
       </c>
       <c r="F91" s="3">
-        <v>-13100</v>
+        <v>-60800</v>
       </c>
       <c r="G91" s="3">
-        <v>-20100</v>
+        <v>-14200</v>
       </c>
       <c r="H91" s="3">
-        <v>-33200</v>
+        <v>-19400</v>
       </c>
       <c r="I91" s="3">
-        <v>-22200</v>
+        <v>-32100</v>
       </c>
       <c r="J91" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>72200</v>
+        <v>-636600</v>
       </c>
       <c r="E94" s="3">
-        <v>-179000</v>
+        <v>69700</v>
       </c>
       <c r="F94" s="3">
-        <v>8900</v>
+        <v>-172800</v>
       </c>
       <c r="G94" s="3">
-        <v>-15600</v>
+        <v>8600</v>
       </c>
       <c r="H94" s="3">
-        <v>15200</v>
+        <v>-15100</v>
       </c>
       <c r="I94" s="3">
-        <v>-190900</v>
+        <v>14600</v>
       </c>
       <c r="J94" s="3">
+        <v>-184300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-19000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-73900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-94200</v>
+        <v>-109400</v>
       </c>
       <c r="E96" s="3">
-        <v>-92300</v>
+        <v>-90900</v>
       </c>
       <c r="F96" s="3">
-        <v>-85100</v>
+        <v>-89100</v>
       </c>
       <c r="G96" s="3">
-        <v>-81500</v>
+        <v>-82200</v>
       </c>
       <c r="H96" s="3">
-        <v>-77700</v>
+        <v>-78700</v>
       </c>
       <c r="I96" s="3">
-        <v>-68000</v>
+        <v>-75000</v>
       </c>
       <c r="J96" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-70600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-29000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>244000</v>
+        <v>249600</v>
       </c>
       <c r="E100" s="3">
-        <v>-79200</v>
+        <v>235600</v>
       </c>
       <c r="F100" s="3">
-        <v>-30100</v>
+        <v>-76500</v>
       </c>
       <c r="G100" s="3">
-        <v>-108400</v>
+        <v>-29000</v>
       </c>
       <c r="H100" s="3">
-        <v>-68300</v>
+        <v>-104600</v>
       </c>
       <c r="I100" s="3">
-        <v>122000</v>
+        <v>-65900</v>
       </c>
       <c r="J100" s="3">
+        <v>117800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-72200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-35300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8500</v>
+        <v>-7600</v>
       </c>
       <c r="E101" s="3">
-        <v>5400</v>
+        <v>8200</v>
       </c>
       <c r="F101" s="3">
-        <v>-3600</v>
+        <v>5200</v>
       </c>
       <c r="G101" s="3">
-        <v>5900</v>
+        <v>-3500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1200</v>
+        <v>5700</v>
       </c>
       <c r="I101" s="3">
-        <v>6000</v>
+        <v>-1100</v>
       </c>
       <c r="J101" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>443600</v>
+        <v>-261300</v>
       </c>
       <c r="E102" s="3">
-        <v>-133400</v>
+        <v>428200</v>
       </c>
       <c r="F102" s="3">
-        <v>95600</v>
+        <v>-128800</v>
       </c>
       <c r="G102" s="3">
-        <v>2200</v>
+        <v>92300</v>
       </c>
       <c r="H102" s="3">
-        <v>15600</v>
+        <v>2100</v>
       </c>
       <c r="I102" s="3">
-        <v>33500</v>
+        <v>15100</v>
       </c>
       <c r="J102" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>GRP.U</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>198900</v>
+        <v>208300</v>
       </c>
       <c r="E8" s="3">
-        <v>179800</v>
+        <v>188400</v>
       </c>
       <c r="F8" s="3">
-        <v>177800</v>
+        <v>186200</v>
       </c>
       <c r="G8" s="3">
-        <v>162300</v>
+        <v>170000</v>
       </c>
       <c r="H8" s="3">
-        <v>157200</v>
+        <v>164600</v>
       </c>
       <c r="I8" s="3">
-        <v>150700</v>
+        <v>157900</v>
       </c>
       <c r="J8" s="3">
-        <v>138000</v>
+        <v>144500</v>
       </c>
       <c r="K8" s="3">
         <v>136300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25700</v>
+        <v>26900</v>
       </c>
       <c r="E9" s="3">
-        <v>22500</v>
+        <v>23500</v>
       </c>
       <c r="F9" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="G9" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="H9" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="I9" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J9" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="K9" s="3">
         <v>36400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>173200</v>
+        <v>181400</v>
       </c>
       <c r="E10" s="3">
-        <v>157400</v>
+        <v>164800</v>
       </c>
       <c r="F10" s="3">
-        <v>155000</v>
+        <v>162400</v>
       </c>
       <c r="G10" s="3">
-        <v>156800</v>
+        <v>164200</v>
       </c>
       <c r="H10" s="3">
-        <v>152100</v>
+        <v>159200</v>
       </c>
       <c r="I10" s="3">
-        <v>145700</v>
+        <v>152600</v>
       </c>
       <c r="J10" s="3">
-        <v>129900</v>
+        <v>136100</v>
       </c>
       <c r="K10" s="3">
         <v>99900</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="F14" s="3">
         <v>500</v>
@@ -915,7 +915,7 @@
         <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65100</v>
+        <v>68200</v>
       </c>
       <c r="E17" s="3">
-        <v>57400</v>
+        <v>60100</v>
       </c>
       <c r="F17" s="3">
-        <v>61300</v>
+        <v>64200</v>
       </c>
       <c r="G17" s="3">
-        <v>40300</v>
+        <v>42300</v>
       </c>
       <c r="H17" s="3">
-        <v>39600</v>
+        <v>41500</v>
       </c>
       <c r="I17" s="3">
-        <v>41200</v>
+        <v>43100</v>
       </c>
       <c r="J17" s="3">
-        <v>49300</v>
+        <v>51600</v>
       </c>
       <c r="K17" s="3">
         <v>39500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>133700</v>
+        <v>140100</v>
       </c>
       <c r="E18" s="3">
-        <v>122400</v>
+        <v>128200</v>
       </c>
       <c r="F18" s="3">
-        <v>116500</v>
+        <v>122000</v>
       </c>
       <c r="G18" s="3">
-        <v>122000</v>
+        <v>127800</v>
       </c>
       <c r="H18" s="3">
-        <v>117600</v>
+        <v>123100</v>
       </c>
       <c r="I18" s="3">
-        <v>109600</v>
+        <v>114700</v>
       </c>
       <c r="J18" s="3">
-        <v>88700</v>
+        <v>92900</v>
       </c>
       <c r="K18" s="3">
         <v>96800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>175100</v>
+        <v>183400</v>
       </c>
       <c r="E20" s="3">
-        <v>254000</v>
+        <v>266000</v>
       </c>
       <c r="F20" s="3">
-        <v>153200</v>
+        <v>160500</v>
       </c>
       <c r="G20" s="3">
-        <v>116600</v>
+        <v>122100</v>
       </c>
       <c r="H20" s="3">
-        <v>50800</v>
+        <v>53200</v>
       </c>
       <c r="I20" s="3">
-        <v>-57100</v>
+        <v>-59800</v>
       </c>
       <c r="J20" s="3">
-        <v>-8500</v>
+        <v>-8900</v>
       </c>
       <c r="K20" s="3">
         <v>24800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>309500</v>
+        <v>324100</v>
       </c>
       <c r="E21" s="3">
-        <v>376600</v>
+        <v>394500</v>
       </c>
       <c r="F21" s="3">
-        <v>270000</v>
+        <v>282700</v>
       </c>
       <c r="G21" s="3">
-        <v>239100</v>
+        <v>250400</v>
       </c>
       <c r="H21" s="3">
-        <v>168900</v>
+        <v>176900</v>
       </c>
       <c r="I21" s="3">
-        <v>52900</v>
+        <v>55400</v>
       </c>
       <c r="J21" s="3">
-        <v>80500</v>
+        <v>84300</v>
       </c>
       <c r="K21" s="3">
         <v>121800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>308800</v>
+        <v>323400</v>
       </c>
       <c r="E23" s="3">
-        <v>376400</v>
+        <v>394300</v>
       </c>
       <c r="F23" s="3">
-        <v>269700</v>
+        <v>282500</v>
       </c>
       <c r="G23" s="3">
-        <v>238600</v>
+        <v>249900</v>
       </c>
       <c r="H23" s="3">
-        <v>168400</v>
+        <v>176300</v>
       </c>
       <c r="I23" s="3">
-        <v>52400</v>
+        <v>54900</v>
       </c>
       <c r="J23" s="3">
-        <v>80200</v>
+        <v>84000</v>
       </c>
       <c r="K23" s="3">
         <v>121600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31000</v>
+        <v>32500</v>
       </c>
       <c r="E24" s="3">
-        <v>38300</v>
+        <v>40100</v>
       </c>
       <c r="F24" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="G24" s="3">
-        <v>34600</v>
+        <v>36200</v>
       </c>
       <c r="H24" s="3">
-        <v>26300</v>
+        <v>27500</v>
       </c>
       <c r="I24" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="J24" s="3">
-        <v>-24100</v>
+        <v>-25200</v>
       </c>
       <c r="K24" s="3">
         <v>8800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>277800</v>
+        <v>290900</v>
       </c>
       <c r="E26" s="3">
-        <v>338200</v>
+        <v>354200</v>
       </c>
       <c r="F26" s="3">
-        <v>260000</v>
+        <v>272300</v>
       </c>
       <c r="G26" s="3">
-        <v>204000</v>
+        <v>213600</v>
       </c>
       <c r="H26" s="3">
-        <v>142100</v>
+        <v>148800</v>
       </c>
       <c r="I26" s="3">
-        <v>46300</v>
+        <v>48500</v>
       </c>
       <c r="J26" s="3">
-        <v>104200</v>
+        <v>109200</v>
       </c>
       <c r="K26" s="3">
         <v>112800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>277700</v>
+        <v>290800</v>
       </c>
       <c r="E27" s="3">
-        <v>338000</v>
+        <v>354000</v>
       </c>
       <c r="F27" s="3">
-        <v>259900</v>
+        <v>272200</v>
       </c>
       <c r="G27" s="3">
-        <v>203000</v>
+        <v>212600</v>
       </c>
       <c r="H27" s="3">
-        <v>140500</v>
+        <v>147100</v>
       </c>
       <c r="I27" s="3">
-        <v>46100</v>
+        <v>48300</v>
       </c>
       <c r="J27" s="3">
-        <v>104100</v>
+        <v>109000</v>
       </c>
       <c r="K27" s="3">
         <v>112700</v>
@@ -1368,10 +1368,10 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="J29" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-175100</v>
+        <v>-183400</v>
       </c>
       <c r="E32" s="3">
-        <v>-254000</v>
+        <v>-266000</v>
       </c>
       <c r="F32" s="3">
-        <v>-153200</v>
+        <v>-160500</v>
       </c>
       <c r="G32" s="3">
-        <v>-116600</v>
+        <v>-122100</v>
       </c>
       <c r="H32" s="3">
-        <v>-50800</v>
+        <v>-53200</v>
       </c>
       <c r="I32" s="3">
-        <v>57100</v>
+        <v>59800</v>
       </c>
       <c r="J32" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="K32" s="3">
         <v>-24800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>277700</v>
+        <v>290800</v>
       </c>
       <c r="E33" s="3">
-        <v>338000</v>
+        <v>354000</v>
       </c>
       <c r="F33" s="3">
-        <v>259900</v>
+        <v>272200</v>
       </c>
       <c r="G33" s="3">
-        <v>203000</v>
+        <v>212600</v>
       </c>
       <c r="H33" s="3">
-        <v>140500</v>
+        <v>147100</v>
       </c>
       <c r="I33" s="3">
-        <v>51000</v>
+        <v>53400</v>
       </c>
       <c r="J33" s="3">
-        <v>105400</v>
+        <v>110400</v>
       </c>
       <c r="K33" s="3">
         <v>112700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>277700</v>
+        <v>290800</v>
       </c>
       <c r="E35" s="3">
-        <v>338000</v>
+        <v>354000</v>
       </c>
       <c r="F35" s="3">
-        <v>259900</v>
+        <v>272200</v>
       </c>
       <c r="G35" s="3">
-        <v>203000</v>
+        <v>212600</v>
       </c>
       <c r="H35" s="3">
-        <v>140500</v>
+        <v>147100</v>
       </c>
       <c r="I35" s="3">
-        <v>51000</v>
+        <v>53400</v>
       </c>
       <c r="J35" s="3">
-        <v>105400</v>
+        <v>110400</v>
       </c>
       <c r="K35" s="3">
         <v>112700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>180500</v>
+        <v>189100</v>
       </c>
       <c r="E41" s="3">
-        <v>388500</v>
+        <v>407200</v>
       </c>
       <c r="F41" s="3">
-        <v>40400</v>
+        <v>42300</v>
       </c>
       <c r="G41" s="3">
-        <v>79500</v>
+        <v>83300</v>
       </c>
       <c r="H41" s="3">
-        <v>46800</v>
+        <v>49100</v>
       </c>
       <c r="I41" s="3">
-        <v>84400</v>
+        <v>88500</v>
       </c>
       <c r="J41" s="3">
-        <v>69400</v>
+        <v>72700</v>
       </c>
       <c r="K41" s="3">
         <v>38400</v>
@@ -1685,19 +1685,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36400</v>
+        <v>38200</v>
       </c>
       <c r="E42" s="3">
-        <v>89500</v>
+        <v>93800</v>
       </c>
       <c r="F42" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="G42" s="3">
-        <v>99400</v>
+        <v>104100</v>
       </c>
       <c r="H42" s="3">
-        <v>39700</v>
+        <v>41600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="E43" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F43" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G43" s="3">
         <v>1100</v>
       </c>
       <c r="H43" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="I43" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J43" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K43" s="3">
         <v>6700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E45" s="3">
-        <v>34300</v>
+        <v>35900</v>
       </c>
       <c r="F45" s="3">
-        <v>286100</v>
+        <v>299900</v>
       </c>
       <c r="G45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I45" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="J45" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="K45" s="3">
         <v>1000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>233700</v>
+        <v>244900</v>
       </c>
       <c r="E46" s="3">
-        <v>515600</v>
+        <v>540400</v>
       </c>
       <c r="F46" s="3">
-        <v>338100</v>
+        <v>354300</v>
       </c>
       <c r="G46" s="3">
-        <v>182000</v>
+        <v>190800</v>
       </c>
       <c r="H46" s="3">
-        <v>93600</v>
+        <v>98100</v>
       </c>
       <c r="I46" s="3">
-        <v>91600</v>
+        <v>95900</v>
       </c>
       <c r="J46" s="3">
-        <v>76000</v>
+        <v>79700</v>
       </c>
       <c r="K46" s="3">
         <v>46100</v>
@@ -1849,8 +1849,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>12200</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3239200</v>
+        <v>3394500</v>
       </c>
       <c r="E48" s="3">
-        <v>2488000</v>
+        <v>2607300</v>
       </c>
       <c r="F48" s="3">
-        <v>1986000</v>
+        <v>2081200</v>
       </c>
       <c r="G48" s="3">
-        <v>1927400</v>
+        <v>2019800</v>
       </c>
       <c r="H48" s="3">
-        <v>1883600</v>
+        <v>1974000</v>
       </c>
       <c r="I48" s="3">
-        <v>1679200</v>
+        <v>1759700</v>
       </c>
       <c r="J48" s="3">
-        <v>1709500</v>
+        <v>1791500</v>
       </c>
       <c r="K48" s="3">
         <v>2321200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3900</v>
+        <v>16800</v>
       </c>
       <c r="E52" s="3">
-        <v>38500</v>
+        <v>40300</v>
       </c>
       <c r="F52" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="G52" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="H52" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="I52" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="J52" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="K52" s="3">
         <v>11300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3489000</v>
+        <v>3656200</v>
       </c>
       <c r="E54" s="3">
-        <v>3042200</v>
+        <v>3188000</v>
       </c>
       <c r="F54" s="3">
-        <v>2328700</v>
+        <v>2440400</v>
       </c>
       <c r="G54" s="3">
-        <v>2114600</v>
+        <v>2216000</v>
       </c>
       <c r="H54" s="3">
-        <v>1984100</v>
+        <v>2079200</v>
       </c>
       <c r="I54" s="3">
-        <v>1777700</v>
+        <v>1863000</v>
       </c>
       <c r="J54" s="3">
-        <v>1792900</v>
+        <v>1878900</v>
       </c>
       <c r="K54" s="3">
         <v>1510900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E57" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="F57" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G57" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H57" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="I57" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J57" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="K57" s="3">
         <v>4200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>23600</v>
+        <v>24800</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>29200</v>
+        <v>30600</v>
       </c>
       <c r="I58" s="3">
-        <v>46100</v>
+        <v>48300</v>
       </c>
       <c r="J58" s="3">
-        <v>38600</v>
+        <v>40500</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56400</v>
+        <v>59100</v>
       </c>
       <c r="E59" s="3">
-        <v>57600</v>
+        <v>60300</v>
       </c>
       <c r="F59" s="3">
-        <v>56300</v>
+        <v>59000</v>
       </c>
       <c r="G59" s="3">
-        <v>38400</v>
+        <v>40200</v>
       </c>
       <c r="H59" s="3">
-        <v>42400</v>
+        <v>44400</v>
       </c>
       <c r="I59" s="3">
-        <v>44100</v>
+        <v>46300</v>
       </c>
       <c r="J59" s="3">
-        <v>34700</v>
+        <v>36400</v>
       </c>
       <c r="K59" s="3">
         <v>57600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>61800</v>
+        <v>64800</v>
       </c>
       <c r="E60" s="3">
-        <v>61500</v>
+        <v>64400</v>
       </c>
       <c r="F60" s="3">
-        <v>84100</v>
+        <v>88100</v>
       </c>
       <c r="G60" s="3">
-        <v>42500</v>
+        <v>44500</v>
       </c>
       <c r="H60" s="3">
-        <v>74900</v>
+        <v>78500</v>
       </c>
       <c r="I60" s="3">
-        <v>93600</v>
+        <v>98100</v>
       </c>
       <c r="J60" s="3">
-        <v>77600</v>
+        <v>81300</v>
       </c>
       <c r="K60" s="3">
         <v>31900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>885600</v>
+        <v>928100</v>
       </c>
       <c r="E61" s="3">
-        <v>870400</v>
+        <v>912100</v>
       </c>
       <c r="F61" s="3">
-        <v>470100</v>
+        <v>492700</v>
       </c>
       <c r="G61" s="3">
-        <v>469700</v>
+        <v>492200</v>
       </c>
       <c r="H61" s="3">
-        <v>380400</v>
+        <v>398600</v>
       </c>
       <c r="I61" s="3">
-        <v>372100</v>
+        <v>389900</v>
       </c>
       <c r="J61" s="3">
-        <v>366000</v>
+        <v>383500</v>
       </c>
       <c r="K61" s="3">
         <v>198400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>255200</v>
+        <v>267400</v>
       </c>
       <c r="E62" s="3">
-        <v>296800</v>
+        <v>311100</v>
       </c>
       <c r="F62" s="3">
-        <v>221900</v>
+        <v>232500</v>
       </c>
       <c r="G62" s="3">
-        <v>186400</v>
+        <v>195300</v>
       </c>
       <c r="H62" s="3">
-        <v>178700</v>
+        <v>187300</v>
       </c>
       <c r="I62" s="3">
-        <v>123700</v>
+        <v>129600</v>
       </c>
       <c r="J62" s="3">
-        <v>131700</v>
+        <v>138100</v>
       </c>
       <c r="K62" s="3">
         <v>143000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1204000</v>
+        <v>1261700</v>
       </c>
       <c r="E66" s="3">
-        <v>1229700</v>
+        <v>1288700</v>
       </c>
       <c r="F66" s="3">
-        <v>777000</v>
+        <v>814200</v>
       </c>
       <c r="G66" s="3">
-        <v>699700</v>
+        <v>733300</v>
       </c>
       <c r="H66" s="3">
-        <v>641200</v>
+        <v>671900</v>
       </c>
       <c r="I66" s="3">
-        <v>593900</v>
+        <v>622400</v>
       </c>
       <c r="J66" s="3">
-        <v>579100</v>
+        <v>606900</v>
       </c>
       <c r="K66" s="3">
         <v>370600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>266700</v>
+        <v>279500</v>
       </c>
       <c r="E72" s="3">
-        <v>90400</v>
+        <v>94800</v>
       </c>
       <c r="F72" s="3">
-        <v>-116700</v>
+        <v>-122300</v>
       </c>
       <c r="G72" s="3">
-        <v>-287100</v>
+        <v>-300900</v>
       </c>
       <c r="H72" s="3">
-        <v>-404600</v>
+        <v>-424000</v>
       </c>
       <c r="I72" s="3">
-        <v>-466300</v>
+        <v>-488700</v>
       </c>
       <c r="J72" s="3">
-        <v>-442100</v>
+        <v>-463300</v>
       </c>
       <c r="K72" s="3">
         <v>-492900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2284900</v>
+        <v>2394500</v>
       </c>
       <c r="E76" s="3">
-        <v>1812400</v>
+        <v>1899300</v>
       </c>
       <c r="F76" s="3">
-        <v>1551800</v>
+        <v>1626200</v>
       </c>
       <c r="G76" s="3">
-        <v>1414900</v>
+        <v>1482800</v>
       </c>
       <c r="H76" s="3">
-        <v>1342900</v>
+        <v>1407300</v>
       </c>
       <c r="I76" s="3">
-        <v>1183800</v>
+        <v>1240600</v>
       </c>
       <c r="J76" s="3">
-        <v>1213800</v>
+        <v>1272000</v>
       </c>
       <c r="K76" s="3">
         <v>1140300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>277700</v>
+        <v>290800</v>
       </c>
       <c r="E81" s="3">
-        <v>338000</v>
+        <v>354000</v>
       </c>
       <c r="F81" s="3">
-        <v>259900</v>
+        <v>272200</v>
       </c>
       <c r="G81" s="3">
-        <v>203000</v>
+        <v>212600</v>
       </c>
       <c r="H81" s="3">
-        <v>140500</v>
+        <v>147100</v>
       </c>
       <c r="I81" s="3">
-        <v>51000</v>
+        <v>53400</v>
       </c>
       <c r="J81" s="3">
-        <v>105400</v>
+        <v>110400</v>
       </c>
       <c r="K81" s="3">
         <v>112700</v>
@@ -2911,7 +2911,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>133300</v>
+        <v>139600</v>
       </c>
       <c r="E89" s="3">
-        <v>114700</v>
+        <v>120200</v>
       </c>
       <c r="F89" s="3">
-        <v>115300</v>
+        <v>120800</v>
       </c>
       <c r="G89" s="3">
-        <v>116300</v>
+        <v>121800</v>
       </c>
       <c r="H89" s="3">
-        <v>116200</v>
+        <v>121700</v>
       </c>
       <c r="I89" s="3">
-        <v>67500</v>
+        <v>70700</v>
       </c>
       <c r="J89" s="3">
-        <v>92900</v>
+        <v>97300</v>
       </c>
       <c r="K89" s="3">
         <v>87400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22100</v>
+        <v>-23200</v>
       </c>
       <c r="E91" s="3">
-        <v>-25100</v>
+        <v>-26300</v>
       </c>
       <c r="F91" s="3">
-        <v>-60800</v>
+        <v>-63700</v>
       </c>
       <c r="G91" s="3">
-        <v>-14200</v>
+        <v>-14800</v>
       </c>
       <c r="H91" s="3">
-        <v>-19400</v>
+        <v>-20300</v>
       </c>
       <c r="I91" s="3">
-        <v>-32100</v>
+        <v>-33600</v>
       </c>
       <c r="J91" s="3">
-        <v>-21500</v>
+        <v>-22500</v>
       </c>
       <c r="K91" s="3">
         <v>-23800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-636600</v>
+        <v>-666800</v>
       </c>
       <c r="E94" s="3">
-        <v>69700</v>
+        <v>73000</v>
       </c>
       <c r="F94" s="3">
-        <v>-172800</v>
+        <v>-181000</v>
       </c>
       <c r="G94" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="H94" s="3">
-        <v>-15100</v>
+        <v>-15800</v>
       </c>
       <c r="I94" s="3">
-        <v>14600</v>
+        <v>15300</v>
       </c>
       <c r="J94" s="3">
-        <v>-184300</v>
+        <v>-193000</v>
       </c>
       <c r="K94" s="3">
         <v>-19000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-109400</v>
+        <v>-114600</v>
       </c>
       <c r="E96" s="3">
-        <v>-90900</v>
+        <v>-95200</v>
       </c>
       <c r="F96" s="3">
-        <v>-89100</v>
+        <v>-93300</v>
       </c>
       <c r="G96" s="3">
-        <v>-82200</v>
+        <v>-86100</v>
       </c>
       <c r="H96" s="3">
-        <v>-78700</v>
+        <v>-82400</v>
       </c>
       <c r="I96" s="3">
-        <v>-75000</v>
+        <v>-78500</v>
       </c>
       <c r="J96" s="3">
-        <v>-65600</v>
+        <v>-68800</v>
       </c>
       <c r="K96" s="3">
         <v>-70600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>249600</v>
+        <v>261500</v>
       </c>
       <c r="E100" s="3">
-        <v>235600</v>
+        <v>246700</v>
       </c>
       <c r="F100" s="3">
-        <v>-76500</v>
+        <v>-80100</v>
       </c>
       <c r="G100" s="3">
-        <v>-29000</v>
+        <v>-30400</v>
       </c>
       <c r="H100" s="3">
-        <v>-104600</v>
+        <v>-109600</v>
       </c>
       <c r="I100" s="3">
-        <v>-65900</v>
+        <v>-69000</v>
       </c>
       <c r="J100" s="3">
-        <v>117800</v>
+        <v>123400</v>
       </c>
       <c r="K100" s="3">
         <v>-72200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7600</v>
+        <v>-7900</v>
       </c>
       <c r="E101" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="F101" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="G101" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="H101" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="I101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="J101" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-261300</v>
+        <v>-273700</v>
       </c>
       <c r="E102" s="3">
-        <v>428200</v>
+        <v>448500</v>
       </c>
       <c r="F102" s="3">
-        <v>-128800</v>
+        <v>-134900</v>
       </c>
       <c r="G102" s="3">
-        <v>92300</v>
+        <v>96700</v>
       </c>
       <c r="H102" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I102" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="J102" s="3">
-        <v>32300</v>
+        <v>33800</v>
       </c>
       <c r="K102" s="3">
         <v>-4400</v>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>208300</v>
+        <v>210700</v>
       </c>
       <c r="E8" s="3">
+        <v>190500</v>
+      </c>
+      <c r="F8" s="3">
         <v>188400</v>
       </c>
-      <c r="F8" s="3">
-        <v>186200</v>
-      </c>
       <c r="G8" s="3">
-        <v>170000</v>
+        <v>172000</v>
       </c>
       <c r="H8" s="3">
-        <v>164600</v>
+        <v>166500</v>
       </c>
       <c r="I8" s="3">
-        <v>157900</v>
+        <v>159700</v>
       </c>
       <c r="J8" s="3">
-        <v>144500</v>
+        <v>146200</v>
       </c>
       <c r="K8" s="3">
         <v>136300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26900</v>
+        <v>27200</v>
       </c>
       <c r="E9" s="3">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="F9" s="3">
-        <v>23900</v>
+        <v>24100</v>
       </c>
       <c r="G9" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H9" s="3">
         <v>5400</v>
       </c>
       <c r="I9" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J9" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="K9" s="3">
         <v>36400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>181400</v>
+        <v>183500</v>
       </c>
       <c r="E10" s="3">
-        <v>164800</v>
+        <v>166700</v>
       </c>
       <c r="F10" s="3">
-        <v>162400</v>
+        <v>164200</v>
       </c>
       <c r="G10" s="3">
-        <v>164200</v>
+        <v>166100</v>
       </c>
       <c r="H10" s="3">
-        <v>159200</v>
+        <v>161100</v>
       </c>
       <c r="I10" s="3">
-        <v>152600</v>
+        <v>154400</v>
       </c>
       <c r="J10" s="3">
-        <v>136100</v>
+        <v>137600</v>
       </c>
       <c r="K10" s="3">
         <v>99900</v>
@@ -903,7 +903,7 @@
         <v>6100</v>
       </c>
       <c r="F14" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -915,7 +915,7 @@
         <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>500</v>
       </c>
       <c r="H15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>68200</v>
+        <v>69000</v>
       </c>
       <c r="E17" s="3">
-        <v>60100</v>
+        <v>60800</v>
       </c>
       <c r="F17" s="3">
-        <v>64200</v>
+        <v>65000</v>
       </c>
       <c r="G17" s="3">
-        <v>42300</v>
+        <v>42700</v>
       </c>
       <c r="H17" s="3">
-        <v>41500</v>
+        <v>42000</v>
       </c>
       <c r="I17" s="3">
-        <v>43100</v>
+        <v>43600</v>
       </c>
       <c r="J17" s="3">
-        <v>51600</v>
+        <v>52200</v>
       </c>
       <c r="K17" s="3">
         <v>39500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>140100</v>
+        <v>141700</v>
       </c>
       <c r="E18" s="3">
-        <v>128200</v>
+        <v>129700</v>
       </c>
       <c r="F18" s="3">
-        <v>122000</v>
+        <v>123400</v>
       </c>
       <c r="G18" s="3">
-        <v>127800</v>
+        <v>129200</v>
       </c>
       <c r="H18" s="3">
-        <v>123100</v>
+        <v>124500</v>
       </c>
       <c r="I18" s="3">
-        <v>114700</v>
+        <v>116100</v>
       </c>
       <c r="J18" s="3">
-        <v>92900</v>
+        <v>94000</v>
       </c>
       <c r="K18" s="3">
         <v>96800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>183400</v>
+        <v>185500</v>
       </c>
       <c r="E20" s="3">
-        <v>266000</v>
+        <v>269100</v>
       </c>
       <c r="F20" s="3">
-        <v>160500</v>
+        <v>162300</v>
       </c>
       <c r="G20" s="3">
-        <v>122100</v>
+        <v>123500</v>
       </c>
       <c r="H20" s="3">
-        <v>53200</v>
+        <v>53800</v>
       </c>
       <c r="I20" s="3">
-        <v>-59800</v>
+        <v>-60500</v>
       </c>
       <c r="J20" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="K20" s="3">
         <v>24800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>324100</v>
+        <v>327800</v>
       </c>
       <c r="E21" s="3">
-        <v>394500</v>
+        <v>399000</v>
       </c>
       <c r="F21" s="3">
-        <v>282700</v>
+        <v>286000</v>
       </c>
       <c r="G21" s="3">
-        <v>250400</v>
+        <v>253300</v>
       </c>
       <c r="H21" s="3">
-        <v>176900</v>
+        <v>178900</v>
       </c>
       <c r="I21" s="3">
-        <v>55400</v>
+        <v>56000</v>
       </c>
       <c r="J21" s="3">
-        <v>84300</v>
+        <v>85300</v>
       </c>
       <c r="K21" s="3">
         <v>121800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>323400</v>
+        <v>327100</v>
       </c>
       <c r="E23" s="3">
-        <v>394300</v>
+        <v>398800</v>
       </c>
       <c r="F23" s="3">
-        <v>282500</v>
+        <v>285700</v>
       </c>
       <c r="G23" s="3">
-        <v>249900</v>
+        <v>252700</v>
       </c>
       <c r="H23" s="3">
-        <v>176300</v>
+        <v>178400</v>
       </c>
       <c r="I23" s="3">
-        <v>54900</v>
+        <v>55500</v>
       </c>
       <c r="J23" s="3">
-        <v>84000</v>
+        <v>84900</v>
       </c>
       <c r="K23" s="3">
         <v>121600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="E24" s="3">
-        <v>40100</v>
+        <v>40500</v>
       </c>
       <c r="F24" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="G24" s="3">
-        <v>36200</v>
+        <v>36700</v>
       </c>
       <c r="H24" s="3">
-        <v>27500</v>
+        <v>27800</v>
       </c>
       <c r="I24" s="3">
         <v>6500</v>
       </c>
       <c r="J24" s="3">
-        <v>-25200</v>
+        <v>-25500</v>
       </c>
       <c r="K24" s="3">
         <v>8800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>290900</v>
+        <v>294300</v>
       </c>
       <c r="E26" s="3">
-        <v>354200</v>
+        <v>358200</v>
       </c>
       <c r="F26" s="3">
-        <v>272300</v>
+        <v>275400</v>
       </c>
       <c r="G26" s="3">
-        <v>213600</v>
+        <v>216100</v>
       </c>
       <c r="H26" s="3">
-        <v>148800</v>
+        <v>150500</v>
       </c>
       <c r="I26" s="3">
-        <v>48500</v>
+        <v>49000</v>
       </c>
       <c r="J26" s="3">
-        <v>109200</v>
+        <v>110400</v>
       </c>
       <c r="K26" s="3">
         <v>112800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>290800</v>
+        <v>294100</v>
       </c>
       <c r="E27" s="3">
-        <v>354000</v>
+        <v>358100</v>
       </c>
       <c r="F27" s="3">
-        <v>272200</v>
+        <v>275400</v>
       </c>
       <c r="G27" s="3">
-        <v>212600</v>
+        <v>215000</v>
       </c>
       <c r="H27" s="3">
-        <v>147100</v>
+        <v>148800</v>
       </c>
       <c r="I27" s="3">
-        <v>48300</v>
+        <v>48800</v>
       </c>
       <c r="J27" s="3">
-        <v>109000</v>
+        <v>110200</v>
       </c>
       <c r="K27" s="3">
         <v>112700</v>
@@ -1368,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J29" s="3">
         <v>1400</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-183400</v>
+        <v>-185500</v>
       </c>
       <c r="E32" s="3">
-        <v>-266000</v>
+        <v>-269100</v>
       </c>
       <c r="F32" s="3">
-        <v>-160500</v>
+        <v>-162300</v>
       </c>
       <c r="G32" s="3">
-        <v>-122100</v>
+        <v>-123500</v>
       </c>
       <c r="H32" s="3">
-        <v>-53200</v>
+        <v>-53800</v>
       </c>
       <c r="I32" s="3">
-        <v>59800</v>
+        <v>60500</v>
       </c>
       <c r="J32" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="K32" s="3">
         <v>-24800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>290800</v>
+        <v>294100</v>
       </c>
       <c r="E33" s="3">
-        <v>354000</v>
+        <v>358100</v>
       </c>
       <c r="F33" s="3">
-        <v>272200</v>
+        <v>275400</v>
       </c>
       <c r="G33" s="3">
-        <v>212600</v>
+        <v>215000</v>
       </c>
       <c r="H33" s="3">
-        <v>147100</v>
+        <v>148800</v>
       </c>
       <c r="I33" s="3">
-        <v>53400</v>
+        <v>54100</v>
       </c>
       <c r="J33" s="3">
-        <v>110400</v>
+        <v>111600</v>
       </c>
       <c r="K33" s="3">
         <v>112700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>290800</v>
+        <v>294100</v>
       </c>
       <c r="E35" s="3">
-        <v>354000</v>
+        <v>358100</v>
       </c>
       <c r="F35" s="3">
-        <v>272200</v>
+        <v>275400</v>
       </c>
       <c r="G35" s="3">
-        <v>212600</v>
+        <v>215000</v>
       </c>
       <c r="H35" s="3">
-        <v>147100</v>
+        <v>148800</v>
       </c>
       <c r="I35" s="3">
-        <v>53400</v>
+        <v>54100</v>
       </c>
       <c r="J35" s="3">
-        <v>110400</v>
+        <v>111600</v>
       </c>
       <c r="K35" s="3">
         <v>112700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>189100</v>
+        <v>191300</v>
       </c>
       <c r="E41" s="3">
-        <v>407200</v>
+        <v>411800</v>
       </c>
       <c r="F41" s="3">
-        <v>42300</v>
+        <v>42800</v>
       </c>
       <c r="G41" s="3">
-        <v>83300</v>
+        <v>84200</v>
       </c>
       <c r="H41" s="3">
-        <v>49100</v>
+        <v>49600</v>
       </c>
       <c r="I41" s="3">
-        <v>88500</v>
+        <v>89500</v>
       </c>
       <c r="J41" s="3">
-        <v>72700</v>
+        <v>73500</v>
       </c>
       <c r="K41" s="3">
         <v>38400</v>
@@ -1685,19 +1685,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38200</v>
+        <v>38600</v>
       </c>
       <c r="E42" s="3">
-        <v>93800</v>
+        <v>94900</v>
       </c>
       <c r="F42" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="G42" s="3">
-        <v>104100</v>
+        <v>105300</v>
       </c>
       <c r="H42" s="3">
-        <v>41600</v>
+        <v>42100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1718,10 +1718,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="E43" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F43" s="3">
         <v>1900</v>
@@ -1730,7 +1730,7 @@
         <v>1100</v>
       </c>
       <c r="H43" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I43" s="3">
         <v>2400</v>
@@ -1787,16 +1787,16 @@
         <v>2600</v>
       </c>
       <c r="E45" s="3">
-        <v>35900</v>
+        <v>36300</v>
       </c>
       <c r="F45" s="3">
-        <v>299900</v>
+        <v>303300</v>
       </c>
       <c r="G45" s="3">
         <v>2300</v>
       </c>
       <c r="H45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I45" s="3">
         <v>5100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>244900</v>
+        <v>247800</v>
       </c>
       <c r="E46" s="3">
-        <v>540400</v>
+        <v>546600</v>
       </c>
       <c r="F46" s="3">
-        <v>354300</v>
+        <v>358400</v>
       </c>
       <c r="G46" s="3">
-        <v>190800</v>
+        <v>193000</v>
       </c>
       <c r="H46" s="3">
-        <v>98100</v>
+        <v>99200</v>
       </c>
       <c r="I46" s="3">
-        <v>95900</v>
+        <v>97000</v>
       </c>
       <c r="J46" s="3">
-        <v>79700</v>
+        <v>80600</v>
       </c>
       <c r="K46" s="3">
         <v>46100</v>
@@ -1862,7 +1862,7 @@
         <v>400</v>
       </c>
       <c r="H47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I47" s="3">
         <v>400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3394500</v>
+        <v>3433400</v>
       </c>
       <c r="E48" s="3">
-        <v>2607300</v>
+        <v>2637200</v>
       </c>
       <c r="F48" s="3">
-        <v>2081200</v>
+        <v>2105100</v>
       </c>
       <c r="G48" s="3">
-        <v>2019800</v>
+        <v>2043000</v>
       </c>
       <c r="H48" s="3">
-        <v>1974000</v>
+        <v>1996600</v>
       </c>
       <c r="I48" s="3">
-        <v>1759700</v>
+        <v>1779900</v>
       </c>
       <c r="J48" s="3">
-        <v>1791500</v>
+        <v>1812000</v>
       </c>
       <c r="K48" s="3">
         <v>2321200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16800</v>
+        <v>17000</v>
       </c>
       <c r="E52" s="3">
-        <v>40300</v>
+        <v>40800</v>
       </c>
       <c r="F52" s="3">
         <v>4900</v>
       </c>
       <c r="G52" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H52" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I52" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="J52" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="K52" s="3">
         <v>11300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3656200</v>
+        <v>3698200</v>
       </c>
       <c r="E54" s="3">
-        <v>3188000</v>
+        <v>3224600</v>
       </c>
       <c r="F54" s="3">
-        <v>2440400</v>
+        <v>2468400</v>
       </c>
       <c r="G54" s="3">
-        <v>2216000</v>
+        <v>2241400</v>
       </c>
       <c r="H54" s="3">
-        <v>2079200</v>
+        <v>2103000</v>
       </c>
       <c r="I54" s="3">
-        <v>1863000</v>
+        <v>1884300</v>
       </c>
       <c r="J54" s="3">
-        <v>1878900</v>
+        <v>1900400</v>
       </c>
       <c r="K54" s="3">
         <v>1510900</v>
@@ -2144,16 +2144,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E57" s="3">
         <v>4100</v>
       </c>
       <c r="F57" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G57" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="H57" s="3">
         <v>3500</v>
@@ -2162,7 +2162,7 @@
         <v>3500</v>
       </c>
       <c r="J57" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K57" s="3">
         <v>4200</v>
@@ -2183,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>24800</v>
+        <v>25100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>30600</v>
+        <v>31000</v>
       </c>
       <c r="I58" s="3">
-        <v>48300</v>
+        <v>48900</v>
       </c>
       <c r="J58" s="3">
-        <v>40500</v>
+        <v>40900</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59100</v>
+        <v>59800</v>
       </c>
       <c r="E59" s="3">
-        <v>60300</v>
+        <v>61000</v>
       </c>
       <c r="F59" s="3">
-        <v>59000</v>
+        <v>59700</v>
       </c>
       <c r="G59" s="3">
-        <v>40200</v>
+        <v>40700</v>
       </c>
       <c r="H59" s="3">
-        <v>44400</v>
+        <v>44900</v>
       </c>
       <c r="I59" s="3">
-        <v>46300</v>
+        <v>46800</v>
       </c>
       <c r="J59" s="3">
-        <v>36400</v>
+        <v>36800</v>
       </c>
       <c r="K59" s="3">
         <v>57600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64800</v>
+        <v>65500</v>
       </c>
       <c r="E60" s="3">
-        <v>64400</v>
+        <v>65200</v>
       </c>
       <c r="F60" s="3">
-        <v>88100</v>
+        <v>89100</v>
       </c>
       <c r="G60" s="3">
-        <v>44500</v>
+        <v>45000</v>
       </c>
       <c r="H60" s="3">
-        <v>78500</v>
+        <v>79400</v>
       </c>
       <c r="I60" s="3">
-        <v>98100</v>
+        <v>99200</v>
       </c>
       <c r="J60" s="3">
-        <v>81300</v>
+        <v>82200</v>
       </c>
       <c r="K60" s="3">
         <v>31900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>928100</v>
+        <v>938700</v>
       </c>
       <c r="E61" s="3">
-        <v>912100</v>
+        <v>922600</v>
       </c>
       <c r="F61" s="3">
-        <v>492700</v>
+        <v>498300</v>
       </c>
       <c r="G61" s="3">
-        <v>492200</v>
+        <v>497900</v>
       </c>
       <c r="H61" s="3">
-        <v>398600</v>
+        <v>403200</v>
       </c>
       <c r="I61" s="3">
-        <v>389900</v>
+        <v>394400</v>
       </c>
       <c r="J61" s="3">
-        <v>383500</v>
+        <v>387900</v>
       </c>
       <c r="K61" s="3">
         <v>198400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>267400</v>
+        <v>270500</v>
       </c>
       <c r="E62" s="3">
-        <v>311100</v>
+        <v>314600</v>
       </c>
       <c r="F62" s="3">
-        <v>232500</v>
+        <v>235200</v>
       </c>
       <c r="G62" s="3">
-        <v>195300</v>
+        <v>197600</v>
       </c>
       <c r="H62" s="3">
-        <v>187300</v>
+        <v>189500</v>
       </c>
       <c r="I62" s="3">
-        <v>129600</v>
+        <v>131100</v>
       </c>
       <c r="J62" s="3">
-        <v>138100</v>
+        <v>139600</v>
       </c>
       <c r="K62" s="3">
         <v>143000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1261700</v>
+        <v>1276200</v>
       </c>
       <c r="E66" s="3">
-        <v>1288700</v>
+        <v>1303500</v>
       </c>
       <c r="F66" s="3">
-        <v>814200</v>
+        <v>823600</v>
       </c>
       <c r="G66" s="3">
-        <v>733300</v>
+        <v>741700</v>
       </c>
       <c r="H66" s="3">
-        <v>671900</v>
+        <v>679600</v>
       </c>
       <c r="I66" s="3">
-        <v>622400</v>
+        <v>629500</v>
       </c>
       <c r="J66" s="3">
-        <v>606900</v>
+        <v>613900</v>
       </c>
       <c r="K66" s="3">
         <v>370600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>279500</v>
+        <v>282700</v>
       </c>
       <c r="E72" s="3">
-        <v>94800</v>
+        <v>95800</v>
       </c>
       <c r="F72" s="3">
-        <v>-122300</v>
+        <v>-123700</v>
       </c>
       <c r="G72" s="3">
-        <v>-300900</v>
+        <v>-304300</v>
       </c>
       <c r="H72" s="3">
-        <v>-424000</v>
+        <v>-428900</v>
       </c>
       <c r="I72" s="3">
-        <v>-488700</v>
+        <v>-494300</v>
       </c>
       <c r="J72" s="3">
-        <v>-463300</v>
+        <v>-468600</v>
       </c>
       <c r="K72" s="3">
         <v>-492900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2394500</v>
+        <v>2422000</v>
       </c>
       <c r="E76" s="3">
-        <v>1899300</v>
+        <v>1921100</v>
       </c>
       <c r="F76" s="3">
-        <v>1626200</v>
+        <v>1644800</v>
       </c>
       <c r="G76" s="3">
-        <v>1482800</v>
+        <v>1499800</v>
       </c>
       <c r="H76" s="3">
-        <v>1407300</v>
+        <v>1423400</v>
       </c>
       <c r="I76" s="3">
-        <v>1240600</v>
+        <v>1254800</v>
       </c>
       <c r="J76" s="3">
-        <v>1272000</v>
+        <v>1286500</v>
       </c>
       <c r="K76" s="3">
         <v>1140300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>290800</v>
+        <v>294100</v>
       </c>
       <c r="E81" s="3">
-        <v>354000</v>
+        <v>358100</v>
       </c>
       <c r="F81" s="3">
-        <v>272200</v>
+        <v>275400</v>
       </c>
       <c r="G81" s="3">
-        <v>212600</v>
+        <v>215000</v>
       </c>
       <c r="H81" s="3">
-        <v>147100</v>
+        <v>148800</v>
       </c>
       <c r="I81" s="3">
-        <v>53400</v>
+        <v>54100</v>
       </c>
       <c r="J81" s="3">
-        <v>110400</v>
+        <v>111600</v>
       </c>
       <c r="K81" s="3">
         <v>112700</v>
@@ -2917,7 +2917,7 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>139600</v>
+        <v>141200</v>
       </c>
       <c r="E89" s="3">
-        <v>120200</v>
+        <v>121500</v>
       </c>
       <c r="F89" s="3">
-        <v>120800</v>
+        <v>122200</v>
       </c>
       <c r="G89" s="3">
-        <v>121800</v>
+        <v>123200</v>
       </c>
       <c r="H89" s="3">
-        <v>121700</v>
+        <v>123100</v>
       </c>
       <c r="I89" s="3">
-        <v>70700</v>
+        <v>71500</v>
       </c>
       <c r="J89" s="3">
-        <v>97300</v>
+        <v>98500</v>
       </c>
       <c r="K89" s="3">
         <v>87400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23200</v>
+        <v>-23500</v>
       </c>
       <c r="E91" s="3">
-        <v>-26300</v>
+        <v>-26600</v>
       </c>
       <c r="F91" s="3">
-        <v>-63700</v>
+        <v>-64400</v>
       </c>
       <c r="G91" s="3">
-        <v>-14800</v>
+        <v>-15000</v>
       </c>
       <c r="H91" s="3">
-        <v>-20300</v>
+        <v>-20600</v>
       </c>
       <c r="I91" s="3">
-        <v>-33600</v>
+        <v>-34000</v>
       </c>
       <c r="J91" s="3">
-        <v>-22500</v>
+        <v>-22700</v>
       </c>
       <c r="K91" s="3">
         <v>-23800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-666800</v>
+        <v>-674400</v>
       </c>
       <c r="E94" s="3">
-        <v>73000</v>
+        <v>73800</v>
       </c>
       <c r="F94" s="3">
-        <v>-181000</v>
+        <v>-183100</v>
       </c>
       <c r="G94" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="H94" s="3">
-        <v>-15800</v>
+        <v>-16000</v>
       </c>
       <c r="I94" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="J94" s="3">
-        <v>-193000</v>
+        <v>-195200</v>
       </c>
       <c r="K94" s="3">
         <v>-19000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-114600</v>
+        <v>-115900</v>
       </c>
       <c r="E96" s="3">
-        <v>-95200</v>
+        <v>-96300</v>
       </c>
       <c r="F96" s="3">
-        <v>-93300</v>
+        <v>-94400</v>
       </c>
       <c r="G96" s="3">
-        <v>-86100</v>
+        <v>-87100</v>
       </c>
       <c r="H96" s="3">
-        <v>-82400</v>
+        <v>-83400</v>
       </c>
       <c r="I96" s="3">
-        <v>-78500</v>
+        <v>-79400</v>
       </c>
       <c r="J96" s="3">
-        <v>-68800</v>
+        <v>-69500</v>
       </c>
       <c r="K96" s="3">
         <v>-70600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>261500</v>
+        <v>264500</v>
       </c>
       <c r="E100" s="3">
-        <v>246700</v>
+        <v>249600</v>
       </c>
       <c r="F100" s="3">
-        <v>-80100</v>
+        <v>-81000</v>
       </c>
       <c r="G100" s="3">
-        <v>-30400</v>
+        <v>-30800</v>
       </c>
       <c r="H100" s="3">
-        <v>-109600</v>
+        <v>-110800</v>
       </c>
       <c r="I100" s="3">
-        <v>-69000</v>
+        <v>-69800</v>
       </c>
       <c r="J100" s="3">
-        <v>123400</v>
+        <v>124800</v>
       </c>
       <c r="K100" s="3">
         <v>-72200</v>
@@ -3463,16 +3463,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="E101" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G101" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H101" s="3">
         <v>6000</v>
@@ -3481,7 +3481,7 @@
         <v>-1200</v>
       </c>
       <c r="J101" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-273700</v>
+        <v>-276800</v>
       </c>
       <c r="E102" s="3">
-        <v>448500</v>
+        <v>453600</v>
       </c>
       <c r="F102" s="3">
-        <v>-134900</v>
+        <v>-136400</v>
       </c>
       <c r="G102" s="3">
-        <v>96700</v>
+        <v>97800</v>
       </c>
       <c r="H102" s="3">
         <v>2200</v>
       </c>
       <c r="I102" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="J102" s="3">
-        <v>33800</v>
+        <v>34200</v>
       </c>
       <c r="K102" s="3">
         <v>-4400</v>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>GRP.U</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>210700</v>
+        <v>269800</v>
       </c>
       <c r="E8" s="3">
-        <v>190500</v>
+        <v>217000</v>
       </c>
       <c r="F8" s="3">
-        <v>188400</v>
+        <v>196300</v>
       </c>
       <c r="G8" s="3">
-        <v>172000</v>
+        <v>194000</v>
       </c>
       <c r="H8" s="3">
-        <v>166500</v>
+        <v>177200</v>
       </c>
       <c r="I8" s="3">
-        <v>159700</v>
+        <v>171500</v>
       </c>
       <c r="J8" s="3">
+        <v>164500</v>
+      </c>
+      <c r="K8" s="3">
         <v>146200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>136300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>139000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27200</v>
+        <v>37400</v>
       </c>
       <c r="E9" s="3">
-        <v>23800</v>
+        <v>28000</v>
       </c>
       <c r="F9" s="3">
-        <v>24100</v>
+        <v>24500</v>
       </c>
       <c r="G9" s="3">
-        <v>5900</v>
+        <v>24900</v>
       </c>
       <c r="H9" s="3">
-        <v>5400</v>
+        <v>6100</v>
       </c>
       <c r="I9" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="J9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K9" s="3">
         <v>8600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>183500</v>
+        <v>232400</v>
       </c>
       <c r="E10" s="3">
-        <v>166700</v>
+        <v>189000</v>
       </c>
       <c r="F10" s="3">
-        <v>164200</v>
+        <v>171700</v>
       </c>
       <c r="G10" s="3">
-        <v>166100</v>
+        <v>169200</v>
       </c>
       <c r="H10" s="3">
-        <v>161100</v>
+        <v>171100</v>
       </c>
       <c r="I10" s="3">
-        <v>154400</v>
+        <v>165900</v>
       </c>
       <c r="J10" s="3">
+        <v>159000</v>
+      </c>
+      <c r="K10" s="3">
         <v>137600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>99900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>106200</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>6100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>15000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>500</v>
       </c>
       <c r="H15" s="3">
         <v>600</v>
       </c>
       <c r="I15" s="3">
+        <v>600</v>
+      </c>
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>69000</v>
+        <v>87500</v>
       </c>
       <c r="E17" s="3">
-        <v>60800</v>
+        <v>71100</v>
       </c>
       <c r="F17" s="3">
-        <v>65000</v>
+        <v>62600</v>
       </c>
       <c r="G17" s="3">
-        <v>42700</v>
+        <v>66900</v>
       </c>
       <c r="H17" s="3">
-        <v>42000</v>
+        <v>44000</v>
       </c>
       <c r="I17" s="3">
-        <v>43600</v>
+        <v>43200</v>
       </c>
       <c r="J17" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K17" s="3">
         <v>52200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>97900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>141700</v>
+        <v>182300</v>
       </c>
       <c r="E18" s="3">
-        <v>129700</v>
+        <v>145900</v>
       </c>
       <c r="F18" s="3">
-        <v>123400</v>
+        <v>133600</v>
       </c>
       <c r="G18" s="3">
-        <v>129200</v>
+        <v>127100</v>
       </c>
       <c r="H18" s="3">
-        <v>124500</v>
+        <v>133100</v>
       </c>
       <c r="I18" s="3">
-        <v>116100</v>
+        <v>128300</v>
       </c>
       <c r="J18" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K18" s="3">
         <v>94000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>96800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>41100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>185500</v>
+        <v>213400</v>
       </c>
       <c r="E20" s="3">
-        <v>269100</v>
+        <v>191000</v>
       </c>
       <c r="F20" s="3">
-        <v>162300</v>
+        <v>277200</v>
       </c>
       <c r="G20" s="3">
-        <v>123500</v>
+        <v>167200</v>
       </c>
       <c r="H20" s="3">
-        <v>53800</v>
+        <v>127200</v>
       </c>
       <c r="I20" s="3">
-        <v>-60500</v>
+        <v>55400</v>
       </c>
       <c r="J20" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>327800</v>
+        <v>396600</v>
       </c>
       <c r="E21" s="3">
-        <v>399000</v>
+        <v>337700</v>
       </c>
       <c r="F21" s="3">
-        <v>286000</v>
+        <v>411000</v>
       </c>
       <c r="G21" s="3">
-        <v>253300</v>
+        <v>294600</v>
       </c>
       <c r="H21" s="3">
-        <v>178900</v>
+        <v>260900</v>
       </c>
       <c r="I21" s="3">
-        <v>56000</v>
+        <v>184300</v>
       </c>
       <c r="J21" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K21" s="3">
         <v>85300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>121800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>74100</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>327100</v>
+        <v>395700</v>
       </c>
       <c r="E23" s="3">
-        <v>398800</v>
+        <v>337000</v>
       </c>
       <c r="F23" s="3">
-        <v>285700</v>
+        <v>410800</v>
       </c>
       <c r="G23" s="3">
-        <v>252700</v>
+        <v>294300</v>
       </c>
       <c r="H23" s="3">
-        <v>178400</v>
+        <v>260400</v>
       </c>
       <c r="I23" s="3">
-        <v>55500</v>
+        <v>183700</v>
       </c>
       <c r="J23" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K23" s="3">
         <v>84900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>121600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>41100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32800</v>
+        <v>54800</v>
       </c>
       <c r="E24" s="3">
-        <v>40500</v>
+        <v>33800</v>
       </c>
       <c r="F24" s="3">
-        <v>10300</v>
+        <v>41800</v>
       </c>
       <c r="G24" s="3">
-        <v>36700</v>
+        <v>10600</v>
       </c>
       <c r="H24" s="3">
-        <v>27800</v>
+        <v>37800</v>
       </c>
       <c r="I24" s="3">
-        <v>6500</v>
+        <v>28700</v>
       </c>
       <c r="J24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-25500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>294300</v>
+        <v>340900</v>
       </c>
       <c r="E26" s="3">
-        <v>358200</v>
+        <v>303200</v>
       </c>
       <c r="F26" s="3">
-        <v>275400</v>
+        <v>369000</v>
       </c>
       <c r="G26" s="3">
-        <v>216100</v>
+        <v>283700</v>
       </c>
       <c r="H26" s="3">
-        <v>150500</v>
+        <v>222600</v>
       </c>
       <c r="I26" s="3">
-        <v>49000</v>
+        <v>155100</v>
       </c>
       <c r="J26" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K26" s="3">
         <v>110400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>112800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>44500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>294100</v>
+        <v>340800</v>
       </c>
       <c r="E27" s="3">
-        <v>358100</v>
+        <v>303000</v>
       </c>
       <c r="F27" s="3">
-        <v>275400</v>
+        <v>368900</v>
       </c>
       <c r="G27" s="3">
-        <v>215000</v>
+        <v>283700</v>
       </c>
       <c r="H27" s="3">
-        <v>148800</v>
+        <v>221500</v>
       </c>
       <c r="I27" s="3">
-        <v>48800</v>
+        <v>153300</v>
       </c>
       <c r="J27" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K27" s="3">
         <v>110200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1367,21 +1427,24 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>5200</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K29" s="3">
         <v>1400</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>72600</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-185500</v>
+        <v>-213400</v>
       </c>
       <c r="E32" s="3">
-        <v>-269100</v>
+        <v>-191000</v>
       </c>
       <c r="F32" s="3">
-        <v>-162300</v>
+        <v>-277200</v>
       </c>
       <c r="G32" s="3">
-        <v>-123500</v>
+        <v>-167200</v>
       </c>
       <c r="H32" s="3">
-        <v>-53800</v>
+        <v>-127200</v>
       </c>
       <c r="I32" s="3">
-        <v>60500</v>
+        <v>-55400</v>
       </c>
       <c r="J32" s="3">
+        <v>62300</v>
+      </c>
+      <c r="K32" s="3">
         <v>9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>294100</v>
+        <v>340800</v>
       </c>
       <c r="E33" s="3">
-        <v>358100</v>
+        <v>303000</v>
       </c>
       <c r="F33" s="3">
-        <v>275400</v>
+        <v>368900</v>
       </c>
       <c r="G33" s="3">
-        <v>215000</v>
+        <v>283700</v>
       </c>
       <c r="H33" s="3">
-        <v>148800</v>
+        <v>221500</v>
       </c>
       <c r="I33" s="3">
-        <v>54100</v>
+        <v>153300</v>
       </c>
       <c r="J33" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K33" s="3">
         <v>111600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>112700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>117100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>294100</v>
+        <v>340800</v>
       </c>
       <c r="E35" s="3">
-        <v>358100</v>
+        <v>303000</v>
       </c>
       <c r="F35" s="3">
-        <v>275400</v>
+        <v>368900</v>
       </c>
       <c r="G35" s="3">
-        <v>215000</v>
+        <v>283700</v>
       </c>
       <c r="H35" s="3">
-        <v>148800</v>
+        <v>221500</v>
       </c>
       <c r="I35" s="3">
-        <v>54100</v>
+        <v>153300</v>
       </c>
       <c r="J35" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K35" s="3">
         <v>111600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>112700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>117100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,61 +1731,65 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>191300</v>
+        <v>619300</v>
       </c>
       <c r="E41" s="3">
-        <v>411800</v>
+        <v>197100</v>
       </c>
       <c r="F41" s="3">
-        <v>42800</v>
+        <v>424200</v>
       </c>
       <c r="G41" s="3">
-        <v>84200</v>
+        <v>44100</v>
       </c>
       <c r="H41" s="3">
-        <v>49600</v>
+        <v>86800</v>
       </c>
       <c r="I41" s="3">
-        <v>89500</v>
+        <v>51100</v>
       </c>
       <c r="J41" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K41" s="3">
         <v>73500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38600</v>
+        <v>39900</v>
       </c>
       <c r="E42" s="3">
-        <v>94900</v>
+        <v>39800</v>
       </c>
       <c r="F42" s="3">
-        <v>10300</v>
+        <v>97800</v>
       </c>
       <c r="G42" s="3">
-        <v>105300</v>
+        <v>10600</v>
       </c>
       <c r="H42" s="3">
-        <v>42100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>108500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>43400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1711,42 +1800,48 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15200</v>
+        <v>6100</v>
       </c>
       <c r="E43" s="3">
-        <v>3500</v>
+        <v>15700</v>
       </c>
       <c r="F43" s="3">
-        <v>1900</v>
+        <v>3600</v>
       </c>
       <c r="G43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
-        <v>5400</v>
-      </c>
       <c r="I43" s="3">
-        <v>2400</v>
+        <v>5600</v>
       </c>
       <c r="J43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,80 +1872,89 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2600</v>
+        <v>5500</v>
       </c>
       <c r="E45" s="3">
-        <v>36300</v>
+        <v>2700</v>
       </c>
       <c r="F45" s="3">
-        <v>303300</v>
+        <v>37400</v>
       </c>
       <c r="G45" s="3">
-        <v>2300</v>
+        <v>312400</v>
       </c>
       <c r="H45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
-        <v>5100</v>
-      </c>
       <c r="J45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>247800</v>
+        <v>670800</v>
       </c>
       <c r="E46" s="3">
-        <v>546600</v>
+        <v>255200</v>
       </c>
       <c r="F46" s="3">
-        <v>358400</v>
+        <v>563000</v>
       </c>
       <c r="G46" s="3">
-        <v>193000</v>
+        <v>369200</v>
       </c>
       <c r="H46" s="3">
-        <v>99200</v>
+        <v>198800</v>
       </c>
       <c r="I46" s="3">
-        <v>97000</v>
+        <v>102200</v>
       </c>
       <c r="J46" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K46" s="3">
         <v>80600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>300</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -1858,60 +1962,66 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>400</v>
       </c>
       <c r="J47" s="3">
         <v>400</v>
       </c>
       <c r="K47" s="3">
+        <v>400</v>
+      </c>
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3433400</v>
+        <v>4646200</v>
       </c>
       <c r="E48" s="3">
-        <v>2637200</v>
+        <v>3536900</v>
       </c>
       <c r="F48" s="3">
-        <v>2105100</v>
+        <v>2716700</v>
       </c>
       <c r="G48" s="3">
-        <v>2043000</v>
+        <v>2168500</v>
       </c>
       <c r="H48" s="3">
-        <v>1996600</v>
+        <v>2104600</v>
       </c>
       <c r="I48" s="3">
-        <v>1779900</v>
+        <v>2056800</v>
       </c>
       <c r="J48" s="3">
+        <v>1833600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1812000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2321200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>515800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1942,9 +2052,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17000</v>
+        <v>33600</v>
       </c>
       <c r="E52" s="3">
-        <v>40800</v>
+        <v>17500</v>
       </c>
       <c r="F52" s="3">
-        <v>4900</v>
+        <v>42000</v>
       </c>
       <c r="G52" s="3">
         <v>5100</v>
       </c>
       <c r="H52" s="3">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="I52" s="3">
         <v>7000</v>
       </c>
       <c r="J52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3698200</v>
+        <v>5350900</v>
       </c>
       <c r="E54" s="3">
-        <v>3224600</v>
+        <v>3809600</v>
       </c>
       <c r="F54" s="3">
-        <v>2468400</v>
+        <v>3321800</v>
       </c>
       <c r="G54" s="3">
-        <v>2241400</v>
+        <v>2542800</v>
       </c>
       <c r="H54" s="3">
-        <v>2103000</v>
+        <v>2309000</v>
       </c>
       <c r="I54" s="3">
-        <v>1884300</v>
+        <v>2166400</v>
       </c>
       <c r="J54" s="3">
+        <v>1941100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1900400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1510900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>956800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5300</v>
+        <v>7800</v>
       </c>
       <c r="E57" s="3">
-        <v>4100</v>
+        <v>5400</v>
       </c>
       <c r="F57" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="G57" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>4200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3500</v>
-      </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>198800</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
-        <v>25100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>25800</v>
       </c>
       <c r="H58" s="3">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>48900</v>
+        <v>31900</v>
       </c>
       <c r="J58" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K58" s="3">
         <v>40900</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59800</v>
+        <v>89900</v>
       </c>
       <c r="E59" s="3">
-        <v>61000</v>
+        <v>61600</v>
       </c>
       <c r="F59" s="3">
-        <v>59700</v>
+        <v>62900</v>
       </c>
       <c r="G59" s="3">
-        <v>40700</v>
+        <v>61500</v>
       </c>
       <c r="H59" s="3">
-        <v>44900</v>
+        <v>41900</v>
       </c>
       <c r="I59" s="3">
-        <v>46800</v>
+        <v>46300</v>
       </c>
       <c r="J59" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K59" s="3">
         <v>36800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>57600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>65500</v>
+        <v>296500</v>
       </c>
       <c r="E60" s="3">
-        <v>65200</v>
+        <v>67500</v>
       </c>
       <c r="F60" s="3">
-        <v>89100</v>
+        <v>67100</v>
       </c>
       <c r="G60" s="3">
-        <v>45000</v>
+        <v>91800</v>
       </c>
       <c r="H60" s="3">
-        <v>79400</v>
+        <v>46400</v>
       </c>
       <c r="I60" s="3">
-        <v>99200</v>
+        <v>81800</v>
       </c>
       <c r="J60" s="3">
+        <v>102200</v>
+      </c>
+      <c r="K60" s="3">
         <v>82200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>938700</v>
+        <v>1555300</v>
       </c>
       <c r="E61" s="3">
-        <v>922600</v>
+        <v>967000</v>
       </c>
       <c r="F61" s="3">
-        <v>498300</v>
+        <v>950400</v>
       </c>
       <c r="G61" s="3">
-        <v>497900</v>
+        <v>513300</v>
       </c>
       <c r="H61" s="3">
-        <v>403200</v>
+        <v>512900</v>
       </c>
       <c r="I61" s="3">
-        <v>394400</v>
+        <v>415400</v>
       </c>
       <c r="J61" s="3">
+        <v>406300</v>
+      </c>
+      <c r="K61" s="3">
         <v>387900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>198400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>202200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>270500</v>
+        <v>388700</v>
       </c>
       <c r="E62" s="3">
-        <v>314600</v>
+        <v>278600</v>
       </c>
       <c r="F62" s="3">
-        <v>235200</v>
+        <v>324100</v>
       </c>
       <c r="G62" s="3">
-        <v>197600</v>
+        <v>242300</v>
       </c>
       <c r="H62" s="3">
-        <v>189500</v>
+        <v>203500</v>
       </c>
       <c r="I62" s="3">
-        <v>131100</v>
+        <v>195200</v>
       </c>
       <c r="J62" s="3">
+        <v>135100</v>
+      </c>
+      <c r="K62" s="3">
         <v>139600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>143000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1276200</v>
+        <v>2242200</v>
       </c>
       <c r="E66" s="3">
-        <v>1303500</v>
+        <v>1314700</v>
       </c>
       <c r="F66" s="3">
-        <v>823600</v>
+        <v>1342800</v>
       </c>
       <c r="G66" s="3">
-        <v>741700</v>
+        <v>848400</v>
       </c>
       <c r="H66" s="3">
-        <v>679600</v>
+        <v>764000</v>
       </c>
       <c r="I66" s="3">
-        <v>629500</v>
+        <v>700100</v>
       </c>
       <c r="J66" s="3">
+        <v>648500</v>
+      </c>
+      <c r="K66" s="3">
         <v>613900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>370600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>258300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>282700</v>
+        <v>500900</v>
       </c>
       <c r="E72" s="3">
-        <v>95800</v>
+        <v>291200</v>
       </c>
       <c r="F72" s="3">
-        <v>-123700</v>
+        <v>98700</v>
       </c>
       <c r="G72" s="3">
-        <v>-304300</v>
+        <v>-127400</v>
       </c>
       <c r="H72" s="3">
-        <v>-428900</v>
+        <v>-313500</v>
       </c>
       <c r="I72" s="3">
-        <v>-494300</v>
+        <v>-441800</v>
       </c>
       <c r="J72" s="3">
+        <v>-509200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-468600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-492900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-673300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2422000</v>
+        <v>3108700</v>
       </c>
       <c r="E76" s="3">
-        <v>1921100</v>
+        <v>2495000</v>
       </c>
       <c r="F76" s="3">
-        <v>1644800</v>
+        <v>1979000</v>
       </c>
       <c r="G76" s="3">
-        <v>1499800</v>
+        <v>1694400</v>
       </c>
       <c r="H76" s="3">
-        <v>1423400</v>
+        <v>1545000</v>
       </c>
       <c r="I76" s="3">
-        <v>1254800</v>
+        <v>1466300</v>
       </c>
       <c r="J76" s="3">
+        <v>1292600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1286500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1140300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>698500</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>294100</v>
+        <v>340800</v>
       </c>
       <c r="E81" s="3">
-        <v>358100</v>
+        <v>303000</v>
       </c>
       <c r="F81" s="3">
-        <v>275400</v>
+        <v>368900</v>
       </c>
       <c r="G81" s="3">
-        <v>215000</v>
+        <v>283700</v>
       </c>
       <c r="H81" s="3">
-        <v>148800</v>
+        <v>221500</v>
       </c>
       <c r="I81" s="3">
-        <v>54100</v>
+        <v>153300</v>
       </c>
       <c r="J81" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K81" s="3">
         <v>111600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>112700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>117100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>600</v>
       </c>
       <c r="I83" s="3">
+        <v>600</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>141200</v>
+        <v>193800</v>
       </c>
       <c r="E89" s="3">
-        <v>121500</v>
+        <v>145500</v>
       </c>
       <c r="F89" s="3">
-        <v>122200</v>
+        <v>125200</v>
       </c>
       <c r="G89" s="3">
-        <v>123200</v>
+        <v>125800</v>
       </c>
       <c r="H89" s="3">
-        <v>123100</v>
+        <v>126900</v>
       </c>
       <c r="I89" s="3">
-        <v>71500</v>
+        <v>126800</v>
       </c>
       <c r="J89" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K89" s="3">
         <v>98500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>87400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>86000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23500</v>
+        <v>-51800</v>
       </c>
       <c r="E91" s="3">
-        <v>-26600</v>
+        <v>-24200</v>
       </c>
       <c r="F91" s="3">
-        <v>-64400</v>
+        <v>-27400</v>
       </c>
       <c r="G91" s="3">
-        <v>-15000</v>
+        <v>-66400</v>
       </c>
       <c r="H91" s="3">
-        <v>-20600</v>
+        <v>-15500</v>
       </c>
       <c r="I91" s="3">
-        <v>-34000</v>
+        <v>-21200</v>
       </c>
       <c r="J91" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-22700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37300</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-674400</v>
+        <v>-846000</v>
       </c>
       <c r="E94" s="3">
-        <v>73800</v>
+        <v>-694800</v>
       </c>
       <c r="F94" s="3">
-        <v>-183100</v>
+        <v>76000</v>
       </c>
       <c r="G94" s="3">
-        <v>9100</v>
+        <v>-188600</v>
       </c>
       <c r="H94" s="3">
-        <v>-16000</v>
+        <v>9300</v>
       </c>
       <c r="I94" s="3">
-        <v>15500</v>
+        <v>-16500</v>
       </c>
       <c r="J94" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-195200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-73900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-115900</v>
+        <v>-129300</v>
       </c>
       <c r="E96" s="3">
-        <v>-96300</v>
+        <v>-119400</v>
       </c>
       <c r="F96" s="3">
-        <v>-94400</v>
+        <v>-99200</v>
       </c>
       <c r="G96" s="3">
-        <v>-87100</v>
+        <v>-97300</v>
       </c>
       <c r="H96" s="3">
-        <v>-83400</v>
+        <v>-89700</v>
       </c>
       <c r="I96" s="3">
-        <v>-79400</v>
+        <v>-85900</v>
       </c>
       <c r="J96" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-69500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-70600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-29000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>264500</v>
+        <v>1077100</v>
       </c>
       <c r="E100" s="3">
-        <v>249600</v>
+        <v>272400</v>
       </c>
       <c r="F100" s="3">
-        <v>-81000</v>
+        <v>257100</v>
       </c>
       <c r="G100" s="3">
-        <v>-30800</v>
+        <v>-83500</v>
       </c>
       <c r="H100" s="3">
-        <v>-110800</v>
+        <v>-31700</v>
       </c>
       <c r="I100" s="3">
-        <v>-69800</v>
+        <v>-114200</v>
       </c>
       <c r="J100" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="K100" s="3">
         <v>124800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-72200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-35300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8000</v>
+        <v>-2500</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>-8300</v>
       </c>
       <c r="F101" s="3">
-        <v>5600</v>
+        <v>9000</v>
       </c>
       <c r="G101" s="3">
-        <v>-3700</v>
+        <v>5700</v>
       </c>
       <c r="H101" s="3">
-        <v>6000</v>
+        <v>-3800</v>
       </c>
       <c r="I101" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-276800</v>
+        <v>422400</v>
       </c>
       <c r="E102" s="3">
-        <v>453600</v>
+        <v>-285100</v>
       </c>
       <c r="F102" s="3">
-        <v>-136400</v>
+        <v>467300</v>
       </c>
       <c r="G102" s="3">
-        <v>97800</v>
+        <v>-140500</v>
       </c>
       <c r="H102" s="3">
-        <v>2200</v>
+        <v>100800</v>
       </c>
       <c r="I102" s="3">
-        <v>15900</v>
+        <v>2300</v>
       </c>
       <c r="J102" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K102" s="3">
         <v>34200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>269800</v>
+        <v>282000</v>
       </c>
       <c r="E8" s="3">
-        <v>217000</v>
+        <v>226900</v>
       </c>
       <c r="F8" s="3">
-        <v>196300</v>
+        <v>205200</v>
       </c>
       <c r="G8" s="3">
-        <v>194000</v>
+        <v>202900</v>
       </c>
       <c r="H8" s="3">
-        <v>177200</v>
+        <v>185200</v>
       </c>
       <c r="I8" s="3">
-        <v>171500</v>
+        <v>179300</v>
       </c>
       <c r="J8" s="3">
-        <v>164500</v>
+        <v>172000</v>
       </c>
       <c r="K8" s="3">
         <v>146200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37400</v>
+        <v>39100</v>
       </c>
       <c r="E9" s="3">
-        <v>28000</v>
+        <v>29300</v>
       </c>
       <c r="F9" s="3">
-        <v>24500</v>
+        <v>25700</v>
       </c>
       <c r="G9" s="3">
-        <v>24900</v>
+        <v>26000</v>
       </c>
       <c r="H9" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="I9" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="J9" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="K9" s="3">
         <v>8600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>232400</v>
+        <v>242900</v>
       </c>
       <c r="E10" s="3">
-        <v>189000</v>
+        <v>197600</v>
       </c>
       <c r="F10" s="3">
-        <v>171700</v>
+        <v>179500</v>
       </c>
       <c r="G10" s="3">
-        <v>169200</v>
+        <v>176900</v>
       </c>
       <c r="H10" s="3">
-        <v>171100</v>
+        <v>178900</v>
       </c>
       <c r="I10" s="3">
-        <v>165900</v>
+        <v>173500</v>
       </c>
       <c r="J10" s="3">
-        <v>159000</v>
+        <v>166300</v>
       </c>
       <c r="K10" s="3">
         <v>137600</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="G14" s="3">
         <v>600</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K14" s="3">
         <v>11000</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>87500</v>
+        <v>91500</v>
       </c>
       <c r="E17" s="3">
-        <v>71100</v>
+        <v>74300</v>
       </c>
       <c r="F17" s="3">
-        <v>62600</v>
+        <v>65500</v>
       </c>
       <c r="G17" s="3">
-        <v>66900</v>
+        <v>69900</v>
       </c>
       <c r="H17" s="3">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="I17" s="3">
-        <v>43200</v>
+        <v>45200</v>
       </c>
       <c r="J17" s="3">
-        <v>44900</v>
+        <v>47000</v>
       </c>
       <c r="K17" s="3">
         <v>52200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>182300</v>
+        <v>190600</v>
       </c>
       <c r="E18" s="3">
-        <v>145900</v>
+        <v>152600</v>
       </c>
       <c r="F18" s="3">
-        <v>133600</v>
+        <v>139700</v>
       </c>
       <c r="G18" s="3">
-        <v>127100</v>
+        <v>132900</v>
       </c>
       <c r="H18" s="3">
-        <v>133100</v>
+        <v>139200</v>
       </c>
       <c r="I18" s="3">
-        <v>128300</v>
+        <v>134100</v>
       </c>
       <c r="J18" s="3">
-        <v>119600</v>
+        <v>125000</v>
       </c>
       <c r="K18" s="3">
         <v>94000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>213400</v>
+        <v>223100</v>
       </c>
       <c r="E20" s="3">
-        <v>191000</v>
+        <v>199700</v>
       </c>
       <c r="F20" s="3">
-        <v>277200</v>
+        <v>289800</v>
       </c>
       <c r="G20" s="3">
-        <v>167200</v>
+        <v>174800</v>
       </c>
       <c r="H20" s="3">
-        <v>127200</v>
+        <v>133000</v>
       </c>
       <c r="I20" s="3">
-        <v>55400</v>
+        <v>58000</v>
       </c>
       <c r="J20" s="3">
-        <v>-62300</v>
+        <v>-65200</v>
       </c>
       <c r="K20" s="3">
         <v>-9000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>396600</v>
+        <v>414700</v>
       </c>
       <c r="E21" s="3">
-        <v>337700</v>
+        <v>353100</v>
       </c>
       <c r="F21" s="3">
-        <v>411000</v>
+        <v>429700</v>
       </c>
       <c r="G21" s="3">
-        <v>294600</v>
+        <v>308000</v>
       </c>
       <c r="H21" s="3">
-        <v>260900</v>
+        <v>272800</v>
       </c>
       <c r="I21" s="3">
-        <v>184300</v>
+        <v>192700</v>
       </c>
       <c r="J21" s="3">
-        <v>57700</v>
+        <v>60300</v>
       </c>
       <c r="K21" s="3">
         <v>85300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>395700</v>
+        <v>413700</v>
       </c>
       <c r="E23" s="3">
-        <v>337000</v>
+        <v>352300</v>
       </c>
       <c r="F23" s="3">
-        <v>410800</v>
+        <v>429500</v>
       </c>
       <c r="G23" s="3">
-        <v>294300</v>
+        <v>307700</v>
       </c>
       <c r="H23" s="3">
-        <v>260400</v>
+        <v>272200</v>
       </c>
       <c r="I23" s="3">
-        <v>183700</v>
+        <v>192100</v>
       </c>
       <c r="J23" s="3">
-        <v>57200</v>
+        <v>59800</v>
       </c>
       <c r="K23" s="3">
         <v>84900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54800</v>
+        <v>57300</v>
       </c>
       <c r="E24" s="3">
-        <v>33800</v>
+        <v>35400</v>
       </c>
       <c r="F24" s="3">
-        <v>41800</v>
+        <v>43700</v>
       </c>
       <c r="G24" s="3">
-        <v>10600</v>
+        <v>11100</v>
       </c>
       <c r="H24" s="3">
-        <v>37800</v>
+        <v>39500</v>
       </c>
       <c r="I24" s="3">
-        <v>28700</v>
+        <v>30000</v>
       </c>
       <c r="J24" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="K24" s="3">
         <v>-25500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>340900</v>
+        <v>356400</v>
       </c>
       <c r="E26" s="3">
-        <v>303200</v>
+        <v>316900</v>
       </c>
       <c r="F26" s="3">
-        <v>369000</v>
+        <v>385800</v>
       </c>
       <c r="G26" s="3">
-        <v>283700</v>
+        <v>296600</v>
       </c>
       <c r="H26" s="3">
-        <v>222600</v>
+        <v>232700</v>
       </c>
       <c r="I26" s="3">
-        <v>155100</v>
+        <v>162100</v>
       </c>
       <c r="J26" s="3">
-        <v>50500</v>
+        <v>52800</v>
       </c>
       <c r="K26" s="3">
         <v>110400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>340800</v>
+        <v>356300</v>
       </c>
       <c r="E27" s="3">
-        <v>303000</v>
+        <v>316800</v>
       </c>
       <c r="F27" s="3">
-        <v>368900</v>
+        <v>385600</v>
       </c>
       <c r="G27" s="3">
-        <v>283700</v>
+        <v>296600</v>
       </c>
       <c r="H27" s="3">
-        <v>221500</v>
+        <v>231600</v>
       </c>
       <c r="I27" s="3">
-        <v>153300</v>
+        <v>160300</v>
       </c>
       <c r="J27" s="3">
-        <v>50300</v>
+        <v>52600</v>
       </c>
       <c r="K27" s="3">
         <v>110200</v>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K29" s="3">
         <v>1400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-213400</v>
+        <v>-223100</v>
       </c>
       <c r="E32" s="3">
-        <v>-191000</v>
+        <v>-199700</v>
       </c>
       <c r="F32" s="3">
-        <v>-277200</v>
+        <v>-289800</v>
       </c>
       <c r="G32" s="3">
-        <v>-167200</v>
+        <v>-174800</v>
       </c>
       <c r="H32" s="3">
-        <v>-127200</v>
+        <v>-133000</v>
       </c>
       <c r="I32" s="3">
-        <v>-55400</v>
+        <v>-58000</v>
       </c>
       <c r="J32" s="3">
-        <v>62300</v>
+        <v>65200</v>
       </c>
       <c r="K32" s="3">
         <v>9000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>340800</v>
+        <v>356300</v>
       </c>
       <c r="E33" s="3">
-        <v>303000</v>
+        <v>316800</v>
       </c>
       <c r="F33" s="3">
-        <v>368900</v>
+        <v>385600</v>
       </c>
       <c r="G33" s="3">
-        <v>283700</v>
+        <v>296600</v>
       </c>
       <c r="H33" s="3">
-        <v>221500</v>
+        <v>231600</v>
       </c>
       <c r="I33" s="3">
-        <v>153300</v>
+        <v>160300</v>
       </c>
       <c r="J33" s="3">
-        <v>55700</v>
+        <v>58200</v>
       </c>
       <c r="K33" s="3">
         <v>111600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>340800</v>
+        <v>356300</v>
       </c>
       <c r="E35" s="3">
-        <v>303000</v>
+        <v>316800</v>
       </c>
       <c r="F35" s="3">
-        <v>368900</v>
+        <v>385600</v>
       </c>
       <c r="G35" s="3">
-        <v>283700</v>
+        <v>296600</v>
       </c>
       <c r="H35" s="3">
-        <v>221500</v>
+        <v>231600</v>
       </c>
       <c r="I35" s="3">
-        <v>153300</v>
+        <v>160300</v>
       </c>
       <c r="J35" s="3">
-        <v>55700</v>
+        <v>58200</v>
       </c>
       <c r="K35" s="3">
         <v>111600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>619300</v>
+        <v>647500</v>
       </c>
       <c r="E41" s="3">
-        <v>197100</v>
+        <v>206000</v>
       </c>
       <c r="F41" s="3">
-        <v>424200</v>
+        <v>443500</v>
       </c>
       <c r="G41" s="3">
-        <v>44100</v>
+        <v>46100</v>
       </c>
       <c r="H41" s="3">
-        <v>86800</v>
+        <v>90700</v>
       </c>
       <c r="I41" s="3">
-        <v>51100</v>
+        <v>53500</v>
       </c>
       <c r="J41" s="3">
-        <v>92200</v>
+        <v>96400</v>
       </c>
       <c r="K41" s="3">
         <v>73500</v>
@@ -1774,22 +1774,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39900</v>
+        <v>41700</v>
       </c>
       <c r="E42" s="3">
-        <v>39800</v>
+        <v>41600</v>
       </c>
       <c r="F42" s="3">
-        <v>97800</v>
+        <v>102200</v>
       </c>
       <c r="G42" s="3">
-        <v>10600</v>
+        <v>11100</v>
       </c>
       <c r="H42" s="3">
-        <v>108500</v>
+        <v>113400</v>
       </c>
       <c r="I42" s="3">
-        <v>43400</v>
+        <v>45300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="E43" s="3">
-        <v>15700</v>
+        <v>16400</v>
       </c>
       <c r="F43" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="G43" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H43" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I43" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="J43" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K43" s="3">
         <v>2600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>39100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>326600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J45" s="3">
         <v>5500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>37400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>312400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>5300</v>
       </c>
       <c r="K45" s="3">
         <v>4400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>670800</v>
+        <v>701200</v>
       </c>
       <c r="E46" s="3">
-        <v>255200</v>
+        <v>266800</v>
       </c>
       <c r="F46" s="3">
-        <v>563000</v>
+        <v>588600</v>
       </c>
       <c r="G46" s="3">
-        <v>369200</v>
+        <v>385900</v>
       </c>
       <c r="H46" s="3">
-        <v>198800</v>
+        <v>207800</v>
       </c>
       <c r="I46" s="3">
-        <v>102200</v>
+        <v>106800</v>
       </c>
       <c r="J46" s="3">
-        <v>100000</v>
+        <v>104500</v>
       </c>
       <c r="K46" s="3">
         <v>80600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4646200</v>
+        <v>4857300</v>
       </c>
       <c r="E48" s="3">
-        <v>3536900</v>
+        <v>3697600</v>
       </c>
       <c r="F48" s="3">
-        <v>2716700</v>
+        <v>2840100</v>
       </c>
       <c r="G48" s="3">
-        <v>2168500</v>
+        <v>2267100</v>
       </c>
       <c r="H48" s="3">
-        <v>2104600</v>
+        <v>2200200</v>
       </c>
       <c r="I48" s="3">
-        <v>2056800</v>
+        <v>2150200</v>
       </c>
       <c r="J48" s="3">
-        <v>1833600</v>
+        <v>1916900</v>
       </c>
       <c r="K48" s="3">
         <v>1812000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33600</v>
+        <v>35200</v>
       </c>
       <c r="E52" s="3">
-        <v>17500</v>
+        <v>18300</v>
       </c>
       <c r="F52" s="3">
-        <v>42000</v>
+        <v>44000</v>
       </c>
       <c r="G52" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="H52" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="I52" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="J52" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="K52" s="3">
         <v>7400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5350900</v>
+        <v>5594000</v>
       </c>
       <c r="E54" s="3">
-        <v>3809600</v>
+        <v>3982700</v>
       </c>
       <c r="F54" s="3">
-        <v>3321800</v>
+        <v>3472700</v>
       </c>
       <c r="G54" s="3">
-        <v>2542800</v>
+        <v>2658300</v>
       </c>
       <c r="H54" s="3">
-        <v>2309000</v>
+        <v>2413900</v>
       </c>
       <c r="I54" s="3">
-        <v>2166400</v>
+        <v>2264800</v>
       </c>
       <c r="J54" s="3">
-        <v>1941100</v>
+        <v>2029300</v>
       </c>
       <c r="K54" s="3">
         <v>1900400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="E57" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="F57" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="G57" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H57" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="I57" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J57" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K57" s="3">
         <v>4500</v>
@@ -2310,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>198800</v>
+        <v>207800</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -2319,16 +2319,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>25800</v>
+        <v>27000</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>31900</v>
+        <v>33400</v>
       </c>
       <c r="J58" s="3">
-        <v>50300</v>
+        <v>52600</v>
       </c>
       <c r="K58" s="3">
         <v>40900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>89900</v>
+        <v>94000</v>
       </c>
       <c r="E59" s="3">
-        <v>61600</v>
+        <v>64400</v>
       </c>
       <c r="F59" s="3">
-        <v>62900</v>
+        <v>65700</v>
       </c>
       <c r="G59" s="3">
-        <v>61500</v>
+        <v>64300</v>
       </c>
       <c r="H59" s="3">
-        <v>41900</v>
+        <v>43800</v>
       </c>
       <c r="I59" s="3">
-        <v>46300</v>
+        <v>48400</v>
       </c>
       <c r="J59" s="3">
-        <v>48200</v>
+        <v>50400</v>
       </c>
       <c r="K59" s="3">
         <v>36800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>296500</v>
+        <v>310000</v>
       </c>
       <c r="E60" s="3">
-        <v>67500</v>
+        <v>70500</v>
       </c>
       <c r="F60" s="3">
-        <v>67100</v>
+        <v>70200</v>
       </c>
       <c r="G60" s="3">
-        <v>91800</v>
+        <v>96000</v>
       </c>
       <c r="H60" s="3">
-        <v>46400</v>
+        <v>48500</v>
       </c>
       <c r="I60" s="3">
-        <v>81800</v>
+        <v>85500</v>
       </c>
       <c r="J60" s="3">
-        <v>102200</v>
+        <v>106800</v>
       </c>
       <c r="K60" s="3">
         <v>82200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1555300</v>
+        <v>1625900</v>
       </c>
       <c r="E61" s="3">
-        <v>967000</v>
+        <v>1011000</v>
       </c>
       <c r="F61" s="3">
-        <v>950400</v>
+        <v>993500</v>
       </c>
       <c r="G61" s="3">
-        <v>513300</v>
+        <v>536600</v>
       </c>
       <c r="H61" s="3">
-        <v>512900</v>
+        <v>536200</v>
       </c>
       <c r="I61" s="3">
-        <v>415400</v>
+        <v>434200</v>
       </c>
       <c r="J61" s="3">
-        <v>406300</v>
+        <v>424700</v>
       </c>
       <c r="K61" s="3">
         <v>387900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>388700</v>
+        <v>406400</v>
       </c>
       <c r="E62" s="3">
-        <v>278600</v>
+        <v>291300</v>
       </c>
       <c r="F62" s="3">
-        <v>324100</v>
+        <v>338900</v>
       </c>
       <c r="G62" s="3">
-        <v>242300</v>
+        <v>253300</v>
       </c>
       <c r="H62" s="3">
-        <v>203500</v>
+        <v>212800</v>
       </c>
       <c r="I62" s="3">
-        <v>195200</v>
+        <v>204000</v>
       </c>
       <c r="J62" s="3">
-        <v>135100</v>
+        <v>141200</v>
       </c>
       <c r="K62" s="3">
         <v>139600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2242200</v>
+        <v>2344100</v>
       </c>
       <c r="E66" s="3">
-        <v>1314700</v>
+        <v>1374400</v>
       </c>
       <c r="F66" s="3">
-        <v>1342800</v>
+        <v>1403800</v>
       </c>
       <c r="G66" s="3">
-        <v>848400</v>
+        <v>886900</v>
       </c>
       <c r="H66" s="3">
-        <v>764000</v>
+        <v>798700</v>
       </c>
       <c r="I66" s="3">
-        <v>700100</v>
+        <v>731900</v>
       </c>
       <c r="J66" s="3">
-        <v>648500</v>
+        <v>678000</v>
       </c>
       <c r="K66" s="3">
         <v>613900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>500900</v>
+        <v>523700</v>
       </c>
       <c r="E72" s="3">
-        <v>291200</v>
+        <v>304500</v>
       </c>
       <c r="F72" s="3">
-        <v>98700</v>
+        <v>103200</v>
       </c>
       <c r="G72" s="3">
-        <v>-127400</v>
+        <v>-133200</v>
       </c>
       <c r="H72" s="3">
-        <v>-313500</v>
+        <v>-327700</v>
       </c>
       <c r="I72" s="3">
-        <v>-441800</v>
+        <v>-461900</v>
       </c>
       <c r="J72" s="3">
-        <v>-509200</v>
+        <v>-532300</v>
       </c>
       <c r="K72" s="3">
         <v>-468600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3108700</v>
+        <v>3249900</v>
       </c>
       <c r="E76" s="3">
-        <v>2495000</v>
+        <v>2608300</v>
       </c>
       <c r="F76" s="3">
-        <v>1979000</v>
+        <v>2068900</v>
       </c>
       <c r="G76" s="3">
-        <v>1694400</v>
+        <v>1771400</v>
       </c>
       <c r="H76" s="3">
-        <v>1545000</v>
+        <v>1615200</v>
       </c>
       <c r="I76" s="3">
-        <v>1466300</v>
+        <v>1532900</v>
       </c>
       <c r="J76" s="3">
-        <v>1292600</v>
+        <v>1351300</v>
       </c>
       <c r="K76" s="3">
         <v>1286500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>340800</v>
+        <v>356300</v>
       </c>
       <c r="E81" s="3">
-        <v>303000</v>
+        <v>316800</v>
       </c>
       <c r="F81" s="3">
-        <v>368900</v>
+        <v>385600</v>
       </c>
       <c r="G81" s="3">
-        <v>283700</v>
+        <v>296600</v>
       </c>
       <c r="H81" s="3">
-        <v>221500</v>
+        <v>231600</v>
       </c>
       <c r="I81" s="3">
-        <v>153300</v>
+        <v>160300</v>
       </c>
       <c r="J81" s="3">
-        <v>55700</v>
+        <v>58200</v>
       </c>
       <c r="K81" s="3">
         <v>111600</v>
@@ -3103,10 +3103,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>193800</v>
+        <v>202600</v>
       </c>
       <c r="E89" s="3">
-        <v>145500</v>
+        <v>152100</v>
       </c>
       <c r="F89" s="3">
-        <v>125200</v>
+        <v>130900</v>
       </c>
       <c r="G89" s="3">
-        <v>125800</v>
+        <v>131600</v>
       </c>
       <c r="H89" s="3">
-        <v>126900</v>
+        <v>132600</v>
       </c>
       <c r="I89" s="3">
-        <v>126800</v>
+        <v>132500</v>
       </c>
       <c r="J89" s="3">
-        <v>73600</v>
+        <v>77000</v>
       </c>
       <c r="K89" s="3">
         <v>98500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-51800</v>
+        <v>-54100</v>
       </c>
       <c r="E91" s="3">
-        <v>-24200</v>
+        <v>-25300</v>
       </c>
       <c r="F91" s="3">
-        <v>-27400</v>
+        <v>-28600</v>
       </c>
       <c r="G91" s="3">
-        <v>-66400</v>
+        <v>-69400</v>
       </c>
       <c r="H91" s="3">
-        <v>-15500</v>
+        <v>-16200</v>
       </c>
       <c r="I91" s="3">
-        <v>-21200</v>
+        <v>-22200</v>
       </c>
       <c r="J91" s="3">
-        <v>-35000</v>
+        <v>-36600</v>
       </c>
       <c r="K91" s="3">
         <v>-22700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-846000</v>
+        <v>-884400</v>
       </c>
       <c r="E94" s="3">
-        <v>-694800</v>
+        <v>-726300</v>
       </c>
       <c r="F94" s="3">
-        <v>76000</v>
+        <v>79500</v>
       </c>
       <c r="G94" s="3">
-        <v>-188600</v>
+        <v>-197200</v>
       </c>
       <c r="H94" s="3">
-        <v>9300</v>
+        <v>9800</v>
       </c>
       <c r="I94" s="3">
-        <v>-16500</v>
+        <v>-17200</v>
       </c>
       <c r="J94" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="K94" s="3">
         <v>-195200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-129300</v>
+        <v>-135200</v>
       </c>
       <c r="E96" s="3">
-        <v>-119400</v>
+        <v>-124900</v>
       </c>
       <c r="F96" s="3">
-        <v>-99200</v>
+        <v>-103700</v>
       </c>
       <c r="G96" s="3">
-        <v>-97300</v>
+        <v>-101700</v>
       </c>
       <c r="H96" s="3">
-        <v>-89700</v>
+        <v>-93800</v>
       </c>
       <c r="I96" s="3">
-        <v>-85900</v>
+        <v>-89800</v>
       </c>
       <c r="J96" s="3">
-        <v>-81800</v>
+        <v>-85600</v>
       </c>
       <c r="K96" s="3">
         <v>-69500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1077100</v>
+        <v>1126000</v>
       </c>
       <c r="E100" s="3">
-        <v>272400</v>
+        <v>284800</v>
       </c>
       <c r="F100" s="3">
-        <v>257100</v>
+        <v>268800</v>
       </c>
       <c r="G100" s="3">
-        <v>-83500</v>
+        <v>-87200</v>
       </c>
       <c r="H100" s="3">
-        <v>-31700</v>
+        <v>-33100</v>
       </c>
       <c r="I100" s="3">
-        <v>-114200</v>
+        <v>-119300</v>
       </c>
       <c r="J100" s="3">
-        <v>-71900</v>
+        <v>-75200</v>
       </c>
       <c r="K100" s="3">
         <v>124800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="E101" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="F101" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="G101" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="H101" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="I101" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="J101" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K101" s="3">
         <v>6200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>422400</v>
+        <v>441600</v>
       </c>
       <c r="E102" s="3">
-        <v>-285100</v>
+        <v>-298100</v>
       </c>
       <c r="F102" s="3">
-        <v>467300</v>
+        <v>488500</v>
       </c>
       <c r="G102" s="3">
-        <v>-140500</v>
+        <v>-146900</v>
       </c>
       <c r="H102" s="3">
-        <v>100800</v>
+        <v>105300</v>
       </c>
       <c r="I102" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J102" s="3">
-        <v>16400</v>
+        <v>17200</v>
       </c>
       <c r="K102" s="3">
         <v>34200</v>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>282000</v>
+        <v>265200</v>
       </c>
       <c r="E8" s="3">
-        <v>226900</v>
+        <v>213400</v>
       </c>
       <c r="F8" s="3">
-        <v>205200</v>
+        <v>193000</v>
       </c>
       <c r="G8" s="3">
-        <v>202900</v>
+        <v>190800</v>
       </c>
       <c r="H8" s="3">
-        <v>185200</v>
+        <v>174200</v>
       </c>
       <c r="I8" s="3">
-        <v>179300</v>
+        <v>168600</v>
       </c>
       <c r="J8" s="3">
-        <v>172000</v>
+        <v>161700</v>
       </c>
       <c r="K8" s="3">
         <v>146200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>39100</v>
+        <v>36800</v>
       </c>
       <c r="E9" s="3">
-        <v>29300</v>
+        <v>27600</v>
       </c>
       <c r="F9" s="3">
-        <v>25700</v>
+        <v>24100</v>
       </c>
       <c r="G9" s="3">
-        <v>26000</v>
+        <v>24400</v>
       </c>
       <c r="H9" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="I9" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="J9" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K9" s="3">
         <v>8600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>242900</v>
+        <v>228500</v>
       </c>
       <c r="E10" s="3">
-        <v>197600</v>
+        <v>185800</v>
       </c>
       <c r="F10" s="3">
-        <v>179500</v>
+        <v>168800</v>
       </c>
       <c r="G10" s="3">
-        <v>176900</v>
+        <v>166300</v>
       </c>
       <c r="H10" s="3">
-        <v>178900</v>
+        <v>168200</v>
       </c>
       <c r="I10" s="3">
-        <v>173500</v>
+        <v>163100</v>
       </c>
       <c r="J10" s="3">
-        <v>166300</v>
+        <v>156400</v>
       </c>
       <c r="K10" s="3">
         <v>137600</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="G14" s="3">
         <v>600</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>11000</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>91500</v>
+        <v>86000</v>
       </c>
       <c r="E17" s="3">
-        <v>74300</v>
+        <v>69900</v>
       </c>
       <c r="F17" s="3">
-        <v>65500</v>
+        <v>61600</v>
       </c>
       <c r="G17" s="3">
-        <v>69900</v>
+        <v>65800</v>
       </c>
       <c r="H17" s="3">
-        <v>46000</v>
+        <v>43300</v>
       </c>
       <c r="I17" s="3">
-        <v>45200</v>
+        <v>42500</v>
       </c>
       <c r="J17" s="3">
-        <v>47000</v>
+        <v>44200</v>
       </c>
       <c r="K17" s="3">
         <v>52200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>190600</v>
+        <v>179200</v>
       </c>
       <c r="E18" s="3">
-        <v>152600</v>
+        <v>143500</v>
       </c>
       <c r="F18" s="3">
-        <v>139700</v>
+        <v>131400</v>
       </c>
       <c r="G18" s="3">
-        <v>132900</v>
+        <v>125000</v>
       </c>
       <c r="H18" s="3">
-        <v>139200</v>
+        <v>130900</v>
       </c>
       <c r="I18" s="3">
-        <v>134100</v>
+        <v>126100</v>
       </c>
       <c r="J18" s="3">
-        <v>125000</v>
+        <v>117500</v>
       </c>
       <c r="K18" s="3">
         <v>94000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>223100</v>
+        <v>209800</v>
       </c>
       <c r="E20" s="3">
-        <v>199700</v>
+        <v>187800</v>
       </c>
       <c r="F20" s="3">
-        <v>289800</v>
+        <v>272500</v>
       </c>
       <c r="G20" s="3">
-        <v>174800</v>
+        <v>164400</v>
       </c>
       <c r="H20" s="3">
-        <v>133000</v>
+        <v>125100</v>
       </c>
       <c r="I20" s="3">
-        <v>58000</v>
+        <v>54500</v>
       </c>
       <c r="J20" s="3">
-        <v>-65200</v>
+        <v>-61300</v>
       </c>
       <c r="K20" s="3">
         <v>-9000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>414700</v>
+        <v>390000</v>
       </c>
       <c r="E21" s="3">
-        <v>353100</v>
+        <v>332000</v>
       </c>
       <c r="F21" s="3">
-        <v>429700</v>
+        <v>404100</v>
       </c>
       <c r="G21" s="3">
-        <v>308000</v>
+        <v>289700</v>
       </c>
       <c r="H21" s="3">
-        <v>272800</v>
+        <v>256500</v>
       </c>
       <c r="I21" s="3">
-        <v>192700</v>
+        <v>181200</v>
       </c>
       <c r="J21" s="3">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="K21" s="3">
         <v>85300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>413700</v>
+        <v>389100</v>
       </c>
       <c r="E23" s="3">
-        <v>352300</v>
+        <v>331300</v>
       </c>
       <c r="F23" s="3">
-        <v>429500</v>
+        <v>403900</v>
       </c>
       <c r="G23" s="3">
-        <v>307700</v>
+        <v>289400</v>
       </c>
       <c r="H23" s="3">
-        <v>272200</v>
+        <v>256000</v>
       </c>
       <c r="I23" s="3">
-        <v>192100</v>
+        <v>180600</v>
       </c>
       <c r="J23" s="3">
-        <v>59800</v>
+        <v>56300</v>
       </c>
       <c r="K23" s="3">
         <v>84900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57300</v>
+        <v>53900</v>
       </c>
       <c r="E24" s="3">
-        <v>35400</v>
+        <v>33300</v>
       </c>
       <c r="F24" s="3">
-        <v>43700</v>
+        <v>41100</v>
       </c>
       <c r="G24" s="3">
-        <v>11100</v>
+        <v>10500</v>
       </c>
       <c r="H24" s="3">
-        <v>39500</v>
+        <v>37100</v>
       </c>
       <c r="I24" s="3">
-        <v>30000</v>
+        <v>28200</v>
       </c>
       <c r="J24" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="K24" s="3">
         <v>-25500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>356400</v>
+        <v>335200</v>
       </c>
       <c r="E26" s="3">
-        <v>316900</v>
+        <v>298000</v>
       </c>
       <c r="F26" s="3">
-        <v>385800</v>
+        <v>362800</v>
       </c>
       <c r="G26" s="3">
-        <v>296600</v>
+        <v>278900</v>
       </c>
       <c r="H26" s="3">
-        <v>232700</v>
+        <v>218800</v>
       </c>
       <c r="I26" s="3">
-        <v>162100</v>
+        <v>152500</v>
       </c>
       <c r="J26" s="3">
-        <v>52800</v>
+        <v>49600</v>
       </c>
       <c r="K26" s="3">
         <v>110400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>356300</v>
+        <v>335100</v>
       </c>
       <c r="E27" s="3">
-        <v>316800</v>
+        <v>297900</v>
       </c>
       <c r="F27" s="3">
-        <v>385600</v>
+        <v>362700</v>
       </c>
       <c r="G27" s="3">
-        <v>296600</v>
+        <v>278900</v>
       </c>
       <c r="H27" s="3">
-        <v>231600</v>
+        <v>217800</v>
       </c>
       <c r="I27" s="3">
-        <v>160300</v>
+        <v>150700</v>
       </c>
       <c r="J27" s="3">
-        <v>52600</v>
+        <v>49500</v>
       </c>
       <c r="K27" s="3">
         <v>110200</v>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="K29" s="3">
         <v>1400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-223100</v>
+        <v>-209800</v>
       </c>
       <c r="E32" s="3">
-        <v>-199700</v>
+        <v>-187800</v>
       </c>
       <c r="F32" s="3">
-        <v>-289800</v>
+        <v>-272500</v>
       </c>
       <c r="G32" s="3">
-        <v>-174800</v>
+        <v>-164400</v>
       </c>
       <c r="H32" s="3">
-        <v>-133000</v>
+        <v>-125100</v>
       </c>
       <c r="I32" s="3">
-        <v>-58000</v>
+        <v>-54500</v>
       </c>
       <c r="J32" s="3">
-        <v>65200</v>
+        <v>61300</v>
       </c>
       <c r="K32" s="3">
         <v>9000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>356300</v>
+        <v>335100</v>
       </c>
       <c r="E33" s="3">
-        <v>316800</v>
+        <v>297900</v>
       </c>
       <c r="F33" s="3">
-        <v>385600</v>
+        <v>362700</v>
       </c>
       <c r="G33" s="3">
-        <v>296600</v>
+        <v>278900</v>
       </c>
       <c r="H33" s="3">
-        <v>231600</v>
+        <v>217800</v>
       </c>
       <c r="I33" s="3">
-        <v>160300</v>
+        <v>150700</v>
       </c>
       <c r="J33" s="3">
-        <v>58200</v>
+        <v>54700</v>
       </c>
       <c r="K33" s="3">
         <v>111600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>356300</v>
+        <v>335100</v>
       </c>
       <c r="E35" s="3">
-        <v>316800</v>
+        <v>297900</v>
       </c>
       <c r="F35" s="3">
-        <v>385600</v>
+        <v>362700</v>
       </c>
       <c r="G35" s="3">
-        <v>296600</v>
+        <v>278900</v>
       </c>
       <c r="H35" s="3">
-        <v>231600</v>
+        <v>217800</v>
       </c>
       <c r="I35" s="3">
-        <v>160300</v>
+        <v>150700</v>
       </c>
       <c r="J35" s="3">
-        <v>58200</v>
+        <v>54700</v>
       </c>
       <c r="K35" s="3">
         <v>111600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>647500</v>
+        <v>608900</v>
       </c>
       <c r="E41" s="3">
-        <v>206000</v>
+        <v>193700</v>
       </c>
       <c r="F41" s="3">
-        <v>443500</v>
+        <v>417100</v>
       </c>
       <c r="G41" s="3">
-        <v>46100</v>
+        <v>43400</v>
       </c>
       <c r="H41" s="3">
-        <v>90700</v>
+        <v>85300</v>
       </c>
       <c r="I41" s="3">
-        <v>53500</v>
+        <v>50300</v>
       </c>
       <c r="J41" s="3">
-        <v>96400</v>
+        <v>90600</v>
       </c>
       <c r="K41" s="3">
         <v>73500</v>
@@ -1774,22 +1774,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>41700</v>
+        <v>39200</v>
       </c>
       <c r="E42" s="3">
-        <v>41600</v>
+        <v>39100</v>
       </c>
       <c r="F42" s="3">
-        <v>102200</v>
+        <v>96100</v>
       </c>
       <c r="G42" s="3">
-        <v>11100</v>
+        <v>10500</v>
       </c>
       <c r="H42" s="3">
-        <v>113400</v>
+        <v>106700</v>
       </c>
       <c r="I42" s="3">
-        <v>45300</v>
+        <v>42600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="E43" s="3">
-        <v>16400</v>
+        <v>15400</v>
       </c>
       <c r="F43" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="G43" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="H43" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I43" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="J43" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K43" s="3">
         <v>2600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="E45" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="F45" s="3">
-        <v>39100</v>
+        <v>36800</v>
       </c>
       <c r="G45" s="3">
-        <v>326600</v>
+        <v>307200</v>
       </c>
       <c r="H45" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="I45" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J45" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="K45" s="3">
         <v>4400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>701200</v>
+        <v>659500</v>
       </c>
       <c r="E46" s="3">
-        <v>266800</v>
+        <v>250900</v>
       </c>
       <c r="F46" s="3">
-        <v>588600</v>
+        <v>553600</v>
       </c>
       <c r="G46" s="3">
-        <v>385900</v>
+        <v>362900</v>
       </c>
       <c r="H46" s="3">
-        <v>207800</v>
+        <v>195400</v>
       </c>
       <c r="I46" s="3">
-        <v>106800</v>
+        <v>100500</v>
       </c>
       <c r="J46" s="3">
-        <v>104500</v>
+        <v>98300</v>
       </c>
       <c r="K46" s="3">
         <v>80600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4857300</v>
+        <v>4568000</v>
       </c>
       <c r="E48" s="3">
-        <v>3697600</v>
+        <v>3477300</v>
       </c>
       <c r="F48" s="3">
-        <v>2840100</v>
+        <v>2671000</v>
       </c>
       <c r="G48" s="3">
-        <v>2267100</v>
+        <v>2132000</v>
       </c>
       <c r="H48" s="3">
-        <v>2200200</v>
+        <v>2069100</v>
       </c>
       <c r="I48" s="3">
-        <v>2150200</v>
+        <v>2022100</v>
       </c>
       <c r="J48" s="3">
-        <v>1916900</v>
+        <v>1802700</v>
       </c>
       <c r="K48" s="3">
         <v>1812000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35200</v>
+        <v>33100</v>
       </c>
       <c r="E52" s="3">
-        <v>18300</v>
+        <v>17200</v>
       </c>
       <c r="F52" s="3">
-        <v>44000</v>
+        <v>41300</v>
       </c>
       <c r="G52" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="H52" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="I52" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="J52" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="K52" s="3">
         <v>7400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5594000</v>
+        <v>5260800</v>
       </c>
       <c r="E54" s="3">
-        <v>3982700</v>
+        <v>3745500</v>
       </c>
       <c r="F54" s="3">
-        <v>3472700</v>
+        <v>3265800</v>
       </c>
       <c r="G54" s="3">
-        <v>2658300</v>
+        <v>2500000</v>
       </c>
       <c r="H54" s="3">
-        <v>2413900</v>
+        <v>2270100</v>
       </c>
       <c r="I54" s="3">
-        <v>2264800</v>
+        <v>2129900</v>
       </c>
       <c r="J54" s="3">
-        <v>2029300</v>
+        <v>1908400</v>
       </c>
       <c r="K54" s="3">
         <v>1900400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E57" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="F57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
-        <v>4700</v>
-      </c>
       <c r="H57" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="I57" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="J57" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="K57" s="3">
         <v>4500</v>
@@ -2310,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>207800</v>
+        <v>195500</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -2319,16 +2319,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>27000</v>
+        <v>25400</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>33400</v>
+        <v>31400</v>
       </c>
       <c r="J58" s="3">
-        <v>52600</v>
+        <v>49500</v>
       </c>
       <c r="K58" s="3">
         <v>40900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>94000</v>
+        <v>88400</v>
       </c>
       <c r="E59" s="3">
-        <v>64400</v>
+        <v>60500</v>
       </c>
       <c r="F59" s="3">
-        <v>65700</v>
+        <v>61800</v>
       </c>
       <c r="G59" s="3">
-        <v>64300</v>
+        <v>60400</v>
       </c>
       <c r="H59" s="3">
-        <v>43800</v>
+        <v>41200</v>
       </c>
       <c r="I59" s="3">
-        <v>48400</v>
+        <v>45500</v>
       </c>
       <c r="J59" s="3">
-        <v>50400</v>
+        <v>47400</v>
       </c>
       <c r="K59" s="3">
         <v>36800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>310000</v>
+        <v>291500</v>
       </c>
       <c r="E60" s="3">
-        <v>70500</v>
+        <v>66300</v>
       </c>
       <c r="F60" s="3">
-        <v>70200</v>
+        <v>66000</v>
       </c>
       <c r="G60" s="3">
-        <v>96000</v>
+        <v>90200</v>
       </c>
       <c r="H60" s="3">
-        <v>48500</v>
+        <v>45600</v>
       </c>
       <c r="I60" s="3">
-        <v>85500</v>
+        <v>80400</v>
       </c>
       <c r="J60" s="3">
-        <v>106800</v>
+        <v>100500</v>
       </c>
       <c r="K60" s="3">
         <v>82200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1625900</v>
+        <v>1529100</v>
       </c>
       <c r="E61" s="3">
-        <v>1011000</v>
+        <v>950700</v>
       </c>
       <c r="F61" s="3">
-        <v>993500</v>
+        <v>934400</v>
       </c>
       <c r="G61" s="3">
-        <v>536600</v>
+        <v>504700</v>
       </c>
       <c r="H61" s="3">
-        <v>536200</v>
+        <v>504300</v>
       </c>
       <c r="I61" s="3">
-        <v>434200</v>
+        <v>408400</v>
       </c>
       <c r="J61" s="3">
-        <v>424700</v>
+        <v>399400</v>
       </c>
       <c r="K61" s="3">
         <v>387900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>406400</v>
+        <v>382200</v>
       </c>
       <c r="E62" s="3">
-        <v>291300</v>
+        <v>273900</v>
       </c>
       <c r="F62" s="3">
-        <v>338900</v>
+        <v>318700</v>
       </c>
       <c r="G62" s="3">
-        <v>253300</v>
+        <v>238200</v>
       </c>
       <c r="H62" s="3">
-        <v>212800</v>
+        <v>200100</v>
       </c>
       <c r="I62" s="3">
-        <v>204000</v>
+        <v>191900</v>
       </c>
       <c r="J62" s="3">
-        <v>141200</v>
+        <v>132800</v>
       </c>
       <c r="K62" s="3">
         <v>139600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2344100</v>
+        <v>2204400</v>
       </c>
       <c r="E66" s="3">
-        <v>1374400</v>
+        <v>1292500</v>
       </c>
       <c r="F66" s="3">
-        <v>1403800</v>
+        <v>1320200</v>
       </c>
       <c r="G66" s="3">
-        <v>886900</v>
+        <v>834100</v>
       </c>
       <c r="H66" s="3">
-        <v>798700</v>
+        <v>751200</v>
       </c>
       <c r="I66" s="3">
-        <v>731900</v>
+        <v>688300</v>
       </c>
       <c r="J66" s="3">
-        <v>678000</v>
+        <v>637600</v>
       </c>
       <c r="K66" s="3">
         <v>613900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>523700</v>
+        <v>492500</v>
       </c>
       <c r="E72" s="3">
-        <v>304500</v>
+        <v>286300</v>
       </c>
       <c r="F72" s="3">
-        <v>103200</v>
+        <v>97100</v>
       </c>
       <c r="G72" s="3">
-        <v>-133200</v>
+        <v>-125300</v>
       </c>
       <c r="H72" s="3">
-        <v>-327700</v>
+        <v>-308200</v>
       </c>
       <c r="I72" s="3">
-        <v>-461900</v>
+        <v>-434300</v>
       </c>
       <c r="J72" s="3">
-        <v>-532300</v>
+        <v>-500600</v>
       </c>
       <c r="K72" s="3">
         <v>-468600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3249900</v>
+        <v>3056400</v>
       </c>
       <c r="E76" s="3">
-        <v>2608300</v>
+        <v>2453000</v>
       </c>
       <c r="F76" s="3">
-        <v>2068900</v>
+        <v>1945700</v>
       </c>
       <c r="G76" s="3">
-        <v>1771400</v>
+        <v>1665900</v>
       </c>
       <c r="H76" s="3">
-        <v>1615200</v>
+        <v>1519000</v>
       </c>
       <c r="I76" s="3">
-        <v>1532900</v>
+        <v>1441600</v>
       </c>
       <c r="J76" s="3">
-        <v>1351300</v>
+        <v>1270900</v>
       </c>
       <c r="K76" s="3">
         <v>1286500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>356300</v>
+        <v>335100</v>
       </c>
       <c r="E81" s="3">
-        <v>316800</v>
+        <v>297900</v>
       </c>
       <c r="F81" s="3">
-        <v>385600</v>
+        <v>362700</v>
       </c>
       <c r="G81" s="3">
-        <v>296600</v>
+        <v>278900</v>
       </c>
       <c r="H81" s="3">
-        <v>231600</v>
+        <v>217800</v>
       </c>
       <c r="I81" s="3">
-        <v>160300</v>
+        <v>150700</v>
       </c>
       <c r="J81" s="3">
-        <v>58200</v>
+        <v>54700</v>
       </c>
       <c r="K81" s="3">
         <v>111600</v>
@@ -3103,10 +3103,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>202600</v>
+        <v>190500</v>
       </c>
       <c r="E89" s="3">
-        <v>152100</v>
+        <v>143000</v>
       </c>
       <c r="F89" s="3">
-        <v>130900</v>
+        <v>123100</v>
       </c>
       <c r="G89" s="3">
-        <v>131600</v>
+        <v>123700</v>
       </c>
       <c r="H89" s="3">
-        <v>132600</v>
+        <v>124700</v>
       </c>
       <c r="I89" s="3">
-        <v>132500</v>
+        <v>124600</v>
       </c>
       <c r="J89" s="3">
-        <v>77000</v>
+        <v>72400</v>
       </c>
       <c r="K89" s="3">
         <v>98500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54100</v>
+        <v>-50900</v>
       </c>
       <c r="E91" s="3">
-        <v>-25300</v>
+        <v>-23800</v>
       </c>
       <c r="F91" s="3">
-        <v>-28600</v>
+        <v>-26900</v>
       </c>
       <c r="G91" s="3">
-        <v>-69400</v>
+        <v>-65300</v>
       </c>
       <c r="H91" s="3">
-        <v>-16200</v>
+        <v>-15200</v>
       </c>
       <c r="I91" s="3">
-        <v>-22200</v>
+        <v>-20800</v>
       </c>
       <c r="J91" s="3">
-        <v>-36600</v>
+        <v>-34400</v>
       </c>
       <c r="K91" s="3">
         <v>-22700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-884400</v>
+        <v>-831800</v>
       </c>
       <c r="E94" s="3">
-        <v>-726300</v>
+        <v>-683100</v>
       </c>
       <c r="F94" s="3">
-        <v>79500</v>
+        <v>74700</v>
       </c>
       <c r="G94" s="3">
-        <v>-197200</v>
+        <v>-185400</v>
       </c>
       <c r="H94" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="I94" s="3">
-        <v>-17200</v>
+        <v>-16200</v>
       </c>
       <c r="J94" s="3">
-        <v>16700</v>
+        <v>15700</v>
       </c>
       <c r="K94" s="3">
         <v>-195200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-135200</v>
+        <v>-127100</v>
       </c>
       <c r="E96" s="3">
-        <v>-124900</v>
+        <v>-117400</v>
       </c>
       <c r="F96" s="3">
-        <v>-103700</v>
+        <v>-97600</v>
       </c>
       <c r="G96" s="3">
-        <v>-101700</v>
+        <v>-95600</v>
       </c>
       <c r="H96" s="3">
-        <v>-93800</v>
+        <v>-88200</v>
       </c>
       <c r="I96" s="3">
-        <v>-89800</v>
+        <v>-84500</v>
       </c>
       <c r="J96" s="3">
-        <v>-85600</v>
+        <v>-80500</v>
       </c>
       <c r="K96" s="3">
         <v>-69500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1126000</v>
+        <v>1058900</v>
       </c>
       <c r="E100" s="3">
-        <v>284800</v>
+        <v>267800</v>
       </c>
       <c r="F100" s="3">
-        <v>268800</v>
+        <v>252800</v>
       </c>
       <c r="G100" s="3">
-        <v>-87200</v>
+        <v>-82100</v>
       </c>
       <c r="H100" s="3">
-        <v>-33100</v>
+        <v>-31200</v>
       </c>
       <c r="I100" s="3">
-        <v>-119300</v>
+        <v>-112200</v>
       </c>
       <c r="J100" s="3">
-        <v>-75200</v>
+        <v>-70700</v>
       </c>
       <c r="K100" s="3">
         <v>124800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="E101" s="3">
-        <v>-8600</v>
+        <v>-8100</v>
       </c>
       <c r="F101" s="3">
-        <v>9400</v>
+        <v>8800</v>
       </c>
       <c r="G101" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="H101" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="I101" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="J101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K101" s="3">
         <v>6200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>441600</v>
+        <v>415300</v>
       </c>
       <c r="E102" s="3">
-        <v>-298100</v>
+        <v>-280300</v>
       </c>
       <c r="F102" s="3">
-        <v>488500</v>
+        <v>459400</v>
       </c>
       <c r="G102" s="3">
-        <v>-146900</v>
+        <v>-138200</v>
       </c>
       <c r="H102" s="3">
-        <v>105300</v>
+        <v>99100</v>
       </c>
       <c r="I102" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J102" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="K102" s="3">
         <v>34200</v>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>265200</v>
+        <v>267100</v>
       </c>
       <c r="E8" s="3">
-        <v>213400</v>
+        <v>214900</v>
       </c>
       <c r="F8" s="3">
-        <v>193000</v>
+        <v>194300</v>
       </c>
       <c r="G8" s="3">
-        <v>190800</v>
+        <v>192100</v>
       </c>
       <c r="H8" s="3">
-        <v>174200</v>
+        <v>175400</v>
       </c>
       <c r="I8" s="3">
-        <v>168600</v>
+        <v>169800</v>
       </c>
       <c r="J8" s="3">
-        <v>161700</v>
+        <v>162800</v>
       </c>
       <c r="K8" s="3">
         <v>146200</v>
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36800</v>
+        <v>37000</v>
       </c>
       <c r="E9" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="F9" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="G9" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="H9" s="3">
         <v>6000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>228500</v>
+        <v>230000</v>
       </c>
       <c r="E10" s="3">
-        <v>185800</v>
+        <v>187100</v>
       </c>
       <c r="F10" s="3">
-        <v>168800</v>
+        <v>170000</v>
       </c>
       <c r="G10" s="3">
-        <v>166300</v>
+        <v>167500</v>
       </c>
       <c r="H10" s="3">
-        <v>168200</v>
+        <v>169400</v>
       </c>
       <c r="I10" s="3">
-        <v>163100</v>
+        <v>164300</v>
       </c>
       <c r="J10" s="3">
-        <v>156400</v>
+        <v>157400</v>
       </c>
       <c r="K10" s="3">
         <v>137600</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G14" s="3">
         <v>600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86000</v>
+        <v>86600</v>
       </c>
       <c r="E17" s="3">
-        <v>69900</v>
+        <v>70400</v>
       </c>
       <c r="F17" s="3">
-        <v>61600</v>
+        <v>62000</v>
       </c>
       <c r="G17" s="3">
-        <v>65800</v>
+        <v>66200</v>
       </c>
       <c r="H17" s="3">
-        <v>43300</v>
+        <v>43600</v>
       </c>
       <c r="I17" s="3">
-        <v>42500</v>
+        <v>42800</v>
       </c>
       <c r="J17" s="3">
-        <v>44200</v>
+        <v>44500</v>
       </c>
       <c r="K17" s="3">
         <v>52200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>179200</v>
+        <v>180500</v>
       </c>
       <c r="E18" s="3">
-        <v>143500</v>
+        <v>144500</v>
       </c>
       <c r="F18" s="3">
-        <v>131400</v>
+        <v>132300</v>
       </c>
       <c r="G18" s="3">
-        <v>125000</v>
+        <v>125900</v>
       </c>
       <c r="H18" s="3">
-        <v>130900</v>
+        <v>131800</v>
       </c>
       <c r="I18" s="3">
-        <v>126100</v>
+        <v>127000</v>
       </c>
       <c r="J18" s="3">
-        <v>117500</v>
+        <v>118400</v>
       </c>
       <c r="K18" s="3">
         <v>94000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>209800</v>
+        <v>211300</v>
       </c>
       <c r="E20" s="3">
-        <v>187800</v>
+        <v>189100</v>
       </c>
       <c r="F20" s="3">
-        <v>272500</v>
+        <v>274400</v>
       </c>
       <c r="G20" s="3">
-        <v>164400</v>
+        <v>165500</v>
       </c>
       <c r="H20" s="3">
-        <v>125100</v>
+        <v>125900</v>
       </c>
       <c r="I20" s="3">
-        <v>54500</v>
+        <v>54900</v>
       </c>
       <c r="J20" s="3">
-        <v>-61300</v>
+        <v>-61700</v>
       </c>
       <c r="K20" s="3">
         <v>-9000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>390000</v>
+        <v>392700</v>
       </c>
       <c r="E21" s="3">
-        <v>332000</v>
+        <v>334300</v>
       </c>
       <c r="F21" s="3">
-        <v>404100</v>
+        <v>406900</v>
       </c>
       <c r="G21" s="3">
-        <v>289700</v>
+        <v>291600</v>
       </c>
       <c r="H21" s="3">
-        <v>256500</v>
+        <v>258300</v>
       </c>
       <c r="I21" s="3">
-        <v>181200</v>
+        <v>182500</v>
       </c>
       <c r="J21" s="3">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="K21" s="3">
         <v>85300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>389100</v>
+        <v>391800</v>
       </c>
       <c r="E23" s="3">
-        <v>331300</v>
+        <v>333600</v>
       </c>
       <c r="F23" s="3">
-        <v>403900</v>
+        <v>406700</v>
       </c>
       <c r="G23" s="3">
-        <v>289400</v>
+        <v>291400</v>
       </c>
       <c r="H23" s="3">
-        <v>256000</v>
+        <v>257700</v>
       </c>
       <c r="I23" s="3">
-        <v>180600</v>
+        <v>181900</v>
       </c>
       <c r="J23" s="3">
-        <v>56300</v>
+        <v>56600</v>
       </c>
       <c r="K23" s="3">
         <v>84900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53900</v>
+        <v>54200</v>
       </c>
       <c r="E24" s="3">
-        <v>33300</v>
+        <v>33500</v>
       </c>
       <c r="F24" s="3">
-        <v>41100</v>
+        <v>41300</v>
       </c>
       <c r="G24" s="3">
         <v>10500</v>
       </c>
       <c r="H24" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="I24" s="3">
-        <v>28200</v>
+        <v>28400</v>
       </c>
       <c r="J24" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="K24" s="3">
         <v>-25500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>335200</v>
+        <v>337500</v>
       </c>
       <c r="E26" s="3">
-        <v>298000</v>
+        <v>300100</v>
       </c>
       <c r="F26" s="3">
-        <v>362800</v>
+        <v>365300</v>
       </c>
       <c r="G26" s="3">
-        <v>278900</v>
+        <v>280900</v>
       </c>
       <c r="H26" s="3">
-        <v>218800</v>
+        <v>220400</v>
       </c>
       <c r="I26" s="3">
-        <v>152500</v>
+        <v>153500</v>
       </c>
       <c r="J26" s="3">
-        <v>49600</v>
+        <v>50000</v>
       </c>
       <c r="K26" s="3">
         <v>110400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>335100</v>
+        <v>337400</v>
       </c>
       <c r="E27" s="3">
-        <v>297900</v>
+        <v>300000</v>
       </c>
       <c r="F27" s="3">
-        <v>362700</v>
+        <v>365200</v>
       </c>
       <c r="G27" s="3">
-        <v>278900</v>
+        <v>280800</v>
       </c>
       <c r="H27" s="3">
-        <v>217800</v>
+        <v>219300</v>
       </c>
       <c r="I27" s="3">
-        <v>150700</v>
+        <v>151800</v>
       </c>
       <c r="J27" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="K27" s="3">
         <v>110200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-209800</v>
+        <v>-211300</v>
       </c>
       <c r="E32" s="3">
-        <v>-187800</v>
+        <v>-189100</v>
       </c>
       <c r="F32" s="3">
-        <v>-272500</v>
+        <v>-274400</v>
       </c>
       <c r="G32" s="3">
-        <v>-164400</v>
+        <v>-165500</v>
       </c>
       <c r="H32" s="3">
-        <v>-125100</v>
+        <v>-125900</v>
       </c>
       <c r="I32" s="3">
-        <v>-54500</v>
+        <v>-54900</v>
       </c>
       <c r="J32" s="3">
-        <v>61300</v>
+        <v>61700</v>
       </c>
       <c r="K32" s="3">
         <v>9000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>335100</v>
+        <v>337400</v>
       </c>
       <c r="E33" s="3">
-        <v>297900</v>
+        <v>300000</v>
       </c>
       <c r="F33" s="3">
-        <v>362700</v>
+        <v>365200</v>
       </c>
       <c r="G33" s="3">
-        <v>278900</v>
+        <v>280800</v>
       </c>
       <c r="H33" s="3">
-        <v>217800</v>
+        <v>219300</v>
       </c>
       <c r="I33" s="3">
-        <v>150700</v>
+        <v>151800</v>
       </c>
       <c r="J33" s="3">
-        <v>54700</v>
+        <v>55100</v>
       </c>
       <c r="K33" s="3">
         <v>111600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>335100</v>
+        <v>337400</v>
       </c>
       <c r="E35" s="3">
-        <v>297900</v>
+        <v>300000</v>
       </c>
       <c r="F35" s="3">
-        <v>362700</v>
+        <v>365200</v>
       </c>
       <c r="G35" s="3">
-        <v>278900</v>
+        <v>280800</v>
       </c>
       <c r="H35" s="3">
-        <v>217800</v>
+        <v>219300</v>
       </c>
       <c r="I35" s="3">
-        <v>150700</v>
+        <v>151800</v>
       </c>
       <c r="J35" s="3">
-        <v>54700</v>
+        <v>55100</v>
       </c>
       <c r="K35" s="3">
         <v>111600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>608900</v>
+        <v>613100</v>
       </c>
       <c r="E41" s="3">
-        <v>193700</v>
+        <v>195100</v>
       </c>
       <c r="F41" s="3">
-        <v>417100</v>
+        <v>420000</v>
       </c>
       <c r="G41" s="3">
-        <v>43400</v>
+        <v>43700</v>
       </c>
       <c r="H41" s="3">
-        <v>85300</v>
+        <v>85900</v>
       </c>
       <c r="I41" s="3">
-        <v>50300</v>
+        <v>50600</v>
       </c>
       <c r="J41" s="3">
-        <v>90600</v>
+        <v>91200</v>
       </c>
       <c r="K41" s="3">
         <v>73500</v>
@@ -1774,22 +1774,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39200</v>
+        <v>39500</v>
       </c>
       <c r="E42" s="3">
-        <v>39100</v>
+        <v>39400</v>
       </c>
       <c r="F42" s="3">
-        <v>96100</v>
+        <v>96800</v>
       </c>
       <c r="G42" s="3">
         <v>10500</v>
       </c>
       <c r="H42" s="3">
-        <v>106700</v>
+        <v>107400</v>
       </c>
       <c r="I42" s="3">
-        <v>42600</v>
+        <v>42900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1813,13 +1813,13 @@
         <v>6000</v>
       </c>
       <c r="E43" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="F43" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G43" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H43" s="3">
         <v>1100</v>
@@ -1885,16 +1885,16 @@
         <v>5400</v>
       </c>
       <c r="E45" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F45" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="G45" s="3">
-        <v>307200</v>
+        <v>309300</v>
       </c>
       <c r="H45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I45" s="3">
         <v>2100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>659500</v>
+        <v>664000</v>
       </c>
       <c r="E46" s="3">
-        <v>250900</v>
+        <v>252700</v>
       </c>
       <c r="F46" s="3">
-        <v>553600</v>
+        <v>557400</v>
       </c>
       <c r="G46" s="3">
-        <v>362900</v>
+        <v>365400</v>
       </c>
       <c r="H46" s="3">
-        <v>195400</v>
+        <v>196800</v>
       </c>
       <c r="I46" s="3">
-        <v>100500</v>
+        <v>101200</v>
       </c>
       <c r="J46" s="3">
-        <v>98300</v>
+        <v>99000</v>
       </c>
       <c r="K46" s="3">
         <v>80600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4568000</v>
+        <v>4599500</v>
       </c>
       <c r="E48" s="3">
-        <v>3477300</v>
+        <v>3501300</v>
       </c>
       <c r="F48" s="3">
-        <v>2671000</v>
+        <v>2689400</v>
       </c>
       <c r="G48" s="3">
-        <v>2132000</v>
+        <v>2146700</v>
       </c>
       <c r="H48" s="3">
-        <v>2069100</v>
+        <v>2083400</v>
       </c>
       <c r="I48" s="3">
-        <v>2022100</v>
+        <v>2036100</v>
       </c>
       <c r="J48" s="3">
-        <v>1802700</v>
+        <v>1815100</v>
       </c>
       <c r="K48" s="3">
         <v>1812000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33100</v>
+        <v>33300</v>
       </c>
       <c r="E52" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="F52" s="3">
-        <v>41300</v>
+        <v>41600</v>
       </c>
       <c r="G52" s="3">
         <v>5000</v>
       </c>
       <c r="H52" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I52" s="3">
         <v>6900</v>
       </c>
       <c r="J52" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="K52" s="3">
         <v>7400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5260800</v>
+        <v>5297100</v>
       </c>
       <c r="E54" s="3">
-        <v>3745500</v>
+        <v>3771300</v>
       </c>
       <c r="F54" s="3">
-        <v>3265800</v>
+        <v>3288400</v>
       </c>
       <c r="G54" s="3">
-        <v>2500000</v>
+        <v>2517200</v>
       </c>
       <c r="H54" s="3">
-        <v>2270100</v>
+        <v>2285800</v>
       </c>
       <c r="I54" s="3">
-        <v>2129900</v>
+        <v>2144600</v>
       </c>
       <c r="J54" s="3">
-        <v>1908400</v>
+        <v>1921600</v>
       </c>
       <c r="K54" s="3">
         <v>1900400</v>
@@ -2274,16 +2274,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="E57" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F57" s="3">
         <v>4200</v>
       </c>
       <c r="G57" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H57" s="3">
         <v>4400</v>
@@ -2310,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>195500</v>
+        <v>196800</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -2319,16 +2319,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>31400</v>
+        <v>31600</v>
       </c>
       <c r="J58" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="K58" s="3">
         <v>40900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>88400</v>
+        <v>89000</v>
       </c>
       <c r="E59" s="3">
-        <v>60500</v>
+        <v>60900</v>
       </c>
       <c r="F59" s="3">
-        <v>61800</v>
+        <v>62200</v>
       </c>
       <c r="G59" s="3">
-        <v>60400</v>
+        <v>60900</v>
       </c>
       <c r="H59" s="3">
-        <v>41200</v>
+        <v>41500</v>
       </c>
       <c r="I59" s="3">
-        <v>45500</v>
+        <v>45800</v>
       </c>
       <c r="J59" s="3">
-        <v>47400</v>
+        <v>47700</v>
       </c>
       <c r="K59" s="3">
         <v>36800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>291500</v>
+        <v>293500</v>
       </c>
       <c r="E60" s="3">
-        <v>66300</v>
+        <v>66800</v>
       </c>
       <c r="F60" s="3">
-        <v>66000</v>
+        <v>66400</v>
       </c>
       <c r="G60" s="3">
-        <v>90200</v>
+        <v>90900</v>
       </c>
       <c r="H60" s="3">
-        <v>45600</v>
+        <v>45900</v>
       </c>
       <c r="I60" s="3">
-        <v>80400</v>
+        <v>81000</v>
       </c>
       <c r="J60" s="3">
-        <v>100500</v>
+        <v>101200</v>
       </c>
       <c r="K60" s="3">
         <v>82200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1529100</v>
+        <v>1539600</v>
       </c>
       <c r="E61" s="3">
-        <v>950700</v>
+        <v>957300</v>
       </c>
       <c r="F61" s="3">
-        <v>934400</v>
+        <v>940800</v>
       </c>
       <c r="G61" s="3">
-        <v>504700</v>
+        <v>508200</v>
       </c>
       <c r="H61" s="3">
-        <v>504300</v>
+        <v>507700</v>
       </c>
       <c r="I61" s="3">
-        <v>408400</v>
+        <v>411200</v>
       </c>
       <c r="J61" s="3">
-        <v>399400</v>
+        <v>402200</v>
       </c>
       <c r="K61" s="3">
         <v>387900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>382200</v>
+        <v>384800</v>
       </c>
       <c r="E62" s="3">
-        <v>273900</v>
+        <v>275800</v>
       </c>
       <c r="F62" s="3">
-        <v>318700</v>
+        <v>320900</v>
       </c>
       <c r="G62" s="3">
-        <v>238200</v>
+        <v>239800</v>
       </c>
       <c r="H62" s="3">
-        <v>200100</v>
+        <v>201500</v>
       </c>
       <c r="I62" s="3">
-        <v>191900</v>
+        <v>193200</v>
       </c>
       <c r="J62" s="3">
-        <v>132800</v>
+        <v>133700</v>
       </c>
       <c r="K62" s="3">
         <v>139600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2204400</v>
+        <v>2219700</v>
       </c>
       <c r="E66" s="3">
-        <v>1292500</v>
+        <v>1301500</v>
       </c>
       <c r="F66" s="3">
-        <v>1320200</v>
+        <v>1329300</v>
       </c>
       <c r="G66" s="3">
-        <v>834100</v>
+        <v>839900</v>
       </c>
       <c r="H66" s="3">
-        <v>751200</v>
+        <v>756300</v>
       </c>
       <c r="I66" s="3">
-        <v>688300</v>
+        <v>693000</v>
       </c>
       <c r="J66" s="3">
-        <v>637600</v>
+        <v>642000</v>
       </c>
       <c r="K66" s="3">
         <v>613900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>492500</v>
+        <v>495900</v>
       </c>
       <c r="E72" s="3">
-        <v>286300</v>
+        <v>288300</v>
       </c>
       <c r="F72" s="3">
-        <v>97100</v>
+        <v>97700</v>
       </c>
       <c r="G72" s="3">
-        <v>-125300</v>
+        <v>-126100</v>
       </c>
       <c r="H72" s="3">
-        <v>-308200</v>
+        <v>-310400</v>
       </c>
       <c r="I72" s="3">
-        <v>-434300</v>
+        <v>-437300</v>
       </c>
       <c r="J72" s="3">
-        <v>-500600</v>
+        <v>-504100</v>
       </c>
       <c r="K72" s="3">
         <v>-468600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3056400</v>
+        <v>3077500</v>
       </c>
       <c r="E76" s="3">
-        <v>2453000</v>
+        <v>2469900</v>
       </c>
       <c r="F76" s="3">
-        <v>1945700</v>
+        <v>1959100</v>
       </c>
       <c r="G76" s="3">
-        <v>1665900</v>
+        <v>1677300</v>
       </c>
       <c r="H76" s="3">
-        <v>1519000</v>
+        <v>1529400</v>
       </c>
       <c r="I76" s="3">
-        <v>1441600</v>
+        <v>1451600</v>
       </c>
       <c r="J76" s="3">
-        <v>1270900</v>
+        <v>1279600</v>
       </c>
       <c r="K76" s="3">
         <v>1286500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>335100</v>
+        <v>337400</v>
       </c>
       <c r="E81" s="3">
-        <v>297900</v>
+        <v>300000</v>
       </c>
       <c r="F81" s="3">
-        <v>362700</v>
+        <v>365200</v>
       </c>
       <c r="G81" s="3">
-        <v>278900</v>
+        <v>280800</v>
       </c>
       <c r="H81" s="3">
-        <v>217800</v>
+        <v>219300</v>
       </c>
       <c r="I81" s="3">
-        <v>150700</v>
+        <v>151800</v>
       </c>
       <c r="J81" s="3">
-        <v>54700</v>
+        <v>55100</v>
       </c>
       <c r="K81" s="3">
         <v>111600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>190500</v>
+        <v>191800</v>
       </c>
       <c r="E89" s="3">
-        <v>143000</v>
+        <v>144000</v>
       </c>
       <c r="F89" s="3">
-        <v>123100</v>
+        <v>123900</v>
       </c>
       <c r="G89" s="3">
-        <v>123700</v>
+        <v>124600</v>
       </c>
       <c r="H89" s="3">
-        <v>124700</v>
+        <v>125600</v>
       </c>
       <c r="I89" s="3">
-        <v>124600</v>
+        <v>125500</v>
       </c>
       <c r="J89" s="3">
-        <v>72400</v>
+        <v>72900</v>
       </c>
       <c r="K89" s="3">
         <v>98500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50900</v>
+        <v>-51300</v>
       </c>
       <c r="E91" s="3">
-        <v>-23800</v>
+        <v>-23900</v>
       </c>
       <c r="F91" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="G91" s="3">
-        <v>-65300</v>
+        <v>-65700</v>
       </c>
       <c r="H91" s="3">
-        <v>-15200</v>
+        <v>-15300</v>
       </c>
       <c r="I91" s="3">
-        <v>-20800</v>
+        <v>-21000</v>
       </c>
       <c r="J91" s="3">
-        <v>-34400</v>
+        <v>-34700</v>
       </c>
       <c r="K91" s="3">
         <v>-22700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-831800</v>
+        <v>-837500</v>
       </c>
       <c r="E94" s="3">
-        <v>-683100</v>
+        <v>-687800</v>
       </c>
       <c r="F94" s="3">
-        <v>74700</v>
+        <v>75300</v>
       </c>
       <c r="G94" s="3">
-        <v>-185400</v>
+        <v>-186700</v>
       </c>
       <c r="H94" s="3">
         <v>9200</v>
       </c>
       <c r="I94" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="J94" s="3">
-        <v>15700</v>
+        <v>15800</v>
       </c>
       <c r="K94" s="3">
         <v>-195200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-127100</v>
+        <v>-128000</v>
       </c>
       <c r="E96" s="3">
-        <v>-117400</v>
+        <v>-118200</v>
       </c>
       <c r="F96" s="3">
-        <v>-97600</v>
+        <v>-98200</v>
       </c>
       <c r="G96" s="3">
-        <v>-95600</v>
+        <v>-96300</v>
       </c>
       <c r="H96" s="3">
-        <v>-88200</v>
+        <v>-88800</v>
       </c>
       <c r="I96" s="3">
-        <v>-84500</v>
+        <v>-85000</v>
       </c>
       <c r="J96" s="3">
-        <v>-80500</v>
+        <v>-81000</v>
       </c>
       <c r="K96" s="3">
         <v>-69500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1058900</v>
+        <v>1066300</v>
       </c>
       <c r="E100" s="3">
-        <v>267800</v>
+        <v>269700</v>
       </c>
       <c r="F100" s="3">
-        <v>252800</v>
+        <v>254500</v>
       </c>
       <c r="G100" s="3">
-        <v>-82100</v>
+        <v>-82600</v>
       </c>
       <c r="H100" s="3">
-        <v>-31200</v>
+        <v>-31400</v>
       </c>
       <c r="I100" s="3">
-        <v>-112200</v>
+        <v>-113000</v>
       </c>
       <c r="J100" s="3">
-        <v>-70700</v>
+        <v>-71200</v>
       </c>
       <c r="K100" s="3">
         <v>124800</v>
@@ -3714,13 +3714,13 @@
         <v>-2400</v>
       </c>
       <c r="E101" s="3">
-        <v>-8100</v>
+        <v>-8200</v>
       </c>
       <c r="F101" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="G101" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H101" s="3">
         <v>-3700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>415300</v>
+        <v>418100</v>
       </c>
       <c r="E102" s="3">
-        <v>-280300</v>
+        <v>-282300</v>
       </c>
       <c r="F102" s="3">
-        <v>459400</v>
+        <v>462600</v>
       </c>
       <c r="G102" s="3">
-        <v>-138200</v>
+        <v>-139100</v>
       </c>
       <c r="H102" s="3">
-        <v>99100</v>
+        <v>99700</v>
       </c>
       <c r="I102" s="3">
         <v>2300</v>
       </c>
       <c r="J102" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="K102" s="3">
         <v>34200</v>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>GRP.U</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>267100</v>
+        <v>308800</v>
       </c>
       <c r="E8" s="3">
-        <v>214900</v>
+        <v>267000</v>
       </c>
       <c r="F8" s="3">
-        <v>194300</v>
+        <v>214800</v>
       </c>
       <c r="G8" s="3">
-        <v>192100</v>
+        <v>194200</v>
       </c>
       <c r="H8" s="3">
-        <v>175400</v>
+        <v>192000</v>
       </c>
       <c r="I8" s="3">
-        <v>169800</v>
+        <v>175300</v>
       </c>
       <c r="J8" s="3">
+        <v>169700</v>
+      </c>
+      <c r="K8" s="3">
         <v>162800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>146200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>136300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>139000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E9" s="3">
         <v>37000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>261100</v>
+      </c>
+      <c r="E10" s="3">
         <v>230000</v>
       </c>
-      <c r="E10" s="3">
-        <v>187100</v>
-      </c>
       <c r="F10" s="3">
-        <v>170000</v>
+        <v>187000</v>
       </c>
       <c r="G10" s="3">
-        <v>167500</v>
+        <v>169900</v>
       </c>
       <c r="H10" s="3">
-        <v>169400</v>
+        <v>167400</v>
       </c>
       <c r="I10" s="3">
-        <v>164300</v>
+        <v>169300</v>
       </c>
       <c r="J10" s="3">
+        <v>164200</v>
+      </c>
+      <c r="K10" s="3">
         <v>157400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>137600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>99900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>106200</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>6300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>600</v>
       </c>
       <c r="J15" s="3">
+        <v>600</v>
+      </c>
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E17" s="3">
         <v>86600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>66200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>42800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>97900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>180500</v>
+        <v>199300</v>
       </c>
       <c r="E18" s="3">
-        <v>144500</v>
+        <v>180400</v>
       </c>
       <c r="F18" s="3">
-        <v>132300</v>
+        <v>144400</v>
       </c>
       <c r="G18" s="3">
-        <v>125900</v>
+        <v>132200</v>
       </c>
       <c r="H18" s="3">
-        <v>131800</v>
+        <v>125800</v>
       </c>
       <c r="I18" s="3">
+        <v>131700</v>
+      </c>
+      <c r="J18" s="3">
         <v>127000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>118400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>94000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>41100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>211300</v>
+        <v>1017700</v>
       </c>
       <c r="E20" s="3">
+        <v>211200</v>
+      </c>
+      <c r="F20" s="3">
         <v>189100</v>
       </c>
-      <c r="F20" s="3">
-        <v>274400</v>
-      </c>
       <c r="G20" s="3">
+        <v>274300</v>
+      </c>
+      <c r="H20" s="3">
         <v>165500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>125900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>54900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-61700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>392700</v>
+        <v>1218000</v>
       </c>
       <c r="E21" s="3">
-        <v>334300</v>
+        <v>392500</v>
       </c>
       <c r="F21" s="3">
-        <v>406900</v>
+        <v>334200</v>
       </c>
       <c r="G21" s="3">
-        <v>291600</v>
+        <v>406700</v>
       </c>
       <c r="H21" s="3">
-        <v>258300</v>
+        <v>291500</v>
       </c>
       <c r="I21" s="3">
-        <v>182500</v>
+        <v>258200</v>
       </c>
       <c r="J21" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K21" s="3">
         <v>57100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>85300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>121800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>74100</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>391800</v>
+        <v>1217000</v>
       </c>
       <c r="E23" s="3">
-        <v>333600</v>
+        <v>391600</v>
       </c>
       <c r="F23" s="3">
-        <v>406700</v>
+        <v>333500</v>
       </c>
       <c r="G23" s="3">
-        <v>291400</v>
+        <v>406500</v>
       </c>
       <c r="H23" s="3">
-        <v>257700</v>
+        <v>291300</v>
       </c>
       <c r="I23" s="3">
-        <v>181900</v>
+        <v>257600</v>
       </c>
       <c r="J23" s="3">
+        <v>181800</v>
+      </c>
+      <c r="K23" s="3">
         <v>56600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>84900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>121600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>41100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>188800</v>
+      </c>
+      <c r="E24" s="3">
         <v>54200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>33500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>41300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-25500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>337500</v>
+        <v>1028200</v>
       </c>
       <c r="E26" s="3">
-        <v>300100</v>
+        <v>337400</v>
       </c>
       <c r="F26" s="3">
-        <v>365300</v>
+        <v>300000</v>
       </c>
       <c r="G26" s="3">
-        <v>280900</v>
+        <v>365200</v>
       </c>
       <c r="H26" s="3">
-        <v>220400</v>
+        <v>280700</v>
       </c>
       <c r="I26" s="3">
-        <v>153500</v>
+        <v>220300</v>
       </c>
       <c r="J26" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K26" s="3">
         <v>50000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>110400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>112800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>44500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>337400</v>
+        <v>1028000</v>
       </c>
       <c r="E27" s="3">
-        <v>300000</v>
+        <v>337300</v>
       </c>
       <c r="F27" s="3">
-        <v>365200</v>
+        <v>299800</v>
       </c>
       <c r="G27" s="3">
-        <v>280800</v>
+        <v>365000</v>
       </c>
       <c r="H27" s="3">
-        <v>219300</v>
+        <v>280700</v>
       </c>
       <c r="I27" s="3">
-        <v>151800</v>
+        <v>219200</v>
       </c>
       <c r="J27" s="3">
+        <v>151700</v>
+      </c>
+      <c r="K27" s="3">
         <v>49800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>110200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>112700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1430,21 +1490,24 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>5300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1400</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>72600</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-211300</v>
+        <v>-1017700</v>
       </c>
       <c r="E32" s="3">
+        <v>-211200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-189100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-274400</v>
-      </c>
       <c r="G32" s="3">
+        <v>-274300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-165500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-125900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-54900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>61700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-24800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>337400</v>
+        <v>1028000</v>
       </c>
       <c r="E33" s="3">
-        <v>300000</v>
+        <v>337300</v>
       </c>
       <c r="F33" s="3">
-        <v>365200</v>
+        <v>299800</v>
       </c>
       <c r="G33" s="3">
-        <v>280800</v>
+        <v>365000</v>
       </c>
       <c r="H33" s="3">
-        <v>219300</v>
+        <v>280700</v>
       </c>
       <c r="I33" s="3">
-        <v>151800</v>
+        <v>219200</v>
       </c>
       <c r="J33" s="3">
+        <v>151700</v>
+      </c>
+      <c r="K33" s="3">
         <v>55100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>111600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>112700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>117100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>337400</v>
+        <v>1028000</v>
       </c>
       <c r="E35" s="3">
-        <v>300000</v>
+        <v>337300</v>
       </c>
       <c r="F35" s="3">
-        <v>365200</v>
+        <v>299800</v>
       </c>
       <c r="G35" s="3">
-        <v>280800</v>
+        <v>365000</v>
       </c>
       <c r="H35" s="3">
-        <v>219300</v>
+        <v>280700</v>
       </c>
       <c r="I35" s="3">
-        <v>151800</v>
+        <v>219200</v>
       </c>
       <c r="J35" s="3">
+        <v>151700</v>
+      </c>
+      <c r="K35" s="3">
         <v>55100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>111600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>112700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>117100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,67 +1817,71 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>613100</v>
+        <v>315400</v>
       </c>
       <c r="E41" s="3">
-        <v>195100</v>
+        <v>612900</v>
       </c>
       <c r="F41" s="3">
-        <v>420000</v>
+        <v>195000</v>
       </c>
       <c r="G41" s="3">
+        <v>419800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>43600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>85900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K41" s="3">
+        <v>91200</v>
+      </c>
+      <c r="L41" s="3">
+        <v>73500</v>
+      </c>
+      <c r="M41" s="3">
+        <v>38400</v>
+      </c>
+      <c r="N41" s="3">
         <v>43700</v>
       </c>
-      <c r="H41" s="3">
-        <v>85900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>50600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>91200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>73500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>38400</v>
-      </c>
-      <c r="M41" s="3">
-        <v>43700</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
         <v>39500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39400</v>
       </c>
-      <c r="F42" s="3">
-        <v>96800</v>
-      </c>
       <c r="G42" s="3">
+        <v>96700</v>
+      </c>
+      <c r="H42" s="3">
         <v>10500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>107400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>42900</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1803,45 +1892,51 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E43" s="3">
         <v>6000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,89 +1970,98 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37100</v>
       </c>
-      <c r="G45" s="3">
-        <v>309300</v>
-      </c>
       <c r="H45" s="3">
+        <v>309200</v>
+      </c>
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>664000</v>
+        <v>381800</v>
       </c>
       <c r="E46" s="3">
-        <v>252700</v>
+        <v>663800</v>
       </c>
       <c r="F46" s="3">
-        <v>557400</v>
+        <v>252600</v>
       </c>
       <c r="G46" s="3">
-        <v>365400</v>
+        <v>557200</v>
       </c>
       <c r="H46" s="3">
-        <v>196800</v>
+        <v>365300</v>
       </c>
       <c r="I46" s="3">
-        <v>101200</v>
+        <v>196700</v>
       </c>
       <c r="J46" s="3">
+        <v>101100</v>
+      </c>
+      <c r="K46" s="3">
         <v>99000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>80600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>54100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -1965,63 +2069,69 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>400</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
       </c>
       <c r="L47" s="3">
+        <v>400</v>
+      </c>
+      <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4599500</v>
+        <v>6257200</v>
       </c>
       <c r="E48" s="3">
-        <v>3501300</v>
+        <v>4597700</v>
       </c>
       <c r="F48" s="3">
-        <v>2689400</v>
+        <v>3500000</v>
       </c>
       <c r="G48" s="3">
-        <v>2146700</v>
+        <v>2688300</v>
       </c>
       <c r="H48" s="3">
-        <v>2083400</v>
+        <v>2145900</v>
       </c>
       <c r="I48" s="3">
-        <v>2036100</v>
+        <v>2082600</v>
       </c>
       <c r="J48" s="3">
+        <v>2035300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1815100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1812000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2321200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>515800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2055,9 +2165,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E52" s="3">
         <v>33300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5297100</v>
+        <v>6722600</v>
       </c>
       <c r="E54" s="3">
-        <v>3771300</v>
+        <v>5295000</v>
       </c>
       <c r="F54" s="3">
-        <v>3288400</v>
+        <v>3769900</v>
       </c>
       <c r="G54" s="3">
-        <v>2517200</v>
+        <v>3287100</v>
       </c>
       <c r="H54" s="3">
-        <v>2285800</v>
+        <v>2516200</v>
       </c>
       <c r="I54" s="3">
-        <v>2144600</v>
+        <v>2284900</v>
       </c>
       <c r="J54" s="3">
+        <v>2143800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1921600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1900400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1510900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>956800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>7800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3600</v>
       </c>
       <c r="J57" s="3">
         <v>3600</v>
       </c>
       <c r="K57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>196800</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>196700</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
-        <v>25600</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>31600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>49800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>40900</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>89000</v>
+        <v>124400</v>
       </c>
       <c r="E59" s="3">
+        <v>88900</v>
+      </c>
+      <c r="F59" s="3">
         <v>60900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>62200</v>
       </c>
-      <c r="G59" s="3">
-        <v>60900</v>
-      </c>
       <c r="H59" s="3">
-        <v>41500</v>
+        <v>60800</v>
       </c>
       <c r="I59" s="3">
+        <v>41400</v>
+      </c>
+      <c r="J59" s="3">
         <v>45800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>57600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>293500</v>
+        <v>129000</v>
       </c>
       <c r="E60" s="3">
+        <v>293400</v>
+      </c>
+      <c r="F60" s="3">
         <v>66800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66400</v>
       </c>
-      <c r="G60" s="3">
-        <v>90900</v>
-      </c>
       <c r="H60" s="3">
+        <v>90800</v>
+      </c>
+      <c r="I60" s="3">
         <v>45900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>101200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>82200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1539600</v>
+        <v>1928500</v>
       </c>
       <c r="E61" s="3">
-        <v>957300</v>
+        <v>1539000</v>
       </c>
       <c r="F61" s="3">
-        <v>940800</v>
+        <v>956900</v>
       </c>
       <c r="G61" s="3">
-        <v>508200</v>
+        <v>940400</v>
       </c>
       <c r="H61" s="3">
-        <v>507700</v>
+        <v>508000</v>
       </c>
       <c r="I61" s="3">
-        <v>411200</v>
+        <v>507500</v>
       </c>
       <c r="J61" s="3">
+        <v>411000</v>
+      </c>
+      <c r="K61" s="3">
         <v>402200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>387900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>198400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>202200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>384800</v>
+        <v>489100</v>
       </c>
       <c r="E62" s="3">
-        <v>275800</v>
+        <v>384600</v>
       </c>
       <c r="F62" s="3">
-        <v>320900</v>
+        <v>275700</v>
       </c>
       <c r="G62" s="3">
+        <v>320700</v>
+      </c>
+      <c r="H62" s="3">
         <v>239800</v>
       </c>
-      <c r="H62" s="3">
-        <v>201500</v>
-      </c>
       <c r="I62" s="3">
-        <v>193200</v>
+        <v>201400</v>
       </c>
       <c r="J62" s="3">
+        <v>193100</v>
+      </c>
+      <c r="K62" s="3">
         <v>133700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>139600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>143000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2219700</v>
+        <v>2548900</v>
       </c>
       <c r="E66" s="3">
-        <v>1301500</v>
+        <v>2218800</v>
       </c>
       <c r="F66" s="3">
-        <v>1329300</v>
+        <v>1301000</v>
       </c>
       <c r="G66" s="3">
-        <v>839900</v>
+        <v>1328800</v>
       </c>
       <c r="H66" s="3">
-        <v>756300</v>
+        <v>839500</v>
       </c>
       <c r="I66" s="3">
-        <v>693000</v>
+        <v>756000</v>
       </c>
       <c r="J66" s="3">
+        <v>692800</v>
+      </c>
+      <c r="K66" s="3">
         <v>642000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>613900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>370600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>258300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>495900</v>
+        <v>1372500</v>
       </c>
       <c r="E72" s="3">
-        <v>288300</v>
+        <v>495700</v>
       </c>
       <c r="F72" s="3">
+        <v>288200</v>
+      </c>
+      <c r="G72" s="3">
         <v>97700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-126100</v>
       </c>
-      <c r="H72" s="3">
-        <v>-310400</v>
-      </c>
       <c r="I72" s="3">
-        <v>-437300</v>
+        <v>-310200</v>
       </c>
       <c r="J72" s="3">
+        <v>-437200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-504100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-468600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-492900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-673300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3077500</v>
+        <v>4173800</v>
       </c>
       <c r="E76" s="3">
-        <v>2469900</v>
+        <v>3076200</v>
       </c>
       <c r="F76" s="3">
-        <v>1959100</v>
+        <v>2468900</v>
       </c>
       <c r="G76" s="3">
-        <v>1677300</v>
+        <v>1958300</v>
       </c>
       <c r="H76" s="3">
-        <v>1529400</v>
+        <v>1676700</v>
       </c>
       <c r="I76" s="3">
-        <v>1451600</v>
+        <v>1528800</v>
       </c>
       <c r="J76" s="3">
+        <v>1451000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1279600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1286500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1140300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>698500</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>337400</v>
+        <v>1028000</v>
       </c>
       <c r="E81" s="3">
-        <v>300000</v>
+        <v>337300</v>
       </c>
       <c r="F81" s="3">
-        <v>365200</v>
+        <v>299800</v>
       </c>
       <c r="G81" s="3">
-        <v>280800</v>
+        <v>365000</v>
       </c>
       <c r="H81" s="3">
-        <v>219300</v>
+        <v>280700</v>
       </c>
       <c r="I81" s="3">
-        <v>151800</v>
+        <v>219200</v>
       </c>
       <c r="J81" s="3">
+        <v>151700</v>
+      </c>
+      <c r="K81" s="3">
         <v>55100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>111600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>112700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>117100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
       </c>
       <c r="J83" s="3">
+        <v>600</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>191800</v>
+        <v>205800</v>
       </c>
       <c r="E89" s="3">
-        <v>144000</v>
+        <v>191700</v>
       </c>
       <c r="F89" s="3">
+        <v>143900</v>
+      </c>
+      <c r="G89" s="3">
         <v>123900</v>
       </c>
-      <c r="G89" s="3">
-        <v>124600</v>
-      </c>
       <c r="H89" s="3">
+        <v>124500</v>
+      </c>
+      <c r="I89" s="3">
         <v>125600</v>
       </c>
-      <c r="I89" s="3">
-        <v>125500</v>
-      </c>
       <c r="J89" s="3">
+        <v>125400</v>
+      </c>
+      <c r="K89" s="3">
         <v>72900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>98500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>86000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-51300</v>
+        <v>-22400</v>
       </c>
       <c r="E91" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-23900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-65700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-837500</v>
+        <v>-804700</v>
       </c>
       <c r="E94" s="3">
-        <v>-687800</v>
+        <v>-837200</v>
       </c>
       <c r="F94" s="3">
-        <v>75300</v>
+        <v>-687500</v>
       </c>
       <c r="G94" s="3">
-        <v>-186700</v>
+        <v>75200</v>
       </c>
       <c r="H94" s="3">
+        <v>-186600</v>
+      </c>
+      <c r="I94" s="3">
         <v>9200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-195200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-73900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-149900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-128000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-118200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-98200</v>
       </c>
-      <c r="G96" s="3">
-        <v>-96300</v>
-      </c>
       <c r="H96" s="3">
+        <v>-96200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-88800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-85000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-81000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-69500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-70600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-29000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1066300</v>
+        <v>261700</v>
       </c>
       <c r="E100" s="3">
-        <v>269700</v>
+        <v>1065800</v>
       </c>
       <c r="F100" s="3">
-        <v>254500</v>
+        <v>269600</v>
       </c>
       <c r="G100" s="3">
+        <v>254400</v>
+      </c>
+      <c r="H100" s="3">
         <v>-82600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-113000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-71200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>124800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-72200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-35300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>418100</v>
+        <v>-336500</v>
       </c>
       <c r="E102" s="3">
-        <v>-282300</v>
+        <v>418000</v>
       </c>
       <c r="F102" s="3">
-        <v>462600</v>
+        <v>-282200</v>
       </c>
       <c r="G102" s="3">
+        <v>462400</v>
+      </c>
+      <c r="H102" s="3">
         <v>-139100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>99700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>308800</v>
+        <v>301700</v>
       </c>
       <c r="E8" s="3">
-        <v>267000</v>
+        <v>260800</v>
       </c>
       <c r="F8" s="3">
-        <v>214800</v>
+        <v>209800</v>
       </c>
       <c r="G8" s="3">
-        <v>194200</v>
+        <v>189700</v>
       </c>
       <c r="H8" s="3">
-        <v>192000</v>
+        <v>187600</v>
       </c>
       <c r="I8" s="3">
-        <v>175300</v>
+        <v>171300</v>
       </c>
       <c r="J8" s="3">
-        <v>169700</v>
+        <v>165800</v>
       </c>
       <c r="K8" s="3">
         <v>162800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47700</v>
+        <v>46600</v>
       </c>
       <c r="E9" s="3">
-        <v>37000</v>
+        <v>36200</v>
       </c>
       <c r="F9" s="3">
-        <v>27800</v>
+        <v>27100</v>
       </c>
       <c r="G9" s="3">
-        <v>24300</v>
+        <v>23700</v>
       </c>
       <c r="H9" s="3">
-        <v>24600</v>
+        <v>24000</v>
       </c>
       <c r="I9" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="J9" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="K9" s="3">
         <v>5400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>261100</v>
+        <v>255000</v>
       </c>
       <c r="E10" s="3">
-        <v>230000</v>
+        <v>224700</v>
       </c>
       <c r="F10" s="3">
-        <v>187000</v>
+        <v>182700</v>
       </c>
       <c r="G10" s="3">
-        <v>169900</v>
+        <v>166000</v>
       </c>
       <c r="H10" s="3">
-        <v>167400</v>
+        <v>163600</v>
       </c>
       <c r="I10" s="3">
-        <v>169300</v>
+        <v>165400</v>
       </c>
       <c r="J10" s="3">
-        <v>164200</v>
+        <v>160400</v>
       </c>
       <c r="K10" s="3">
         <v>157400</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="H14" s="3">
         <v>600</v>
@@ -989,7 +989,7 @@
         <v>300</v>
       </c>
       <c r="I15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>109500</v>
+        <v>107000</v>
       </c>
       <c r="E17" s="3">
-        <v>86600</v>
+        <v>84600</v>
       </c>
       <c r="F17" s="3">
-        <v>70400</v>
+        <v>68700</v>
       </c>
       <c r="G17" s="3">
-        <v>62000</v>
+        <v>60600</v>
       </c>
       <c r="H17" s="3">
-        <v>66200</v>
+        <v>64700</v>
       </c>
       <c r="I17" s="3">
-        <v>43600</v>
+        <v>42600</v>
       </c>
       <c r="J17" s="3">
-        <v>42800</v>
+        <v>41800</v>
       </c>
       <c r="K17" s="3">
         <v>44500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>199300</v>
+        <v>194700</v>
       </c>
       <c r="E18" s="3">
-        <v>180400</v>
+        <v>176200</v>
       </c>
       <c r="F18" s="3">
-        <v>144400</v>
+        <v>141100</v>
       </c>
       <c r="G18" s="3">
-        <v>132200</v>
+        <v>129200</v>
       </c>
       <c r="H18" s="3">
-        <v>125800</v>
+        <v>122900</v>
       </c>
       <c r="I18" s="3">
-        <v>131700</v>
+        <v>128700</v>
       </c>
       <c r="J18" s="3">
-        <v>127000</v>
+        <v>124000</v>
       </c>
       <c r="K18" s="3">
         <v>118400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1017700</v>
+        <v>994200</v>
       </c>
       <c r="E20" s="3">
-        <v>211200</v>
+        <v>206300</v>
       </c>
       <c r="F20" s="3">
-        <v>189100</v>
+        <v>184700</v>
       </c>
       <c r="G20" s="3">
-        <v>274300</v>
+        <v>268000</v>
       </c>
       <c r="H20" s="3">
-        <v>165500</v>
+        <v>161700</v>
       </c>
       <c r="I20" s="3">
-        <v>125900</v>
+        <v>123000</v>
       </c>
       <c r="J20" s="3">
-        <v>54900</v>
+        <v>53600</v>
       </c>
       <c r="K20" s="3">
         <v>-61700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1218000</v>
+        <v>1190000</v>
       </c>
       <c r="E21" s="3">
-        <v>392500</v>
+        <v>383500</v>
       </c>
       <c r="F21" s="3">
-        <v>334200</v>
+        <v>326500</v>
       </c>
       <c r="G21" s="3">
-        <v>406700</v>
+        <v>397400</v>
       </c>
       <c r="H21" s="3">
-        <v>291500</v>
+        <v>284800</v>
       </c>
       <c r="I21" s="3">
-        <v>258200</v>
+        <v>252200</v>
       </c>
       <c r="J21" s="3">
-        <v>182400</v>
+        <v>178200</v>
       </c>
       <c r="K21" s="3">
         <v>57100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1217000</v>
+        <v>1188900</v>
       </c>
       <c r="E23" s="3">
-        <v>391600</v>
+        <v>382600</v>
       </c>
       <c r="F23" s="3">
-        <v>333500</v>
+        <v>325800</v>
       </c>
       <c r="G23" s="3">
-        <v>406500</v>
+        <v>397100</v>
       </c>
       <c r="H23" s="3">
-        <v>291300</v>
+        <v>284600</v>
       </c>
       <c r="I23" s="3">
-        <v>257600</v>
+        <v>251700</v>
       </c>
       <c r="J23" s="3">
-        <v>181800</v>
+        <v>177600</v>
       </c>
       <c r="K23" s="3">
         <v>56600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>188800</v>
+        <v>184400</v>
       </c>
       <c r="E24" s="3">
-        <v>54200</v>
+        <v>53000</v>
       </c>
       <c r="F24" s="3">
-        <v>33500</v>
+        <v>32700</v>
       </c>
       <c r="G24" s="3">
-        <v>41300</v>
+        <v>40400</v>
       </c>
       <c r="H24" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="I24" s="3">
-        <v>37400</v>
+        <v>36500</v>
       </c>
       <c r="J24" s="3">
-        <v>28400</v>
+        <v>27700</v>
       </c>
       <c r="K24" s="3">
         <v>6700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1028200</v>
+        <v>1004500</v>
       </c>
       <c r="E26" s="3">
-        <v>337400</v>
+        <v>329600</v>
       </c>
       <c r="F26" s="3">
-        <v>300000</v>
+        <v>293100</v>
       </c>
       <c r="G26" s="3">
-        <v>365200</v>
+        <v>356800</v>
       </c>
       <c r="H26" s="3">
-        <v>280700</v>
+        <v>274300</v>
       </c>
       <c r="I26" s="3">
-        <v>220300</v>
+        <v>215200</v>
       </c>
       <c r="J26" s="3">
-        <v>153400</v>
+        <v>149900</v>
       </c>
       <c r="K26" s="3">
         <v>50000</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1028000</v>
+        <v>1004300</v>
       </c>
       <c r="E27" s="3">
-        <v>337300</v>
+        <v>329500</v>
       </c>
       <c r="F27" s="3">
-        <v>299800</v>
+        <v>292900</v>
       </c>
       <c r="G27" s="3">
-        <v>365000</v>
+        <v>356600</v>
       </c>
       <c r="H27" s="3">
-        <v>280700</v>
+        <v>274200</v>
       </c>
       <c r="I27" s="3">
-        <v>219200</v>
+        <v>214100</v>
       </c>
       <c r="J27" s="3">
-        <v>151700</v>
+        <v>148200</v>
       </c>
       <c r="K27" s="3">
         <v>49800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1017700</v>
+        <v>-994200</v>
       </c>
       <c r="E32" s="3">
-        <v>-211200</v>
+        <v>-206300</v>
       </c>
       <c r="F32" s="3">
-        <v>-189100</v>
+        <v>-184700</v>
       </c>
       <c r="G32" s="3">
-        <v>-274300</v>
+        <v>-268000</v>
       </c>
       <c r="H32" s="3">
-        <v>-165500</v>
+        <v>-161700</v>
       </c>
       <c r="I32" s="3">
-        <v>-125900</v>
+        <v>-123000</v>
       </c>
       <c r="J32" s="3">
-        <v>-54900</v>
+        <v>-53600</v>
       </c>
       <c r="K32" s="3">
         <v>61700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1028000</v>
+        <v>1004300</v>
       </c>
       <c r="E33" s="3">
-        <v>337300</v>
+        <v>329500</v>
       </c>
       <c r="F33" s="3">
-        <v>299800</v>
+        <v>292900</v>
       </c>
       <c r="G33" s="3">
-        <v>365000</v>
+        <v>356600</v>
       </c>
       <c r="H33" s="3">
-        <v>280700</v>
+        <v>274200</v>
       </c>
       <c r="I33" s="3">
-        <v>219200</v>
+        <v>214100</v>
       </c>
       <c r="J33" s="3">
-        <v>151700</v>
+        <v>148200</v>
       </c>
       <c r="K33" s="3">
         <v>55100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1028000</v>
+        <v>1004300</v>
       </c>
       <c r="E35" s="3">
-        <v>337300</v>
+        <v>329500</v>
       </c>
       <c r="F35" s="3">
-        <v>299800</v>
+        <v>292900</v>
       </c>
       <c r="G35" s="3">
-        <v>365000</v>
+        <v>356600</v>
       </c>
       <c r="H35" s="3">
-        <v>280700</v>
+        <v>274200</v>
       </c>
       <c r="I35" s="3">
-        <v>219200</v>
+        <v>214100</v>
       </c>
       <c r="J35" s="3">
-        <v>151700</v>
+        <v>148200</v>
       </c>
       <c r="K35" s="3">
         <v>55100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>315400</v>
+        <v>308200</v>
       </c>
       <c r="E41" s="3">
-        <v>612900</v>
+        <v>598700</v>
       </c>
       <c r="F41" s="3">
-        <v>195000</v>
+        <v>190500</v>
       </c>
       <c r="G41" s="3">
-        <v>419800</v>
+        <v>410100</v>
       </c>
       <c r="H41" s="3">
-        <v>43600</v>
+        <v>42600</v>
       </c>
       <c r="I41" s="3">
-        <v>85900</v>
+        <v>83900</v>
       </c>
       <c r="J41" s="3">
-        <v>50600</v>
+        <v>49400</v>
       </c>
       <c r="K41" s="3">
         <v>91200</v>
@@ -1866,22 +1866,22 @@
         <v>400</v>
       </c>
       <c r="E42" s="3">
-        <v>39500</v>
+        <v>38600</v>
       </c>
       <c r="F42" s="3">
-        <v>39400</v>
+        <v>38500</v>
       </c>
       <c r="G42" s="3">
-        <v>96700</v>
+        <v>94500</v>
       </c>
       <c r="H42" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="I42" s="3">
-        <v>107400</v>
+        <v>104900</v>
       </c>
       <c r="J42" s="3">
-        <v>42900</v>
+        <v>41900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="E43" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="F43" s="3">
-        <v>15500</v>
+        <v>15200</v>
       </c>
       <c r="G43" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H43" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I43" s="3">
         <v>1100</v>
       </c>
       <c r="J43" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="K43" s="3">
         <v>2500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56400</v>
+        <v>55100</v>
       </c>
       <c r="E45" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="F45" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G45" s="3">
-        <v>37100</v>
+        <v>36200</v>
       </c>
       <c r="H45" s="3">
-        <v>309200</v>
+        <v>302100</v>
       </c>
       <c r="I45" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K45" s="3">
         <v>5200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>381800</v>
+        <v>373000</v>
       </c>
       <c r="E46" s="3">
-        <v>663800</v>
+        <v>648500</v>
       </c>
       <c r="F46" s="3">
-        <v>252600</v>
+        <v>246700</v>
       </c>
       <c r="G46" s="3">
-        <v>557200</v>
+        <v>544300</v>
       </c>
       <c r="H46" s="3">
-        <v>365300</v>
+        <v>356900</v>
       </c>
       <c r="I46" s="3">
-        <v>196700</v>
+        <v>192200</v>
       </c>
       <c r="J46" s="3">
-        <v>101100</v>
+        <v>98800</v>
       </c>
       <c r="K46" s="3">
         <v>99000</v>
@@ -2058,7 +2058,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6257200</v>
+        <v>6112900</v>
       </c>
       <c r="E48" s="3">
-        <v>4597700</v>
+        <v>4491600</v>
       </c>
       <c r="F48" s="3">
-        <v>3500000</v>
+        <v>3419200</v>
       </c>
       <c r="G48" s="3">
-        <v>2688300</v>
+        <v>2626300</v>
       </c>
       <c r="H48" s="3">
-        <v>2145900</v>
+        <v>2096400</v>
       </c>
       <c r="I48" s="3">
-        <v>2082600</v>
+        <v>2034600</v>
       </c>
       <c r="J48" s="3">
-        <v>2035300</v>
+        <v>1988300</v>
       </c>
       <c r="K48" s="3">
         <v>1815100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>75100</v>
+        <v>73400</v>
       </c>
       <c r="E52" s="3">
-        <v>33300</v>
+        <v>32500</v>
       </c>
       <c r="F52" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="G52" s="3">
-        <v>41600</v>
+        <v>40600</v>
       </c>
       <c r="H52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I52" s="3">
         <v>5000</v>
       </c>
-      <c r="I52" s="3">
-        <v>5200</v>
-      </c>
       <c r="J52" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="K52" s="3">
         <v>7100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6722600</v>
+        <v>6567600</v>
       </c>
       <c r="E54" s="3">
-        <v>5295000</v>
+        <v>5172900</v>
       </c>
       <c r="F54" s="3">
-        <v>3769900</v>
+        <v>3682900</v>
       </c>
       <c r="G54" s="3">
-        <v>3287100</v>
+        <v>3211300</v>
       </c>
       <c r="H54" s="3">
-        <v>2516200</v>
+        <v>2458200</v>
       </c>
       <c r="I54" s="3">
-        <v>2284900</v>
+        <v>2232200</v>
       </c>
       <c r="J54" s="3">
-        <v>2143800</v>
+        <v>2094300</v>
       </c>
       <c r="K54" s="3">
         <v>1921600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E57" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="F57" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="G57" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H57" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I57" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="J57" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K57" s="3">
         <v>3600</v>
@@ -2446,7 +2446,7 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>196700</v>
+        <v>192200</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -2455,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>25500</v>
+        <v>25000</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>31600</v>
+        <v>30900</v>
       </c>
       <c r="K58" s="3">
         <v>49800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>124400</v>
+        <v>121500</v>
       </c>
       <c r="E59" s="3">
-        <v>88900</v>
+        <v>86900</v>
       </c>
       <c r="F59" s="3">
-        <v>60900</v>
+        <v>59500</v>
       </c>
       <c r="G59" s="3">
-        <v>62200</v>
+        <v>60800</v>
       </c>
       <c r="H59" s="3">
-        <v>60800</v>
+        <v>59400</v>
       </c>
       <c r="I59" s="3">
-        <v>41400</v>
+        <v>40500</v>
       </c>
       <c r="J59" s="3">
-        <v>45800</v>
+        <v>44700</v>
       </c>
       <c r="K59" s="3">
         <v>47700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>129000</v>
+        <v>126000</v>
       </c>
       <c r="E60" s="3">
-        <v>293400</v>
+        <v>286700</v>
       </c>
       <c r="F60" s="3">
-        <v>66800</v>
+        <v>65200</v>
       </c>
       <c r="G60" s="3">
-        <v>66400</v>
+        <v>64900</v>
       </c>
       <c r="H60" s="3">
-        <v>90800</v>
+        <v>88700</v>
       </c>
       <c r="I60" s="3">
-        <v>45900</v>
+        <v>44800</v>
       </c>
       <c r="J60" s="3">
-        <v>81000</v>
+        <v>79100</v>
       </c>
       <c r="K60" s="3">
         <v>101200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1928500</v>
+        <v>1884000</v>
       </c>
       <c r="E61" s="3">
-        <v>1539000</v>
+        <v>1503500</v>
       </c>
       <c r="F61" s="3">
-        <v>956900</v>
+        <v>934900</v>
       </c>
       <c r="G61" s="3">
-        <v>940400</v>
+        <v>918800</v>
       </c>
       <c r="H61" s="3">
-        <v>508000</v>
+        <v>496300</v>
       </c>
       <c r="I61" s="3">
-        <v>507500</v>
+        <v>495800</v>
       </c>
       <c r="J61" s="3">
-        <v>411000</v>
+        <v>401500</v>
       </c>
       <c r="K61" s="3">
         <v>402200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>489100</v>
+        <v>477800</v>
       </c>
       <c r="E62" s="3">
-        <v>384600</v>
+        <v>375800</v>
       </c>
       <c r="F62" s="3">
-        <v>275700</v>
+        <v>269300</v>
       </c>
       <c r="G62" s="3">
-        <v>320700</v>
+        <v>313300</v>
       </c>
       <c r="H62" s="3">
-        <v>239800</v>
+        <v>234200</v>
       </c>
       <c r="I62" s="3">
-        <v>201400</v>
+        <v>196800</v>
       </c>
       <c r="J62" s="3">
-        <v>193100</v>
+        <v>188700</v>
       </c>
       <c r="K62" s="3">
         <v>133700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2548900</v>
+        <v>2490100</v>
       </c>
       <c r="E66" s="3">
-        <v>2218800</v>
+        <v>2167600</v>
       </c>
       <c r="F66" s="3">
-        <v>1301000</v>
+        <v>1270900</v>
       </c>
       <c r="G66" s="3">
-        <v>1328800</v>
+        <v>1298100</v>
       </c>
       <c r="H66" s="3">
-        <v>839500</v>
+        <v>820200</v>
       </c>
       <c r="I66" s="3">
-        <v>756000</v>
+        <v>738600</v>
       </c>
       <c r="J66" s="3">
-        <v>692800</v>
+        <v>676800</v>
       </c>
       <c r="K66" s="3">
         <v>642000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1372500</v>
+        <v>1340800</v>
       </c>
       <c r="E72" s="3">
-        <v>495700</v>
+        <v>484200</v>
       </c>
       <c r="F72" s="3">
-        <v>288200</v>
+        <v>281500</v>
       </c>
       <c r="G72" s="3">
-        <v>97700</v>
+        <v>95400</v>
       </c>
       <c r="H72" s="3">
-        <v>-126100</v>
+        <v>-123200</v>
       </c>
       <c r="I72" s="3">
-        <v>-310200</v>
+        <v>-303100</v>
       </c>
       <c r="J72" s="3">
-        <v>-437200</v>
+        <v>-427100</v>
       </c>
       <c r="K72" s="3">
         <v>-504100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4173800</v>
+        <v>4077500</v>
       </c>
       <c r="E76" s="3">
-        <v>3076200</v>
+        <v>3005300</v>
       </c>
       <c r="F76" s="3">
-        <v>2468900</v>
+        <v>2412000</v>
       </c>
       <c r="G76" s="3">
-        <v>1958300</v>
+        <v>1913200</v>
       </c>
       <c r="H76" s="3">
-        <v>1676700</v>
+        <v>1638000</v>
       </c>
       <c r="I76" s="3">
-        <v>1528800</v>
+        <v>1493600</v>
       </c>
       <c r="J76" s="3">
-        <v>1451000</v>
+        <v>1417500</v>
       </c>
       <c r="K76" s="3">
         <v>1279600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1028000</v>
+        <v>1004300</v>
       </c>
       <c r="E81" s="3">
-        <v>337300</v>
+        <v>329500</v>
       </c>
       <c r="F81" s="3">
-        <v>299800</v>
+        <v>292900</v>
       </c>
       <c r="G81" s="3">
-        <v>365000</v>
+        <v>356600</v>
       </c>
       <c r="H81" s="3">
-        <v>280700</v>
+        <v>274200</v>
       </c>
       <c r="I81" s="3">
-        <v>219200</v>
+        <v>214100</v>
       </c>
       <c r="J81" s="3">
-        <v>151700</v>
+        <v>148200</v>
       </c>
       <c r="K81" s="3">
         <v>55100</v>
@@ -3316,7 +3316,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>205800</v>
+        <v>201100</v>
       </c>
       <c r="E89" s="3">
-        <v>191700</v>
+        <v>187300</v>
       </c>
       <c r="F89" s="3">
-        <v>143900</v>
+        <v>140600</v>
       </c>
       <c r="G89" s="3">
-        <v>123900</v>
+        <v>121000</v>
       </c>
       <c r="H89" s="3">
-        <v>124500</v>
+        <v>121600</v>
       </c>
       <c r="I89" s="3">
-        <v>125600</v>
+        <v>122700</v>
       </c>
       <c r="J89" s="3">
-        <v>125400</v>
+        <v>122500</v>
       </c>
       <c r="K89" s="3">
         <v>72900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22400</v>
+        <v>-21900</v>
       </c>
       <c r="E91" s="3">
-        <v>-51200</v>
+        <v>-50100</v>
       </c>
       <c r="F91" s="3">
-        <v>-23900</v>
+        <v>-23400</v>
       </c>
       <c r="G91" s="3">
-        <v>-27100</v>
+        <v>-26500</v>
       </c>
       <c r="H91" s="3">
-        <v>-65700</v>
+        <v>-64200</v>
       </c>
       <c r="I91" s="3">
-        <v>-15300</v>
+        <v>-15000</v>
       </c>
       <c r="J91" s="3">
-        <v>-21000</v>
+        <v>-20500</v>
       </c>
       <c r="K91" s="3">
         <v>-34700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-804700</v>
+        <v>-786100</v>
       </c>
       <c r="E94" s="3">
-        <v>-837200</v>
+        <v>-817900</v>
       </c>
       <c r="F94" s="3">
-        <v>-687500</v>
+        <v>-671600</v>
       </c>
       <c r="G94" s="3">
-        <v>75200</v>
+        <v>73500</v>
       </c>
       <c r="H94" s="3">
-        <v>-186600</v>
+        <v>-182300</v>
       </c>
       <c r="I94" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="J94" s="3">
-        <v>-16300</v>
+        <v>-15900</v>
       </c>
       <c r="K94" s="3">
         <v>15800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-149900</v>
+        <v>-146500</v>
       </c>
       <c r="E96" s="3">
-        <v>-128000</v>
+        <v>-125000</v>
       </c>
       <c r="F96" s="3">
-        <v>-118200</v>
+        <v>-115500</v>
       </c>
       <c r="G96" s="3">
-        <v>-98200</v>
+        <v>-95900</v>
       </c>
       <c r="H96" s="3">
-        <v>-96200</v>
+        <v>-94000</v>
       </c>
       <c r="I96" s="3">
-        <v>-88800</v>
+        <v>-86700</v>
       </c>
       <c r="J96" s="3">
-        <v>-85000</v>
+        <v>-83000</v>
       </c>
       <c r="K96" s="3">
         <v>-81000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>261700</v>
+        <v>255700</v>
       </c>
       <c r="E100" s="3">
-        <v>1065800</v>
+        <v>1041200</v>
       </c>
       <c r="F100" s="3">
-        <v>269600</v>
+        <v>263400</v>
       </c>
       <c r="G100" s="3">
-        <v>254400</v>
+        <v>248500</v>
       </c>
       <c r="H100" s="3">
-        <v>-82600</v>
+        <v>-80700</v>
       </c>
       <c r="I100" s="3">
-        <v>-31400</v>
+        <v>-30600</v>
       </c>
       <c r="J100" s="3">
-        <v>-113000</v>
+        <v>-110400</v>
       </c>
       <c r="K100" s="3">
         <v>-71200</v>
@@ -3965,19 +3965,19 @@
         <v>-2400</v>
       </c>
       <c r="F101" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="G101" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="H101" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I101" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="J101" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="K101" s="3">
         <v>-1200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-336500</v>
+        <v>-328700</v>
       </c>
       <c r="E102" s="3">
-        <v>418000</v>
+        <v>408300</v>
       </c>
       <c r="F102" s="3">
-        <v>-282200</v>
+        <v>-275700</v>
       </c>
       <c r="G102" s="3">
-        <v>462400</v>
+        <v>451700</v>
       </c>
       <c r="H102" s="3">
-        <v>-139100</v>
+        <v>-135800</v>
       </c>
       <c r="I102" s="3">
-        <v>99700</v>
+        <v>97400</v>
       </c>
       <c r="J102" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K102" s="3">
         <v>16300</v>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>301700</v>
+        <v>304500</v>
       </c>
       <c r="E8" s="3">
-        <v>260800</v>
+        <v>263200</v>
       </c>
       <c r="F8" s="3">
-        <v>209800</v>
+        <v>211800</v>
       </c>
       <c r="G8" s="3">
-        <v>189700</v>
+        <v>191500</v>
       </c>
       <c r="H8" s="3">
-        <v>187600</v>
+        <v>189300</v>
       </c>
       <c r="I8" s="3">
-        <v>171300</v>
+        <v>172900</v>
       </c>
       <c r="J8" s="3">
-        <v>165800</v>
+        <v>167400</v>
       </c>
       <c r="K8" s="3">
         <v>162800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>46600</v>
+        <v>47100</v>
       </c>
       <c r="E9" s="3">
-        <v>36200</v>
+        <v>36500</v>
       </c>
       <c r="F9" s="3">
-        <v>27100</v>
+        <v>27400</v>
       </c>
       <c r="G9" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="H9" s="3">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I9" s="3">
         <v>5900</v>
       </c>
       <c r="J9" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K9" s="3">
         <v>5400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>255000</v>
+        <v>257400</v>
       </c>
       <c r="E10" s="3">
-        <v>224700</v>
+        <v>226700</v>
       </c>
       <c r="F10" s="3">
-        <v>182700</v>
+        <v>184400</v>
       </c>
       <c r="G10" s="3">
-        <v>166000</v>
+        <v>167500</v>
       </c>
       <c r="H10" s="3">
-        <v>163600</v>
+        <v>165100</v>
       </c>
       <c r="I10" s="3">
-        <v>165400</v>
+        <v>166900</v>
       </c>
       <c r="J10" s="3">
-        <v>160400</v>
+        <v>161900</v>
       </c>
       <c r="K10" s="3">
         <v>157400</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H14" s="3">
         <v>600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>107000</v>
+        <v>108000</v>
       </c>
       <c r="E17" s="3">
-        <v>84600</v>
+        <v>85400</v>
       </c>
       <c r="F17" s="3">
-        <v>68700</v>
+        <v>69400</v>
       </c>
       <c r="G17" s="3">
-        <v>60600</v>
+        <v>61100</v>
       </c>
       <c r="H17" s="3">
-        <v>64700</v>
+        <v>65300</v>
       </c>
       <c r="I17" s="3">
-        <v>42600</v>
+        <v>43000</v>
       </c>
       <c r="J17" s="3">
-        <v>41800</v>
+        <v>42200</v>
       </c>
       <c r="K17" s="3">
         <v>44500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>194700</v>
+        <v>196500</v>
       </c>
       <c r="E18" s="3">
-        <v>176200</v>
+        <v>177900</v>
       </c>
       <c r="F18" s="3">
-        <v>141100</v>
+        <v>142400</v>
       </c>
       <c r="G18" s="3">
-        <v>129200</v>
+        <v>130400</v>
       </c>
       <c r="H18" s="3">
-        <v>122900</v>
+        <v>124000</v>
       </c>
       <c r="I18" s="3">
-        <v>128700</v>
+        <v>129900</v>
       </c>
       <c r="J18" s="3">
-        <v>124000</v>
+        <v>125200</v>
       </c>
       <c r="K18" s="3">
         <v>118400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>994200</v>
+        <v>1003500</v>
       </c>
       <c r="E20" s="3">
-        <v>206300</v>
+        <v>208200</v>
       </c>
       <c r="F20" s="3">
-        <v>184700</v>
+        <v>186400</v>
       </c>
       <c r="G20" s="3">
-        <v>268000</v>
+        <v>270400</v>
       </c>
       <c r="H20" s="3">
-        <v>161700</v>
+        <v>163100</v>
       </c>
       <c r="I20" s="3">
-        <v>123000</v>
+        <v>124100</v>
       </c>
       <c r="J20" s="3">
-        <v>53600</v>
+        <v>54100</v>
       </c>
       <c r="K20" s="3">
         <v>-61700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1190000</v>
+        <v>1201000</v>
       </c>
       <c r="E21" s="3">
-        <v>383500</v>
+        <v>387000</v>
       </c>
       <c r="F21" s="3">
-        <v>326500</v>
+        <v>329500</v>
       </c>
       <c r="G21" s="3">
-        <v>397400</v>
+        <v>401000</v>
       </c>
       <c r="H21" s="3">
-        <v>284800</v>
+        <v>287400</v>
       </c>
       <c r="I21" s="3">
-        <v>252200</v>
+        <v>254600</v>
       </c>
       <c r="J21" s="3">
-        <v>178200</v>
+        <v>179800</v>
       </c>
       <c r="K21" s="3">
         <v>57100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1188900</v>
+        <v>1200000</v>
       </c>
       <c r="E23" s="3">
-        <v>382600</v>
+        <v>386100</v>
       </c>
       <c r="F23" s="3">
-        <v>325800</v>
+        <v>328800</v>
       </c>
       <c r="G23" s="3">
-        <v>397100</v>
+        <v>400800</v>
       </c>
       <c r="H23" s="3">
-        <v>284600</v>
+        <v>287200</v>
       </c>
       <c r="I23" s="3">
-        <v>251700</v>
+        <v>254000</v>
       </c>
       <c r="J23" s="3">
-        <v>177600</v>
+        <v>179300</v>
       </c>
       <c r="K23" s="3">
         <v>56600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>184400</v>
+        <v>186100</v>
       </c>
       <c r="E24" s="3">
-        <v>53000</v>
+        <v>53500</v>
       </c>
       <c r="F24" s="3">
-        <v>32700</v>
+        <v>33000</v>
       </c>
       <c r="G24" s="3">
-        <v>40400</v>
+        <v>40700</v>
       </c>
       <c r="H24" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I24" s="3">
-        <v>36500</v>
+        <v>36800</v>
       </c>
       <c r="J24" s="3">
-        <v>27700</v>
+        <v>28000</v>
       </c>
       <c r="K24" s="3">
         <v>6700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1004500</v>
+        <v>1013800</v>
       </c>
       <c r="E26" s="3">
-        <v>329600</v>
+        <v>332700</v>
       </c>
       <c r="F26" s="3">
-        <v>293100</v>
+        <v>295800</v>
       </c>
       <c r="G26" s="3">
-        <v>356800</v>
+        <v>360100</v>
       </c>
       <c r="H26" s="3">
-        <v>274300</v>
+        <v>276800</v>
       </c>
       <c r="I26" s="3">
-        <v>215200</v>
+        <v>217200</v>
       </c>
       <c r="J26" s="3">
-        <v>149900</v>
+        <v>151300</v>
       </c>
       <c r="K26" s="3">
         <v>50000</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1004300</v>
+        <v>1013600</v>
       </c>
       <c r="E27" s="3">
-        <v>329500</v>
+        <v>332600</v>
       </c>
       <c r="F27" s="3">
-        <v>292900</v>
+        <v>295600</v>
       </c>
       <c r="G27" s="3">
-        <v>356600</v>
+        <v>359900</v>
       </c>
       <c r="H27" s="3">
-        <v>274200</v>
+        <v>276800</v>
       </c>
       <c r="I27" s="3">
-        <v>214100</v>
+        <v>216100</v>
       </c>
       <c r="J27" s="3">
-        <v>148200</v>
+        <v>149600</v>
       </c>
       <c r="K27" s="3">
         <v>49800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-994200</v>
+        <v>-1003500</v>
       </c>
       <c r="E32" s="3">
-        <v>-206300</v>
+        <v>-208200</v>
       </c>
       <c r="F32" s="3">
-        <v>-184700</v>
+        <v>-186400</v>
       </c>
       <c r="G32" s="3">
-        <v>-268000</v>
+        <v>-270400</v>
       </c>
       <c r="H32" s="3">
-        <v>-161700</v>
+        <v>-163100</v>
       </c>
       <c r="I32" s="3">
-        <v>-123000</v>
+        <v>-124100</v>
       </c>
       <c r="J32" s="3">
-        <v>-53600</v>
+        <v>-54100</v>
       </c>
       <c r="K32" s="3">
         <v>61700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1004300</v>
+        <v>1013600</v>
       </c>
       <c r="E33" s="3">
-        <v>329500</v>
+        <v>332600</v>
       </c>
       <c r="F33" s="3">
-        <v>292900</v>
+        <v>295600</v>
       </c>
       <c r="G33" s="3">
-        <v>356600</v>
+        <v>359900</v>
       </c>
       <c r="H33" s="3">
-        <v>274200</v>
+        <v>276800</v>
       </c>
       <c r="I33" s="3">
-        <v>214100</v>
+        <v>216100</v>
       </c>
       <c r="J33" s="3">
-        <v>148200</v>
+        <v>149600</v>
       </c>
       <c r="K33" s="3">
         <v>55100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1004300</v>
+        <v>1013600</v>
       </c>
       <c r="E35" s="3">
-        <v>329500</v>
+        <v>332600</v>
       </c>
       <c r="F35" s="3">
-        <v>292900</v>
+        <v>295600</v>
       </c>
       <c r="G35" s="3">
-        <v>356600</v>
+        <v>359900</v>
       </c>
       <c r="H35" s="3">
-        <v>274200</v>
+        <v>276800</v>
       </c>
       <c r="I35" s="3">
-        <v>214100</v>
+        <v>216100</v>
       </c>
       <c r="J35" s="3">
-        <v>148200</v>
+        <v>149600</v>
       </c>
       <c r="K35" s="3">
         <v>55100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>308200</v>
+        <v>311000</v>
       </c>
       <c r="E41" s="3">
-        <v>598700</v>
+        <v>604300</v>
       </c>
       <c r="F41" s="3">
-        <v>190500</v>
+        <v>192300</v>
       </c>
       <c r="G41" s="3">
-        <v>410100</v>
+        <v>413900</v>
       </c>
       <c r="H41" s="3">
-        <v>42600</v>
+        <v>43000</v>
       </c>
       <c r="I41" s="3">
-        <v>83900</v>
+        <v>84700</v>
       </c>
       <c r="J41" s="3">
-        <v>49400</v>
+        <v>49900</v>
       </c>
       <c r="K41" s="3">
         <v>91200</v>
@@ -1866,22 +1866,22 @@
         <v>400</v>
       </c>
       <c r="E42" s="3">
-        <v>38600</v>
+        <v>38900</v>
       </c>
       <c r="F42" s="3">
-        <v>38500</v>
+        <v>38800</v>
       </c>
       <c r="G42" s="3">
-        <v>94500</v>
+        <v>95400</v>
       </c>
       <c r="H42" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I42" s="3">
-        <v>104900</v>
+        <v>105800</v>
       </c>
       <c r="J42" s="3">
-        <v>41900</v>
+        <v>42300</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1908,7 +1908,7 @@
         <v>5900</v>
       </c>
       <c r="F43" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="G43" s="3">
         <v>3500</v>
@@ -1980,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55100</v>
+        <v>55600</v>
       </c>
       <c r="E45" s="3">
         <v>5300</v>
@@ -1989,16 +1989,16 @@
         <v>2600</v>
       </c>
       <c r="G45" s="3">
-        <v>36200</v>
+        <v>36500</v>
       </c>
       <c r="H45" s="3">
-        <v>302100</v>
+        <v>304900</v>
       </c>
       <c r="I45" s="3">
         <v>2300</v>
       </c>
       <c r="J45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K45" s="3">
         <v>5200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>373000</v>
+        <v>376500</v>
       </c>
       <c r="E46" s="3">
-        <v>648500</v>
+        <v>654500</v>
       </c>
       <c r="F46" s="3">
-        <v>246700</v>
+        <v>249000</v>
       </c>
       <c r="G46" s="3">
-        <v>544300</v>
+        <v>549400</v>
       </c>
       <c r="H46" s="3">
-        <v>356900</v>
+        <v>360200</v>
       </c>
       <c r="I46" s="3">
-        <v>192200</v>
+        <v>193900</v>
       </c>
       <c r="J46" s="3">
-        <v>98800</v>
+        <v>99700</v>
       </c>
       <c r="K46" s="3">
         <v>99000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6112900</v>
+        <v>6169600</v>
       </c>
       <c r="E48" s="3">
-        <v>4491600</v>
+        <v>4533300</v>
       </c>
       <c r="F48" s="3">
-        <v>3419200</v>
+        <v>3450900</v>
       </c>
       <c r="G48" s="3">
-        <v>2626300</v>
+        <v>2650700</v>
       </c>
       <c r="H48" s="3">
-        <v>2096400</v>
+        <v>2115800</v>
       </c>
       <c r="I48" s="3">
-        <v>2034600</v>
+        <v>2053400</v>
       </c>
       <c r="J48" s="3">
-        <v>1988300</v>
+        <v>2006800</v>
       </c>
       <c r="K48" s="3">
         <v>1815100</v>
@@ -2253,22 +2253,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73400</v>
+        <v>74100</v>
       </c>
       <c r="E52" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="F52" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="G52" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="H52" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I52" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J52" s="3">
         <v>6800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6567600</v>
+        <v>6628500</v>
       </c>
       <c r="E54" s="3">
-        <v>5172900</v>
+        <v>5220900</v>
       </c>
       <c r="F54" s="3">
-        <v>3682900</v>
+        <v>3717100</v>
       </c>
       <c r="G54" s="3">
-        <v>3211300</v>
+        <v>3241000</v>
       </c>
       <c r="H54" s="3">
-        <v>2458200</v>
+        <v>2481000</v>
       </c>
       <c r="I54" s="3">
-        <v>2232200</v>
+        <v>2252900</v>
       </c>
       <c r="J54" s="3">
-        <v>2094300</v>
+        <v>2113800</v>
       </c>
       <c r="K54" s="3">
         <v>1921600</v>
@@ -2404,13 +2404,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E57" s="3">
         <v>7600</v>
       </c>
       <c r="F57" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="G57" s="3">
         <v>4100</v>
@@ -2419,10 +2419,10 @@
         <v>4400</v>
       </c>
       <c r="I57" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J57" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K57" s="3">
         <v>3600</v>
@@ -2446,7 +2446,7 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>192200</v>
+        <v>194000</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -2455,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>25000</v>
+        <v>25200</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>30900</v>
+        <v>31100</v>
       </c>
       <c r="K58" s="3">
         <v>49800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>121500</v>
+        <v>122600</v>
       </c>
       <c r="E59" s="3">
-        <v>86900</v>
+        <v>87700</v>
       </c>
       <c r="F59" s="3">
-        <v>59500</v>
+        <v>60100</v>
       </c>
       <c r="G59" s="3">
-        <v>60800</v>
+        <v>61300</v>
       </c>
       <c r="H59" s="3">
-        <v>59400</v>
+        <v>60000</v>
       </c>
       <c r="I59" s="3">
-        <v>40500</v>
+        <v>40900</v>
       </c>
       <c r="J59" s="3">
-        <v>44700</v>
+        <v>45100</v>
       </c>
       <c r="K59" s="3">
         <v>47700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>126000</v>
+        <v>127200</v>
       </c>
       <c r="E60" s="3">
-        <v>286700</v>
+        <v>289300</v>
       </c>
       <c r="F60" s="3">
-        <v>65200</v>
+        <v>65800</v>
       </c>
       <c r="G60" s="3">
-        <v>64900</v>
+        <v>65500</v>
       </c>
       <c r="H60" s="3">
-        <v>88700</v>
+        <v>89600</v>
       </c>
       <c r="I60" s="3">
-        <v>44800</v>
+        <v>45200</v>
       </c>
       <c r="J60" s="3">
-        <v>79100</v>
+        <v>79800</v>
       </c>
       <c r="K60" s="3">
         <v>101200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1884000</v>
+        <v>1901500</v>
       </c>
       <c r="E61" s="3">
-        <v>1503500</v>
+        <v>1517500</v>
       </c>
       <c r="F61" s="3">
-        <v>934900</v>
+        <v>943500</v>
       </c>
       <c r="G61" s="3">
-        <v>918800</v>
+        <v>927300</v>
       </c>
       <c r="H61" s="3">
-        <v>496300</v>
+        <v>500900</v>
       </c>
       <c r="I61" s="3">
-        <v>495800</v>
+        <v>500400</v>
       </c>
       <c r="J61" s="3">
-        <v>401500</v>
+        <v>405300</v>
       </c>
       <c r="K61" s="3">
         <v>402200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>477800</v>
+        <v>482300</v>
       </c>
       <c r="E62" s="3">
-        <v>375800</v>
+        <v>379300</v>
       </c>
       <c r="F62" s="3">
-        <v>269300</v>
+        <v>271800</v>
       </c>
       <c r="G62" s="3">
-        <v>313300</v>
+        <v>316200</v>
       </c>
       <c r="H62" s="3">
-        <v>234200</v>
+        <v>236400</v>
       </c>
       <c r="I62" s="3">
-        <v>196800</v>
+        <v>198600</v>
       </c>
       <c r="J62" s="3">
-        <v>188700</v>
+        <v>190400</v>
       </c>
       <c r="K62" s="3">
         <v>133700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2490100</v>
+        <v>2513200</v>
       </c>
       <c r="E66" s="3">
-        <v>2167600</v>
+        <v>2187700</v>
       </c>
       <c r="F66" s="3">
-        <v>1270900</v>
+        <v>1282700</v>
       </c>
       <c r="G66" s="3">
-        <v>1298100</v>
+        <v>1310100</v>
       </c>
       <c r="H66" s="3">
-        <v>820200</v>
+        <v>827800</v>
       </c>
       <c r="I66" s="3">
-        <v>738600</v>
+        <v>745500</v>
       </c>
       <c r="J66" s="3">
-        <v>676800</v>
+        <v>683100</v>
       </c>
       <c r="K66" s="3">
         <v>642000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1340800</v>
+        <v>1353300</v>
       </c>
       <c r="E72" s="3">
-        <v>484200</v>
+        <v>488700</v>
       </c>
       <c r="F72" s="3">
-        <v>281500</v>
+        <v>284200</v>
       </c>
       <c r="G72" s="3">
-        <v>95400</v>
+        <v>96300</v>
       </c>
       <c r="H72" s="3">
-        <v>-123200</v>
+        <v>-124300</v>
       </c>
       <c r="I72" s="3">
-        <v>-303100</v>
+        <v>-305900</v>
       </c>
       <c r="J72" s="3">
-        <v>-427100</v>
+        <v>-431000</v>
       </c>
       <c r="K72" s="3">
         <v>-504100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4077500</v>
+        <v>4115300</v>
       </c>
       <c r="E76" s="3">
-        <v>3005300</v>
+        <v>3033200</v>
       </c>
       <c r="F76" s="3">
-        <v>2412000</v>
+        <v>2434300</v>
       </c>
       <c r="G76" s="3">
-        <v>1913200</v>
+        <v>1930900</v>
       </c>
       <c r="H76" s="3">
-        <v>1638000</v>
+        <v>1653200</v>
       </c>
       <c r="I76" s="3">
-        <v>1493600</v>
+        <v>1507400</v>
       </c>
       <c r="J76" s="3">
-        <v>1417500</v>
+        <v>1430700</v>
       </c>
       <c r="K76" s="3">
         <v>1279600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1004300</v>
+        <v>1013600</v>
       </c>
       <c r="E81" s="3">
-        <v>329500</v>
+        <v>332600</v>
       </c>
       <c r="F81" s="3">
-        <v>292900</v>
+        <v>295600</v>
       </c>
       <c r="G81" s="3">
-        <v>356600</v>
+        <v>359900</v>
       </c>
       <c r="H81" s="3">
-        <v>274200</v>
+        <v>276800</v>
       </c>
       <c r="I81" s="3">
-        <v>214100</v>
+        <v>216100</v>
       </c>
       <c r="J81" s="3">
-        <v>148200</v>
+        <v>149600</v>
       </c>
       <c r="K81" s="3">
         <v>55100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>201100</v>
+        <v>202900</v>
       </c>
       <c r="E89" s="3">
-        <v>187300</v>
+        <v>189000</v>
       </c>
       <c r="F89" s="3">
-        <v>140600</v>
+        <v>141900</v>
       </c>
       <c r="G89" s="3">
-        <v>121000</v>
+        <v>122200</v>
       </c>
       <c r="H89" s="3">
-        <v>121600</v>
+        <v>122800</v>
       </c>
       <c r="I89" s="3">
-        <v>122700</v>
+        <v>123800</v>
       </c>
       <c r="J89" s="3">
-        <v>122500</v>
+        <v>123700</v>
       </c>
       <c r="K89" s="3">
         <v>72900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21900</v>
+        <v>-22100</v>
       </c>
       <c r="E91" s="3">
-        <v>-50100</v>
+        <v>-50500</v>
       </c>
       <c r="F91" s="3">
-        <v>-23400</v>
+        <v>-23600</v>
       </c>
       <c r="G91" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="H91" s="3">
-        <v>-64200</v>
+        <v>-64800</v>
       </c>
       <c r="I91" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="J91" s="3">
-        <v>-20500</v>
+        <v>-20700</v>
       </c>
       <c r="K91" s="3">
         <v>-34700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-786100</v>
+        <v>-793400</v>
       </c>
       <c r="E94" s="3">
-        <v>-817900</v>
+        <v>-825500</v>
       </c>
       <c r="F94" s="3">
-        <v>-671600</v>
+        <v>-677900</v>
       </c>
       <c r="G94" s="3">
-        <v>73500</v>
+        <v>74200</v>
       </c>
       <c r="H94" s="3">
-        <v>-182300</v>
+        <v>-184000</v>
       </c>
       <c r="I94" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="J94" s="3">
-        <v>-15900</v>
+        <v>-16100</v>
       </c>
       <c r="K94" s="3">
         <v>15800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-146500</v>
+        <v>-147800</v>
       </c>
       <c r="E96" s="3">
-        <v>-125000</v>
+        <v>-126200</v>
       </c>
       <c r="F96" s="3">
-        <v>-115500</v>
+        <v>-116500</v>
       </c>
       <c r="G96" s="3">
-        <v>-95900</v>
+        <v>-96800</v>
       </c>
       <c r="H96" s="3">
-        <v>-94000</v>
+        <v>-94900</v>
       </c>
       <c r="I96" s="3">
-        <v>-86700</v>
+        <v>-87500</v>
       </c>
       <c r="J96" s="3">
-        <v>-83000</v>
+        <v>-83800</v>
       </c>
       <c r="K96" s="3">
         <v>-81000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>255700</v>
+        <v>258000</v>
       </c>
       <c r="E100" s="3">
-        <v>1041200</v>
+        <v>1050900</v>
       </c>
       <c r="F100" s="3">
-        <v>263400</v>
+        <v>265800</v>
       </c>
       <c r="G100" s="3">
-        <v>248500</v>
+        <v>250800</v>
       </c>
       <c r="H100" s="3">
-        <v>-80700</v>
+        <v>-81400</v>
       </c>
       <c r="I100" s="3">
-        <v>-30600</v>
+        <v>-30900</v>
       </c>
       <c r="J100" s="3">
-        <v>-110400</v>
+        <v>-111400</v>
       </c>
       <c r="K100" s="3">
         <v>-71200</v>
@@ -3965,19 +3965,19 @@
         <v>-2400</v>
       </c>
       <c r="F101" s="3">
-        <v>-8000</v>
+        <v>-8100</v>
       </c>
       <c r="G101" s="3">
         <v>8700</v>
       </c>
       <c r="H101" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I101" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J101" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K101" s="3">
         <v>-1200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-328700</v>
+        <v>-331800</v>
       </c>
       <c r="E102" s="3">
-        <v>408300</v>
+        <v>412100</v>
       </c>
       <c r="F102" s="3">
-        <v>-275700</v>
+        <v>-278200</v>
       </c>
       <c r="G102" s="3">
-        <v>451700</v>
+        <v>455900</v>
       </c>
       <c r="H102" s="3">
-        <v>-135800</v>
+        <v>-137100</v>
       </c>
       <c r="I102" s="3">
-        <v>97400</v>
+        <v>98300</v>
       </c>
       <c r="J102" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K102" s="3">
         <v>16300</v>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>304500</v>
+        <v>295500</v>
       </c>
       <c r="E8" s="3">
-        <v>263200</v>
+        <v>255400</v>
       </c>
       <c r="F8" s="3">
-        <v>211800</v>
+        <v>205500</v>
       </c>
       <c r="G8" s="3">
-        <v>191500</v>
+        <v>185800</v>
       </c>
       <c r="H8" s="3">
-        <v>189300</v>
+        <v>183700</v>
       </c>
       <c r="I8" s="3">
-        <v>172900</v>
+        <v>167700</v>
       </c>
       <c r="J8" s="3">
-        <v>167400</v>
+        <v>162400</v>
       </c>
       <c r="K8" s="3">
         <v>162800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47100</v>
+        <v>45700</v>
       </c>
       <c r="E9" s="3">
-        <v>36500</v>
+        <v>35400</v>
       </c>
       <c r="F9" s="3">
-        <v>27400</v>
+        <v>26600</v>
       </c>
       <c r="G9" s="3">
-        <v>23900</v>
+        <v>23200</v>
       </c>
       <c r="H9" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="I9" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="J9" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="K9" s="3">
         <v>5400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>257400</v>
+        <v>249800</v>
       </c>
       <c r="E10" s="3">
-        <v>226700</v>
+        <v>220000</v>
       </c>
       <c r="F10" s="3">
-        <v>184400</v>
+        <v>178900</v>
       </c>
       <c r="G10" s="3">
-        <v>167500</v>
+        <v>162600</v>
       </c>
       <c r="H10" s="3">
-        <v>165100</v>
+        <v>160200</v>
       </c>
       <c r="I10" s="3">
-        <v>166900</v>
+        <v>162000</v>
       </c>
       <c r="J10" s="3">
-        <v>161900</v>
+        <v>157100</v>
       </c>
       <c r="K10" s="3">
         <v>157400</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -992,7 +992,7 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>108000</v>
+        <v>104800</v>
       </c>
       <c r="E17" s="3">
-        <v>85400</v>
+        <v>82800</v>
       </c>
       <c r="F17" s="3">
-        <v>69400</v>
+        <v>67300</v>
       </c>
       <c r="G17" s="3">
-        <v>61100</v>
+        <v>59300</v>
       </c>
       <c r="H17" s="3">
-        <v>65300</v>
+        <v>63400</v>
       </c>
       <c r="I17" s="3">
-        <v>43000</v>
+        <v>41700</v>
       </c>
       <c r="J17" s="3">
-        <v>42200</v>
+        <v>40900</v>
       </c>
       <c r="K17" s="3">
         <v>44500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>196500</v>
+        <v>190700</v>
       </c>
       <c r="E18" s="3">
-        <v>177900</v>
+        <v>172600</v>
       </c>
       <c r="F18" s="3">
-        <v>142400</v>
+        <v>138200</v>
       </c>
       <c r="G18" s="3">
-        <v>130400</v>
+        <v>126500</v>
       </c>
       <c r="H18" s="3">
-        <v>124000</v>
+        <v>120400</v>
       </c>
       <c r="I18" s="3">
-        <v>129900</v>
+        <v>126100</v>
       </c>
       <c r="J18" s="3">
-        <v>125200</v>
+        <v>121500</v>
       </c>
       <c r="K18" s="3">
         <v>118400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1003500</v>
+        <v>973800</v>
       </c>
       <c r="E20" s="3">
-        <v>208200</v>
+        <v>202100</v>
       </c>
       <c r="F20" s="3">
-        <v>186400</v>
+        <v>180900</v>
       </c>
       <c r="G20" s="3">
-        <v>270400</v>
+        <v>262400</v>
       </c>
       <c r="H20" s="3">
-        <v>163100</v>
+        <v>158300</v>
       </c>
       <c r="I20" s="3">
-        <v>124100</v>
+        <v>120500</v>
       </c>
       <c r="J20" s="3">
-        <v>54100</v>
+        <v>52500</v>
       </c>
       <c r="K20" s="3">
         <v>-61700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1201000</v>
+        <v>1165400</v>
       </c>
       <c r="E21" s="3">
-        <v>387000</v>
+        <v>375500</v>
       </c>
       <c r="F21" s="3">
-        <v>329500</v>
+        <v>319700</v>
       </c>
       <c r="G21" s="3">
-        <v>401000</v>
+        <v>389200</v>
       </c>
       <c r="H21" s="3">
-        <v>287400</v>
+        <v>278900</v>
       </c>
       <c r="I21" s="3">
-        <v>254600</v>
+        <v>247000</v>
       </c>
       <c r="J21" s="3">
-        <v>179800</v>
+        <v>174500</v>
       </c>
       <c r="K21" s="3">
         <v>57100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1200000</v>
+        <v>1164500</v>
       </c>
       <c r="E23" s="3">
-        <v>386100</v>
+        <v>374700</v>
       </c>
       <c r="F23" s="3">
-        <v>328800</v>
+        <v>319100</v>
       </c>
       <c r="G23" s="3">
-        <v>400800</v>
+        <v>389000</v>
       </c>
       <c r="H23" s="3">
-        <v>287200</v>
+        <v>278700</v>
       </c>
       <c r="I23" s="3">
-        <v>254000</v>
+        <v>246500</v>
       </c>
       <c r="J23" s="3">
-        <v>179300</v>
+        <v>174000</v>
       </c>
       <c r="K23" s="3">
         <v>56600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>186100</v>
+        <v>180600</v>
       </c>
       <c r="E24" s="3">
-        <v>53500</v>
+        <v>51900</v>
       </c>
       <c r="F24" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="G24" s="3">
-        <v>40700</v>
+        <v>39500</v>
       </c>
       <c r="H24" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="I24" s="3">
-        <v>36800</v>
+        <v>35800</v>
       </c>
       <c r="J24" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="K24" s="3">
         <v>6700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1013800</v>
+        <v>983800</v>
       </c>
       <c r="E26" s="3">
-        <v>332700</v>
+        <v>322800</v>
       </c>
       <c r="F26" s="3">
-        <v>295800</v>
+        <v>287000</v>
       </c>
       <c r="G26" s="3">
-        <v>360100</v>
+        <v>349400</v>
       </c>
       <c r="H26" s="3">
-        <v>276800</v>
+        <v>268600</v>
       </c>
       <c r="I26" s="3">
-        <v>217200</v>
+        <v>210800</v>
       </c>
       <c r="J26" s="3">
-        <v>151300</v>
+        <v>146800</v>
       </c>
       <c r="K26" s="3">
         <v>50000</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1013600</v>
+        <v>983600</v>
       </c>
       <c r="E27" s="3">
-        <v>332600</v>
+        <v>322700</v>
       </c>
       <c r="F27" s="3">
-        <v>295600</v>
+        <v>286900</v>
       </c>
       <c r="G27" s="3">
-        <v>359900</v>
+        <v>349300</v>
       </c>
       <c r="H27" s="3">
-        <v>276800</v>
+        <v>268600</v>
       </c>
       <c r="I27" s="3">
-        <v>216100</v>
+        <v>209700</v>
       </c>
       <c r="J27" s="3">
-        <v>149600</v>
+        <v>145200</v>
       </c>
       <c r="K27" s="3">
         <v>49800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1003500</v>
+        <v>-973800</v>
       </c>
       <c r="E32" s="3">
-        <v>-208200</v>
+        <v>-202100</v>
       </c>
       <c r="F32" s="3">
-        <v>-186400</v>
+        <v>-180900</v>
       </c>
       <c r="G32" s="3">
-        <v>-270400</v>
+        <v>-262400</v>
       </c>
       <c r="H32" s="3">
-        <v>-163100</v>
+        <v>-158300</v>
       </c>
       <c r="I32" s="3">
-        <v>-124100</v>
+        <v>-120500</v>
       </c>
       <c r="J32" s="3">
-        <v>-54100</v>
+        <v>-52500</v>
       </c>
       <c r="K32" s="3">
         <v>61700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1013600</v>
+        <v>983600</v>
       </c>
       <c r="E33" s="3">
-        <v>332600</v>
+        <v>322700</v>
       </c>
       <c r="F33" s="3">
-        <v>295600</v>
+        <v>286900</v>
       </c>
       <c r="G33" s="3">
-        <v>359900</v>
+        <v>349300</v>
       </c>
       <c r="H33" s="3">
-        <v>276800</v>
+        <v>268600</v>
       </c>
       <c r="I33" s="3">
-        <v>216100</v>
+        <v>209700</v>
       </c>
       <c r="J33" s="3">
-        <v>149600</v>
+        <v>145200</v>
       </c>
       <c r="K33" s="3">
         <v>55100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1013600</v>
+        <v>983600</v>
       </c>
       <c r="E35" s="3">
-        <v>332600</v>
+        <v>322700</v>
       </c>
       <c r="F35" s="3">
-        <v>295600</v>
+        <v>286900</v>
       </c>
       <c r="G35" s="3">
-        <v>359900</v>
+        <v>349300</v>
       </c>
       <c r="H35" s="3">
-        <v>276800</v>
+        <v>268600</v>
       </c>
       <c r="I35" s="3">
-        <v>216100</v>
+        <v>209700</v>
       </c>
       <c r="J35" s="3">
-        <v>149600</v>
+        <v>145200</v>
       </c>
       <c r="K35" s="3">
         <v>55100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>311000</v>
+        <v>301800</v>
       </c>
       <c r="E41" s="3">
-        <v>604300</v>
+        <v>586400</v>
       </c>
       <c r="F41" s="3">
-        <v>192300</v>
+        <v>186600</v>
       </c>
       <c r="G41" s="3">
-        <v>413900</v>
+        <v>401700</v>
       </c>
       <c r="H41" s="3">
-        <v>43000</v>
+        <v>41800</v>
       </c>
       <c r="I41" s="3">
-        <v>84700</v>
+        <v>82200</v>
       </c>
       <c r="J41" s="3">
-        <v>49900</v>
+        <v>48400</v>
       </c>
       <c r="K41" s="3">
         <v>91200</v>
@@ -1866,22 +1866,22 @@
         <v>400</v>
       </c>
       <c r="E42" s="3">
-        <v>38900</v>
+        <v>37800</v>
       </c>
       <c r="F42" s="3">
-        <v>38800</v>
+        <v>37700</v>
       </c>
       <c r="G42" s="3">
-        <v>95400</v>
+        <v>92600</v>
       </c>
       <c r="H42" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="I42" s="3">
-        <v>105800</v>
+        <v>102700</v>
       </c>
       <c r="J42" s="3">
-        <v>42300</v>
+        <v>41100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1902,16 +1902,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="E43" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="F43" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="G43" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H43" s="3">
         <v>1900</v>
@@ -1920,7 +1920,7 @@
         <v>1100</v>
       </c>
       <c r="J43" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K43" s="3">
         <v>2500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55600</v>
+        <v>53900</v>
       </c>
       <c r="E45" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="F45" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G45" s="3">
-        <v>36500</v>
+        <v>35500</v>
       </c>
       <c r="H45" s="3">
-        <v>304900</v>
+        <v>295800</v>
       </c>
       <c r="I45" s="3">
         <v>2300</v>
       </c>
       <c r="J45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K45" s="3">
         <v>5200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>376500</v>
+        <v>365300</v>
       </c>
       <c r="E46" s="3">
-        <v>654500</v>
+        <v>635100</v>
       </c>
       <c r="F46" s="3">
-        <v>249000</v>
+        <v>241700</v>
       </c>
       <c r="G46" s="3">
-        <v>549400</v>
+        <v>533100</v>
       </c>
       <c r="H46" s="3">
-        <v>360200</v>
+        <v>349500</v>
       </c>
       <c r="I46" s="3">
-        <v>193900</v>
+        <v>188200</v>
       </c>
       <c r="J46" s="3">
-        <v>99700</v>
+        <v>96700</v>
       </c>
       <c r="K46" s="3">
         <v>99000</v>
@@ -2058,7 +2058,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
@@ -2076,7 +2076,7 @@
         <v>400</v>
       </c>
       <c r="J47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6169600</v>
+        <v>5987100</v>
       </c>
       <c r="E48" s="3">
-        <v>4533300</v>
+        <v>4399200</v>
       </c>
       <c r="F48" s="3">
-        <v>3450900</v>
+        <v>3348800</v>
       </c>
       <c r="G48" s="3">
-        <v>2650700</v>
+        <v>2572300</v>
       </c>
       <c r="H48" s="3">
-        <v>2115800</v>
+        <v>2053200</v>
       </c>
       <c r="I48" s="3">
-        <v>2053400</v>
+        <v>1992700</v>
       </c>
       <c r="J48" s="3">
-        <v>2006800</v>
+        <v>1947400</v>
       </c>
       <c r="K48" s="3">
         <v>1815100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>74100</v>
+        <v>71900</v>
       </c>
       <c r="E52" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="F52" s="3">
-        <v>17100</v>
+        <v>16600</v>
       </c>
       <c r="G52" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="H52" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="I52" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="J52" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="K52" s="3">
         <v>7100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6628500</v>
+        <v>6432400</v>
       </c>
       <c r="E54" s="3">
-        <v>5220900</v>
+        <v>5066400</v>
       </c>
       <c r="F54" s="3">
-        <v>3717100</v>
+        <v>3607100</v>
       </c>
       <c r="G54" s="3">
-        <v>3241000</v>
+        <v>3145200</v>
       </c>
       <c r="H54" s="3">
-        <v>2481000</v>
+        <v>2407600</v>
       </c>
       <c r="I54" s="3">
-        <v>2252900</v>
+        <v>2186200</v>
       </c>
       <c r="J54" s="3">
-        <v>2113800</v>
+        <v>2051200</v>
       </c>
       <c r="K54" s="3">
         <v>1921600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4400</v>
-      </c>
       <c r="J57" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K57" s="3">
         <v>3600</v>
@@ -2446,7 +2446,7 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>194000</v>
+        <v>188200</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -2455,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>25200</v>
+        <v>24400</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>31100</v>
+        <v>30200</v>
       </c>
       <c r="K58" s="3">
         <v>49800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122600</v>
+        <v>119000</v>
       </c>
       <c r="E59" s="3">
-        <v>87700</v>
+        <v>85100</v>
       </c>
       <c r="F59" s="3">
-        <v>60100</v>
+        <v>58300</v>
       </c>
       <c r="G59" s="3">
-        <v>61300</v>
+        <v>59500</v>
       </c>
       <c r="H59" s="3">
-        <v>60000</v>
+        <v>58200</v>
       </c>
       <c r="I59" s="3">
-        <v>40900</v>
+        <v>39700</v>
       </c>
       <c r="J59" s="3">
-        <v>45100</v>
+        <v>43800</v>
       </c>
       <c r="K59" s="3">
         <v>47700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>127200</v>
+        <v>123400</v>
       </c>
       <c r="E60" s="3">
-        <v>289300</v>
+        <v>280800</v>
       </c>
       <c r="F60" s="3">
-        <v>65800</v>
+        <v>63900</v>
       </c>
       <c r="G60" s="3">
-        <v>65500</v>
+        <v>63500</v>
       </c>
       <c r="H60" s="3">
-        <v>89600</v>
+        <v>86900</v>
       </c>
       <c r="I60" s="3">
-        <v>45200</v>
+        <v>43900</v>
       </c>
       <c r="J60" s="3">
-        <v>79800</v>
+        <v>77500</v>
       </c>
       <c r="K60" s="3">
         <v>101200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1901500</v>
+        <v>1845200</v>
       </c>
       <c r="E61" s="3">
-        <v>1517500</v>
+        <v>1472600</v>
       </c>
       <c r="F61" s="3">
-        <v>943500</v>
+        <v>915600</v>
       </c>
       <c r="G61" s="3">
-        <v>927300</v>
+        <v>899800</v>
       </c>
       <c r="H61" s="3">
-        <v>500900</v>
+        <v>486000</v>
       </c>
       <c r="I61" s="3">
-        <v>500400</v>
+        <v>485600</v>
       </c>
       <c r="J61" s="3">
-        <v>405300</v>
+        <v>393300</v>
       </c>
       <c r="K61" s="3">
         <v>402200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>482300</v>
+        <v>468000</v>
       </c>
       <c r="E62" s="3">
-        <v>379300</v>
+        <v>368000</v>
       </c>
       <c r="F62" s="3">
-        <v>271800</v>
+        <v>263800</v>
       </c>
       <c r="G62" s="3">
-        <v>316200</v>
+        <v>306900</v>
       </c>
       <c r="H62" s="3">
-        <v>236400</v>
+        <v>229400</v>
       </c>
       <c r="I62" s="3">
-        <v>198600</v>
+        <v>192700</v>
       </c>
       <c r="J62" s="3">
-        <v>190400</v>
+        <v>184800</v>
       </c>
       <c r="K62" s="3">
         <v>133700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2513200</v>
+        <v>2438800</v>
       </c>
       <c r="E66" s="3">
-        <v>2187700</v>
+        <v>2123000</v>
       </c>
       <c r="F66" s="3">
-        <v>1282700</v>
+        <v>1244800</v>
       </c>
       <c r="G66" s="3">
-        <v>1310100</v>
+        <v>1271400</v>
       </c>
       <c r="H66" s="3">
-        <v>827800</v>
+        <v>803300</v>
       </c>
       <c r="I66" s="3">
-        <v>745500</v>
+        <v>723400</v>
       </c>
       <c r="J66" s="3">
-        <v>683100</v>
+        <v>662900</v>
       </c>
       <c r="K66" s="3">
         <v>642000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1353300</v>
+        <v>1313200</v>
       </c>
       <c r="E72" s="3">
-        <v>488700</v>
+        <v>474300</v>
       </c>
       <c r="F72" s="3">
-        <v>284200</v>
+        <v>275800</v>
       </c>
       <c r="G72" s="3">
-        <v>96300</v>
+        <v>93500</v>
       </c>
       <c r="H72" s="3">
-        <v>-124300</v>
+        <v>-120700</v>
       </c>
       <c r="I72" s="3">
-        <v>-305900</v>
+        <v>-296800</v>
       </c>
       <c r="J72" s="3">
-        <v>-431000</v>
+        <v>-418300</v>
       </c>
       <c r="K72" s="3">
         <v>-504100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4115300</v>
+        <v>3993600</v>
       </c>
       <c r="E76" s="3">
-        <v>3033200</v>
+        <v>2943400</v>
       </c>
       <c r="F76" s="3">
-        <v>2434300</v>
+        <v>2362300</v>
       </c>
       <c r="G76" s="3">
-        <v>1930900</v>
+        <v>1873800</v>
       </c>
       <c r="H76" s="3">
-        <v>1653200</v>
+        <v>1604300</v>
       </c>
       <c r="I76" s="3">
-        <v>1507400</v>
+        <v>1462800</v>
       </c>
       <c r="J76" s="3">
-        <v>1430700</v>
+        <v>1388400</v>
       </c>
       <c r="K76" s="3">
         <v>1279600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1013600</v>
+        <v>983600</v>
       </c>
       <c r="E81" s="3">
-        <v>332600</v>
+        <v>322700</v>
       </c>
       <c r="F81" s="3">
-        <v>295600</v>
+        <v>286900</v>
       </c>
       <c r="G81" s="3">
-        <v>359900</v>
+        <v>349300</v>
       </c>
       <c r="H81" s="3">
-        <v>276800</v>
+        <v>268600</v>
       </c>
       <c r="I81" s="3">
-        <v>216100</v>
+        <v>209700</v>
       </c>
       <c r="J81" s="3">
-        <v>149600</v>
+        <v>145200</v>
       </c>
       <c r="K81" s="3">
         <v>55100</v>
@@ -3319,7 +3319,7 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>202900</v>
+        <v>196900</v>
       </c>
       <c r="E89" s="3">
-        <v>189000</v>
+        <v>183500</v>
       </c>
       <c r="F89" s="3">
-        <v>141900</v>
+        <v>137700</v>
       </c>
       <c r="G89" s="3">
-        <v>122200</v>
+        <v>118600</v>
       </c>
       <c r="H89" s="3">
-        <v>122800</v>
+        <v>119100</v>
       </c>
       <c r="I89" s="3">
-        <v>123800</v>
+        <v>120100</v>
       </c>
       <c r="J89" s="3">
-        <v>123700</v>
+        <v>120000</v>
       </c>
       <c r="K89" s="3">
         <v>72900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22100</v>
+        <v>-21500</v>
       </c>
       <c r="E91" s="3">
-        <v>-50500</v>
+        <v>-49000</v>
       </c>
       <c r="F91" s="3">
-        <v>-23600</v>
+        <v>-22900</v>
       </c>
       <c r="G91" s="3">
-        <v>-26700</v>
+        <v>-25900</v>
       </c>
       <c r="H91" s="3">
-        <v>-64800</v>
+        <v>-62800</v>
       </c>
       <c r="I91" s="3">
-        <v>-15100</v>
+        <v>-14600</v>
       </c>
       <c r="J91" s="3">
-        <v>-20700</v>
+        <v>-20100</v>
       </c>
       <c r="K91" s="3">
         <v>-34700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-793400</v>
+        <v>-769900</v>
       </c>
       <c r="E94" s="3">
-        <v>-825500</v>
+        <v>-801000</v>
       </c>
       <c r="F94" s="3">
-        <v>-677900</v>
+        <v>-657800</v>
       </c>
       <c r="G94" s="3">
-        <v>74200</v>
+        <v>72000</v>
       </c>
       <c r="H94" s="3">
-        <v>-184000</v>
+        <v>-178600</v>
       </c>
       <c r="I94" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="J94" s="3">
-        <v>-16100</v>
+        <v>-15600</v>
       </c>
       <c r="K94" s="3">
         <v>15800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-147800</v>
+        <v>-143500</v>
       </c>
       <c r="E96" s="3">
-        <v>-126200</v>
+        <v>-122400</v>
       </c>
       <c r="F96" s="3">
-        <v>-116500</v>
+        <v>-113100</v>
       </c>
       <c r="G96" s="3">
-        <v>-96800</v>
+        <v>-94000</v>
       </c>
       <c r="H96" s="3">
-        <v>-94900</v>
+        <v>-92100</v>
       </c>
       <c r="I96" s="3">
-        <v>-87500</v>
+        <v>-84900</v>
       </c>
       <c r="J96" s="3">
-        <v>-83800</v>
+        <v>-81300</v>
       </c>
       <c r="K96" s="3">
         <v>-81000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>258000</v>
+        <v>250400</v>
       </c>
       <c r="E100" s="3">
-        <v>1050900</v>
+        <v>1019800</v>
       </c>
       <c r="F100" s="3">
-        <v>265800</v>
+        <v>257900</v>
       </c>
       <c r="G100" s="3">
-        <v>250800</v>
+        <v>243400</v>
       </c>
       <c r="H100" s="3">
-        <v>-81400</v>
+        <v>-79000</v>
       </c>
       <c r="I100" s="3">
-        <v>-30900</v>
+        <v>-30000</v>
       </c>
       <c r="J100" s="3">
-        <v>-111400</v>
+        <v>-108100</v>
       </c>
       <c r="K100" s="3">
         <v>-71200</v>
@@ -3962,22 +3962,22 @@
         <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F101" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="G101" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="H101" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I101" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="J101" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="K101" s="3">
         <v>-1200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-331800</v>
+        <v>-321900</v>
       </c>
       <c r="E102" s="3">
-        <v>412100</v>
+        <v>399900</v>
       </c>
       <c r="F102" s="3">
-        <v>-278200</v>
+        <v>-270000</v>
       </c>
       <c r="G102" s="3">
-        <v>455900</v>
+        <v>442400</v>
       </c>
       <c r="H102" s="3">
-        <v>-137100</v>
+        <v>-133000</v>
       </c>
       <c r="I102" s="3">
-        <v>98300</v>
+        <v>95400</v>
       </c>
       <c r="J102" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K102" s="3">
         <v>16300</v>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>GRP.U</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>295500</v>
+        <v>329500</v>
       </c>
       <c r="E8" s="3">
-        <v>255400</v>
+        <v>284600</v>
       </c>
       <c r="F8" s="3">
-        <v>205500</v>
+        <v>246000</v>
       </c>
       <c r="G8" s="3">
-        <v>185800</v>
+        <v>197900</v>
       </c>
       <c r="H8" s="3">
-        <v>183700</v>
+        <v>179000</v>
       </c>
       <c r="I8" s="3">
-        <v>167700</v>
+        <v>177000</v>
       </c>
       <c r="J8" s="3">
+        <v>161600</v>
+      </c>
+      <c r="K8" s="3">
         <v>162400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>162800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>146200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>136300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>139000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>45700</v>
+        <v>54400</v>
       </c>
       <c r="E9" s="3">
-        <v>35400</v>
+        <v>44000</v>
       </c>
       <c r="F9" s="3">
-        <v>26600</v>
+        <v>34100</v>
       </c>
       <c r="G9" s="3">
-        <v>23200</v>
+        <v>25600</v>
       </c>
       <c r="H9" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="I9" s="3">
-        <v>5700</v>
+        <v>22700</v>
       </c>
       <c r="J9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K9" s="3">
         <v>5300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>249800</v>
+        <v>275100</v>
       </c>
       <c r="E10" s="3">
-        <v>220000</v>
+        <v>240600</v>
       </c>
       <c r="F10" s="3">
-        <v>178900</v>
+        <v>211900</v>
       </c>
       <c r="G10" s="3">
-        <v>162600</v>
+        <v>172400</v>
       </c>
       <c r="H10" s="3">
-        <v>160200</v>
+        <v>156600</v>
       </c>
       <c r="I10" s="3">
-        <v>162000</v>
+        <v>154300</v>
       </c>
       <c r="J10" s="3">
+        <v>156000</v>
+      </c>
+      <c r="K10" s="3">
         <v>157100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>157400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>137600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>99900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>106200</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,68 +944,74 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>15000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
-        <v>900</v>
-      </c>
       <c r="F15" s="3">
+        <v>800</v>
+      </c>
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
-        <v>300</v>
-      </c>
       <c r="I15" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
@@ -998,17 +1020,20 @@
         <v>500</v>
       </c>
       <c r="L15" s="3">
+        <v>500</v>
+      </c>
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>104800</v>
+        <v>111700</v>
       </c>
       <c r="E17" s="3">
-        <v>82800</v>
+        <v>100900</v>
       </c>
       <c r="F17" s="3">
-        <v>67300</v>
+        <v>79800</v>
       </c>
       <c r="G17" s="3">
-        <v>59300</v>
+        <v>64800</v>
       </c>
       <c r="H17" s="3">
-        <v>63400</v>
+        <v>57100</v>
       </c>
       <c r="I17" s="3">
-        <v>41700</v>
+        <v>61000</v>
       </c>
       <c r="J17" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K17" s="3">
         <v>40900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>97900</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>190700</v>
+        <v>217800</v>
       </c>
       <c r="E18" s="3">
-        <v>172600</v>
+        <v>183700</v>
       </c>
       <c r="F18" s="3">
-        <v>138200</v>
+        <v>166300</v>
       </c>
       <c r="G18" s="3">
-        <v>126500</v>
+        <v>133100</v>
       </c>
       <c r="H18" s="3">
-        <v>120400</v>
+        <v>121900</v>
       </c>
       <c r="I18" s="3">
-        <v>126100</v>
+        <v>115900</v>
       </c>
       <c r="J18" s="3">
+        <v>121400</v>
+      </c>
+      <c r="K18" s="3">
         <v>121500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>118400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>94000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>96800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>41100</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>973800</v>
+        <v>-151200</v>
       </c>
       <c r="E20" s="3">
-        <v>202100</v>
+        <v>937900</v>
       </c>
       <c r="F20" s="3">
-        <v>180900</v>
+        <v>194600</v>
       </c>
       <c r="G20" s="3">
-        <v>262400</v>
+        <v>174200</v>
       </c>
       <c r="H20" s="3">
-        <v>158300</v>
+        <v>252800</v>
       </c>
       <c r="I20" s="3">
-        <v>120500</v>
+        <v>152500</v>
       </c>
       <c r="J20" s="3">
+        <v>116000</v>
+      </c>
+      <c r="K20" s="3">
         <v>52500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-61700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1165400</v>
+        <v>67800</v>
       </c>
       <c r="E21" s="3">
-        <v>375500</v>
+        <v>1122600</v>
       </c>
       <c r="F21" s="3">
-        <v>319700</v>
+        <v>361700</v>
       </c>
       <c r="G21" s="3">
-        <v>389200</v>
+        <v>308000</v>
       </c>
       <c r="H21" s="3">
-        <v>278900</v>
+        <v>374900</v>
       </c>
       <c r="I21" s="3">
-        <v>247000</v>
+        <v>268700</v>
       </c>
       <c r="J21" s="3">
+        <v>238000</v>
+      </c>
+      <c r="K21" s="3">
         <v>174500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>57100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>85300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>121800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>74100</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1164500</v>
+        <v>66600</v>
       </c>
       <c r="E23" s="3">
-        <v>374700</v>
+        <v>1121600</v>
       </c>
       <c r="F23" s="3">
-        <v>319100</v>
+        <v>360900</v>
       </c>
       <c r="G23" s="3">
-        <v>389000</v>
+        <v>307300</v>
       </c>
       <c r="H23" s="3">
-        <v>278700</v>
+        <v>374600</v>
       </c>
       <c r="I23" s="3">
-        <v>246500</v>
+        <v>268400</v>
       </c>
       <c r="J23" s="3">
+        <v>237400</v>
+      </c>
+      <c r="K23" s="3">
         <v>174000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>56600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>84900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>121600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>41100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>180600</v>
+        <v>-46000</v>
       </c>
       <c r="E24" s="3">
-        <v>51900</v>
+        <v>174000</v>
       </c>
       <c r="F24" s="3">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="G24" s="3">
-        <v>39500</v>
+        <v>30900</v>
       </c>
       <c r="H24" s="3">
-        <v>10100</v>
+        <v>38100</v>
       </c>
       <c r="I24" s="3">
-        <v>35800</v>
+        <v>9700</v>
       </c>
       <c r="J24" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K24" s="3">
         <v>27100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-25500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>983800</v>
+        <v>112700</v>
       </c>
       <c r="E26" s="3">
-        <v>322800</v>
+        <v>947600</v>
       </c>
       <c r="F26" s="3">
-        <v>287000</v>
+        <v>310900</v>
       </c>
       <c r="G26" s="3">
-        <v>349400</v>
+        <v>276500</v>
       </c>
       <c r="H26" s="3">
-        <v>268600</v>
+        <v>336600</v>
       </c>
       <c r="I26" s="3">
-        <v>210800</v>
+        <v>258700</v>
       </c>
       <c r="J26" s="3">
+        <v>203000</v>
+      </c>
+      <c r="K26" s="3">
         <v>146800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>110400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>112800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>44500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>983600</v>
+        <v>112700</v>
       </c>
       <c r="E27" s="3">
-        <v>322700</v>
+        <v>947400</v>
       </c>
       <c r="F27" s="3">
-        <v>286900</v>
+        <v>310800</v>
       </c>
       <c r="G27" s="3">
-        <v>349300</v>
+        <v>276300</v>
       </c>
       <c r="H27" s="3">
-        <v>268600</v>
+        <v>336400</v>
       </c>
       <c r="I27" s="3">
-        <v>209700</v>
+        <v>258700</v>
       </c>
       <c r="J27" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K27" s="3">
         <v>145200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>49800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>110200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>112700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>44500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,48 +1523,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1400</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>72600</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-973800</v>
+        <v>151200</v>
       </c>
       <c r="E32" s="3">
-        <v>-202100</v>
+        <v>-937900</v>
       </c>
       <c r="F32" s="3">
-        <v>-180900</v>
+        <v>-194600</v>
       </c>
       <c r="G32" s="3">
-        <v>-262400</v>
+        <v>-174200</v>
       </c>
       <c r="H32" s="3">
-        <v>-158300</v>
+        <v>-252800</v>
       </c>
       <c r="I32" s="3">
-        <v>-120500</v>
+        <v>-152500</v>
       </c>
       <c r="J32" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-52500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>61700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>983600</v>
+        <v>112700</v>
       </c>
       <c r="E33" s="3">
-        <v>322700</v>
+        <v>947400</v>
       </c>
       <c r="F33" s="3">
-        <v>286900</v>
+        <v>310800</v>
       </c>
       <c r="G33" s="3">
-        <v>349300</v>
+        <v>276300</v>
       </c>
       <c r="H33" s="3">
-        <v>268600</v>
+        <v>336400</v>
       </c>
       <c r="I33" s="3">
-        <v>209700</v>
+        <v>258700</v>
       </c>
       <c r="J33" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K33" s="3">
         <v>145200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>55100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>111600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>112700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>117100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>983600</v>
+        <v>112700</v>
       </c>
       <c r="E35" s="3">
-        <v>322700</v>
+        <v>947400</v>
       </c>
       <c r="F35" s="3">
-        <v>286900</v>
+        <v>310800</v>
       </c>
       <c r="G35" s="3">
-        <v>349300</v>
+        <v>276300</v>
       </c>
       <c r="H35" s="3">
-        <v>268600</v>
+        <v>336400</v>
       </c>
       <c r="I35" s="3">
-        <v>209700</v>
+        <v>258700</v>
       </c>
       <c r="J35" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K35" s="3">
         <v>145200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>55100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>111600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>112700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>117100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,73 +1903,77 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>301800</v>
+        <v>91900</v>
       </c>
       <c r="E41" s="3">
-        <v>586400</v>
+        <v>290700</v>
       </c>
       <c r="F41" s="3">
-        <v>186600</v>
+        <v>564800</v>
       </c>
       <c r="G41" s="3">
-        <v>401700</v>
+        <v>179700</v>
       </c>
       <c r="H41" s="3">
-        <v>41800</v>
+        <v>386900</v>
       </c>
       <c r="I41" s="3">
-        <v>82200</v>
+        <v>40200</v>
       </c>
       <c r="J41" s="3">
+        <v>79100</v>
+      </c>
+      <c r="K41" s="3">
         <v>48400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>73500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>38400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="3">
-        <v>37800</v>
-      </c>
       <c r="F42" s="3">
-        <v>37700</v>
+        <v>36400</v>
       </c>
       <c r="G42" s="3">
-        <v>92600</v>
+        <v>36300</v>
       </c>
       <c r="H42" s="3">
-        <v>10100</v>
+        <v>89200</v>
       </c>
       <c r="I42" s="3">
-        <v>102700</v>
+        <v>9700</v>
       </c>
       <c r="J42" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K42" s="3">
         <v>41100</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -1895,48 +1984,54 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9200</v>
+        <v>59800</v>
       </c>
       <c r="E43" s="3">
-        <v>5800</v>
+        <v>8800</v>
       </c>
       <c r="F43" s="3">
-        <v>14800</v>
+        <v>5500</v>
       </c>
       <c r="G43" s="3">
-        <v>3400</v>
+        <v>14300</v>
       </c>
       <c r="H43" s="3">
-        <v>1900</v>
+        <v>3300</v>
       </c>
       <c r="I43" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="J43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="3">
         <v>5300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,98 +2068,107 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>53900</v>
+        <v>40400</v>
       </c>
       <c r="E45" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>34100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>284900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>35500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>295800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>5200</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>365300</v>
+        <v>197900</v>
       </c>
       <c r="E46" s="3">
-        <v>635100</v>
+        <v>351900</v>
       </c>
       <c r="F46" s="3">
-        <v>241700</v>
+        <v>611700</v>
       </c>
       <c r="G46" s="3">
-        <v>533100</v>
+        <v>232800</v>
       </c>
       <c r="H46" s="3">
-        <v>349500</v>
+        <v>513500</v>
       </c>
       <c r="I46" s="3">
-        <v>188200</v>
+        <v>336700</v>
       </c>
       <c r="J46" s="3">
+        <v>181300</v>
+      </c>
+      <c r="K46" s="3">
         <v>96700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>99000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>54100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8100</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F47" s="3">
         <v>300</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2072,8 +2176,8 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>400</v>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3">
         <v>400</v>
@@ -2085,53 +2189,59 @@
         <v>400</v>
       </c>
       <c r="M47" s="3">
+        <v>400</v>
+      </c>
+      <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5987100</v>
+        <v>6395900</v>
       </c>
       <c r="E48" s="3">
-        <v>4399200</v>
+        <v>5766700</v>
       </c>
       <c r="F48" s="3">
-        <v>3348800</v>
+        <v>4237300</v>
       </c>
       <c r="G48" s="3">
-        <v>2572300</v>
+        <v>3225600</v>
       </c>
       <c r="H48" s="3">
-        <v>2053200</v>
+        <v>2477600</v>
       </c>
       <c r="I48" s="3">
-        <v>1992700</v>
+        <v>1977700</v>
       </c>
       <c r="J48" s="3">
+        <v>1919300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1947400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1815100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1812000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2321200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>515800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2168,9 +2278,12 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>71900</v>
+        <v>117800</v>
       </c>
       <c r="E52" s="3">
-        <v>31800</v>
+        <v>69200</v>
       </c>
       <c r="F52" s="3">
-        <v>16600</v>
+        <v>30700</v>
       </c>
       <c r="G52" s="3">
-        <v>39800</v>
+        <v>16000</v>
       </c>
       <c r="H52" s="3">
+        <v>38300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J52" s="3">
         <v>4800</v>
       </c>
-      <c r="I52" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6432400</v>
+        <v>6711700</v>
       </c>
       <c r="E54" s="3">
-        <v>5066400</v>
+        <v>6195600</v>
       </c>
       <c r="F54" s="3">
-        <v>3607100</v>
+        <v>4879900</v>
       </c>
       <c r="G54" s="3">
-        <v>3145200</v>
+        <v>3474300</v>
       </c>
       <c r="H54" s="3">
-        <v>2407600</v>
+        <v>3029400</v>
       </c>
       <c r="I54" s="3">
-        <v>2186200</v>
+        <v>2319000</v>
       </c>
       <c r="J54" s="3">
+        <v>2105800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2051200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1921600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1900400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1510900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>956800</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
-        <v>7400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>4500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3500</v>
-      </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>326800</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
-        <v>188200</v>
-      </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>181300</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3">
-        <v>24400</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>30200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>49800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>40900</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>119000</v>
+        <v>113000</v>
       </c>
       <c r="E59" s="3">
-        <v>85100</v>
+        <v>114600</v>
       </c>
       <c r="F59" s="3">
-        <v>58300</v>
+        <v>82000</v>
       </c>
       <c r="G59" s="3">
-        <v>59500</v>
+        <v>56100</v>
       </c>
       <c r="H59" s="3">
-        <v>58200</v>
+        <v>57300</v>
       </c>
       <c r="I59" s="3">
-        <v>39700</v>
+        <v>56100</v>
       </c>
       <c r="J59" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K59" s="3">
         <v>43800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>57600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>123400</v>
+        <v>447900</v>
       </c>
       <c r="E60" s="3">
-        <v>280800</v>
+        <v>118900</v>
       </c>
       <c r="F60" s="3">
-        <v>63900</v>
+        <v>270400</v>
       </c>
       <c r="G60" s="3">
-        <v>63500</v>
+        <v>61500</v>
       </c>
       <c r="H60" s="3">
-        <v>86900</v>
+        <v>61200</v>
       </c>
       <c r="I60" s="3">
-        <v>43900</v>
+        <v>83700</v>
       </c>
       <c r="J60" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K60" s="3">
         <v>77500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>101200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>82200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1845200</v>
+        <v>1892600</v>
       </c>
       <c r="E61" s="3">
-        <v>1472600</v>
+        <v>1777300</v>
       </c>
       <c r="F61" s="3">
-        <v>915600</v>
+        <v>1418400</v>
       </c>
       <c r="G61" s="3">
-        <v>899800</v>
+        <v>881900</v>
       </c>
       <c r="H61" s="3">
-        <v>486000</v>
+        <v>866700</v>
       </c>
       <c r="I61" s="3">
-        <v>485600</v>
+        <v>468100</v>
       </c>
       <c r="J61" s="3">
+        <v>467800</v>
+      </c>
+      <c r="K61" s="3">
         <v>393300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>402200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>387900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>198400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>202200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>468000</v>
+        <v>407700</v>
       </c>
       <c r="E62" s="3">
-        <v>368000</v>
+        <v>450800</v>
       </c>
       <c r="F62" s="3">
-        <v>263800</v>
+        <v>354500</v>
       </c>
       <c r="G62" s="3">
-        <v>306900</v>
+        <v>254100</v>
       </c>
       <c r="H62" s="3">
-        <v>229400</v>
+        <v>295600</v>
       </c>
       <c r="I62" s="3">
-        <v>192700</v>
+        <v>221000</v>
       </c>
       <c r="J62" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K62" s="3">
         <v>184800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>133700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>139600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>143000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2438800</v>
+        <v>2751800</v>
       </c>
       <c r="E66" s="3">
-        <v>2123000</v>
+        <v>2349100</v>
       </c>
       <c r="F66" s="3">
-        <v>1244800</v>
+        <v>2044800</v>
       </c>
       <c r="G66" s="3">
-        <v>1271400</v>
+        <v>1199000</v>
       </c>
       <c r="H66" s="3">
-        <v>803300</v>
+        <v>1224600</v>
       </c>
       <c r="I66" s="3">
-        <v>723400</v>
+        <v>773700</v>
       </c>
       <c r="J66" s="3">
+        <v>696800</v>
+      </c>
+      <c r="K66" s="3">
         <v>662900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>642000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>613900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>370600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>258300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1313200</v>
+        <v>1231200</v>
       </c>
       <c r="E72" s="3">
-        <v>474300</v>
+        <v>1264900</v>
       </c>
       <c r="F72" s="3">
-        <v>275800</v>
+        <v>456800</v>
       </c>
       <c r="G72" s="3">
-        <v>93500</v>
+        <v>265600</v>
       </c>
       <c r="H72" s="3">
-        <v>-120700</v>
+        <v>90000</v>
       </c>
       <c r="I72" s="3">
-        <v>-296800</v>
+        <v>-116200</v>
       </c>
       <c r="J72" s="3">
+        <v>-285900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-418300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-504100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-468600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-492900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-673300</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3993600</v>
+        <v>3959900</v>
       </c>
       <c r="E76" s="3">
-        <v>2943400</v>
+        <v>3846600</v>
       </c>
       <c r="F76" s="3">
-        <v>2362300</v>
+        <v>2835100</v>
       </c>
       <c r="G76" s="3">
-        <v>1873800</v>
+        <v>2275400</v>
       </c>
       <c r="H76" s="3">
-        <v>1604300</v>
+        <v>1804800</v>
       </c>
       <c r="I76" s="3">
-        <v>1462800</v>
+        <v>1545200</v>
       </c>
       <c r="J76" s="3">
+        <v>1409000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1388400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1279600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1286500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1140300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>698500</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>983600</v>
+        <v>112700</v>
       </c>
       <c r="E81" s="3">
-        <v>322700</v>
+        <v>947400</v>
       </c>
       <c r="F81" s="3">
-        <v>286900</v>
+        <v>310800</v>
       </c>
       <c r="G81" s="3">
-        <v>349300</v>
+        <v>276300</v>
       </c>
       <c r="H81" s="3">
-        <v>268600</v>
+        <v>336400</v>
       </c>
       <c r="I81" s="3">
-        <v>209700</v>
+        <v>258700</v>
       </c>
       <c r="J81" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K81" s="3">
         <v>145200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>55100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>111600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>112700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>117100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,28 +3492,29 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
-        <v>900</v>
-      </c>
       <c r="F83" s="3">
+        <v>800</v>
+      </c>
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
-        <v>300</v>
-      </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3325,17 +3523,20 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>196900</v>
+        <v>200700</v>
       </c>
       <c r="E89" s="3">
-        <v>183500</v>
+        <v>189700</v>
       </c>
       <c r="F89" s="3">
-        <v>137700</v>
+        <v>176700</v>
       </c>
       <c r="G89" s="3">
-        <v>118600</v>
+        <v>132700</v>
       </c>
       <c r="H89" s="3">
-        <v>119100</v>
+        <v>114200</v>
       </c>
       <c r="I89" s="3">
-        <v>120100</v>
+        <v>114800</v>
       </c>
       <c r="J89" s="3">
+        <v>115700</v>
+      </c>
+      <c r="K89" s="3">
         <v>120000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>72900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>98500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>86000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21500</v>
+        <v>-40300</v>
       </c>
       <c r="E91" s="3">
-        <v>-49000</v>
+        <v>-20700</v>
       </c>
       <c r="F91" s="3">
-        <v>-22900</v>
+        <v>-47200</v>
       </c>
       <c r="G91" s="3">
-        <v>-25900</v>
+        <v>-22000</v>
       </c>
       <c r="H91" s="3">
-        <v>-62800</v>
+        <v>-25000</v>
       </c>
       <c r="I91" s="3">
-        <v>-14600</v>
+        <v>-60500</v>
       </c>
       <c r="J91" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37300</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-769900</v>
+        <v>-554400</v>
       </c>
       <c r="E94" s="3">
-        <v>-801000</v>
+        <v>-741600</v>
       </c>
       <c r="F94" s="3">
-        <v>-657800</v>
+        <v>-771500</v>
       </c>
       <c r="G94" s="3">
-        <v>72000</v>
+        <v>-633600</v>
       </c>
       <c r="H94" s="3">
-        <v>-178600</v>
+        <v>69300</v>
       </c>
       <c r="I94" s="3">
-        <v>8800</v>
+        <v>-172000</v>
       </c>
       <c r="J94" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-15600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-195200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-73900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-143500</v>
+        <v>-146300</v>
       </c>
       <c r="E96" s="3">
-        <v>-122400</v>
+        <v>-138200</v>
       </c>
       <c r="F96" s="3">
-        <v>-113100</v>
+        <v>-117900</v>
       </c>
       <c r="G96" s="3">
-        <v>-94000</v>
+        <v>-108900</v>
       </c>
       <c r="H96" s="3">
-        <v>-92100</v>
+        <v>-90500</v>
       </c>
       <c r="I96" s="3">
-        <v>-84900</v>
+        <v>-88700</v>
       </c>
       <c r="J96" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-81300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-81000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-69500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-70600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-29000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>250400</v>
+        <v>155200</v>
       </c>
       <c r="E100" s="3">
-        <v>1019800</v>
+        <v>241200</v>
       </c>
       <c r="F100" s="3">
-        <v>257900</v>
+        <v>982300</v>
       </c>
       <c r="G100" s="3">
-        <v>243400</v>
+        <v>248400</v>
       </c>
       <c r="H100" s="3">
-        <v>-79000</v>
+        <v>234500</v>
       </c>
       <c r="I100" s="3">
-        <v>-30000</v>
+        <v>-76100</v>
       </c>
       <c r="J100" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-108100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-71200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>124800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-72200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-35300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2300</v>
-      </c>
       <c r="F101" s="3">
-        <v>-7800</v>
+        <v>-2200</v>
       </c>
       <c r="G101" s="3">
-        <v>8500</v>
+        <v>-7500</v>
       </c>
       <c r="H101" s="3">
-        <v>5400</v>
+        <v>8200</v>
       </c>
       <c r="I101" s="3">
-        <v>-3600</v>
+        <v>5200</v>
       </c>
       <c r="J101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K101" s="3">
         <v>5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-321900</v>
+        <v>-193400</v>
       </c>
       <c r="E102" s="3">
-        <v>399900</v>
+        <v>-310100</v>
       </c>
       <c r="F102" s="3">
-        <v>-270000</v>
+        <v>385200</v>
       </c>
       <c r="G102" s="3">
-        <v>442400</v>
+        <v>-260000</v>
       </c>
       <c r="H102" s="3">
-        <v>-133000</v>
+        <v>426100</v>
       </c>
       <c r="I102" s="3">
-        <v>95400</v>
+        <v>-128200</v>
       </c>
       <c r="J102" s="3">
+        <v>91900</v>
+      </c>
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>329500</v>
+        <v>337500</v>
       </c>
       <c r="E8" s="3">
-        <v>284600</v>
+        <v>291500</v>
       </c>
       <c r="F8" s="3">
-        <v>246000</v>
+        <v>252000</v>
       </c>
       <c r="G8" s="3">
-        <v>197900</v>
+        <v>202700</v>
       </c>
       <c r="H8" s="3">
-        <v>179000</v>
+        <v>183300</v>
       </c>
       <c r="I8" s="3">
-        <v>177000</v>
+        <v>181200</v>
       </c>
       <c r="J8" s="3">
-        <v>161600</v>
+        <v>165500</v>
       </c>
       <c r="K8" s="3">
         <v>162400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>54400</v>
+        <v>55700</v>
       </c>
       <c r="E9" s="3">
-        <v>44000</v>
+        <v>45000</v>
       </c>
       <c r="F9" s="3">
-        <v>34100</v>
+        <v>34900</v>
       </c>
       <c r="G9" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="H9" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="I9" s="3">
-        <v>22700</v>
+        <v>23200</v>
       </c>
       <c r="J9" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="K9" s="3">
         <v>5300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>275100</v>
+        <v>281700</v>
       </c>
       <c r="E10" s="3">
-        <v>240600</v>
+        <v>246400</v>
       </c>
       <c r="F10" s="3">
-        <v>211900</v>
+        <v>217100</v>
       </c>
       <c r="G10" s="3">
-        <v>172400</v>
+        <v>176500</v>
       </c>
       <c r="H10" s="3">
-        <v>156600</v>
+        <v>160400</v>
       </c>
       <c r="I10" s="3">
-        <v>154300</v>
+        <v>158000</v>
       </c>
       <c r="J10" s="3">
-        <v>156000</v>
+        <v>159800</v>
       </c>
       <c r="K10" s="3">
         <v>157100</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I14" s="3">
         <v>500</v>
@@ -1002,7 +1002,7 @@
         <v>1000</v>
       </c>
       <c r="F15" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G15" s="3">
         <v>700</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>111700</v>
+        <v>114400</v>
       </c>
       <c r="E17" s="3">
-        <v>100900</v>
+        <v>103400</v>
       </c>
       <c r="F17" s="3">
-        <v>79800</v>
+        <v>81700</v>
       </c>
       <c r="G17" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="H17" s="3">
-        <v>57100</v>
+        <v>58500</v>
       </c>
       <c r="I17" s="3">
-        <v>61000</v>
+        <v>62500</v>
       </c>
       <c r="J17" s="3">
-        <v>40200</v>
+        <v>41100</v>
       </c>
       <c r="K17" s="3">
         <v>40900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>217800</v>
+        <v>223100</v>
       </c>
       <c r="E18" s="3">
-        <v>183700</v>
+        <v>188100</v>
       </c>
       <c r="F18" s="3">
-        <v>166300</v>
+        <v>170300</v>
       </c>
       <c r="G18" s="3">
-        <v>133100</v>
+        <v>136300</v>
       </c>
       <c r="H18" s="3">
-        <v>121900</v>
+        <v>124800</v>
       </c>
       <c r="I18" s="3">
-        <v>115900</v>
+        <v>118700</v>
       </c>
       <c r="J18" s="3">
-        <v>121400</v>
+        <v>124400</v>
       </c>
       <c r="K18" s="3">
         <v>121500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-151200</v>
+        <v>-154800</v>
       </c>
       <c r="E20" s="3">
-        <v>937900</v>
+        <v>960700</v>
       </c>
       <c r="F20" s="3">
-        <v>194600</v>
+        <v>199400</v>
       </c>
       <c r="G20" s="3">
-        <v>174200</v>
+        <v>178500</v>
       </c>
       <c r="H20" s="3">
-        <v>252800</v>
+        <v>258900</v>
       </c>
       <c r="I20" s="3">
-        <v>152500</v>
+        <v>156200</v>
       </c>
       <c r="J20" s="3">
-        <v>116000</v>
+        <v>118800</v>
       </c>
       <c r="K20" s="3">
         <v>52500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>67800</v>
+        <v>69500</v>
       </c>
       <c r="E21" s="3">
-        <v>1122600</v>
+        <v>1149700</v>
       </c>
       <c r="F21" s="3">
-        <v>361700</v>
+        <v>370500</v>
       </c>
       <c r="G21" s="3">
-        <v>308000</v>
+        <v>315400</v>
       </c>
       <c r="H21" s="3">
-        <v>374900</v>
+        <v>383900</v>
       </c>
       <c r="I21" s="3">
-        <v>268700</v>
+        <v>275200</v>
       </c>
       <c r="J21" s="3">
-        <v>238000</v>
+        <v>243700</v>
       </c>
       <c r="K21" s="3">
         <v>174500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>66600</v>
+        <v>68300</v>
       </c>
       <c r="E23" s="3">
-        <v>1121600</v>
+        <v>1148800</v>
       </c>
       <c r="F23" s="3">
-        <v>360900</v>
+        <v>369600</v>
       </c>
       <c r="G23" s="3">
-        <v>307300</v>
+        <v>314800</v>
       </c>
       <c r="H23" s="3">
-        <v>374600</v>
+        <v>383700</v>
       </c>
       <c r="I23" s="3">
-        <v>268400</v>
+        <v>274900</v>
       </c>
       <c r="J23" s="3">
-        <v>237400</v>
+        <v>243200</v>
       </c>
       <c r="K23" s="3">
         <v>174000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-46000</v>
+        <v>-47200</v>
       </c>
       <c r="E24" s="3">
-        <v>174000</v>
+        <v>178200</v>
       </c>
       <c r="F24" s="3">
-        <v>50000</v>
+        <v>51200</v>
       </c>
       <c r="G24" s="3">
-        <v>30900</v>
+        <v>31600</v>
       </c>
       <c r="H24" s="3">
-        <v>38100</v>
+        <v>39000</v>
       </c>
       <c r="I24" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="J24" s="3">
-        <v>34400</v>
+        <v>35300</v>
       </c>
       <c r="K24" s="3">
         <v>27100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>112700</v>
+        <v>115400</v>
       </c>
       <c r="E26" s="3">
-        <v>947600</v>
+        <v>970600</v>
       </c>
       <c r="F26" s="3">
-        <v>310900</v>
+        <v>318500</v>
       </c>
       <c r="G26" s="3">
-        <v>276500</v>
+        <v>283200</v>
       </c>
       <c r="H26" s="3">
-        <v>336600</v>
+        <v>344700</v>
       </c>
       <c r="I26" s="3">
-        <v>258700</v>
+        <v>265000</v>
       </c>
       <c r="J26" s="3">
-        <v>203000</v>
+        <v>207900</v>
       </c>
       <c r="K26" s="3">
         <v>146800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>112700</v>
+        <v>115400</v>
       </c>
       <c r="E27" s="3">
-        <v>947400</v>
+        <v>970300</v>
       </c>
       <c r="F27" s="3">
-        <v>310800</v>
+        <v>318400</v>
       </c>
       <c r="G27" s="3">
-        <v>276300</v>
+        <v>283000</v>
       </c>
       <c r="H27" s="3">
-        <v>336400</v>
+        <v>344600</v>
       </c>
       <c r="I27" s="3">
-        <v>258700</v>
+        <v>265000</v>
       </c>
       <c r="J27" s="3">
-        <v>202000</v>
+        <v>206900</v>
       </c>
       <c r="K27" s="3">
         <v>145200</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>151200</v>
+        <v>154800</v>
       </c>
       <c r="E32" s="3">
-        <v>-937900</v>
+        <v>-960700</v>
       </c>
       <c r="F32" s="3">
-        <v>-194600</v>
+        <v>-199400</v>
       </c>
       <c r="G32" s="3">
-        <v>-174200</v>
+        <v>-178500</v>
       </c>
       <c r="H32" s="3">
-        <v>-252800</v>
+        <v>-258900</v>
       </c>
       <c r="I32" s="3">
-        <v>-152500</v>
+        <v>-156200</v>
       </c>
       <c r="J32" s="3">
-        <v>-116000</v>
+        <v>-118800</v>
       </c>
       <c r="K32" s="3">
         <v>-52500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>112700</v>
+        <v>115400</v>
       </c>
       <c r="E33" s="3">
-        <v>947400</v>
+        <v>970300</v>
       </c>
       <c r="F33" s="3">
-        <v>310800</v>
+        <v>318400</v>
       </c>
       <c r="G33" s="3">
-        <v>276300</v>
+        <v>283000</v>
       </c>
       <c r="H33" s="3">
-        <v>336400</v>
+        <v>344600</v>
       </c>
       <c r="I33" s="3">
-        <v>258700</v>
+        <v>265000</v>
       </c>
       <c r="J33" s="3">
-        <v>202000</v>
+        <v>206900</v>
       </c>
       <c r="K33" s="3">
         <v>145200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>112700</v>
+        <v>115400</v>
       </c>
       <c r="E35" s="3">
-        <v>947400</v>
+        <v>970300</v>
       </c>
       <c r="F35" s="3">
-        <v>310800</v>
+        <v>318400</v>
       </c>
       <c r="G35" s="3">
-        <v>276300</v>
+        <v>283000</v>
       </c>
       <c r="H35" s="3">
-        <v>336400</v>
+        <v>344600</v>
       </c>
       <c r="I35" s="3">
-        <v>258700</v>
+        <v>265000</v>
       </c>
       <c r="J35" s="3">
-        <v>202000</v>
+        <v>206900</v>
       </c>
       <c r="K35" s="3">
         <v>145200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>91900</v>
+        <v>94100</v>
       </c>
       <c r="E41" s="3">
-        <v>290700</v>
+        <v>297700</v>
       </c>
       <c r="F41" s="3">
-        <v>564800</v>
+        <v>578500</v>
       </c>
       <c r="G41" s="3">
-        <v>179700</v>
+        <v>184100</v>
       </c>
       <c r="H41" s="3">
-        <v>386900</v>
+        <v>396300</v>
       </c>
       <c r="I41" s="3">
-        <v>40200</v>
+        <v>41200</v>
       </c>
       <c r="J41" s="3">
-        <v>79100</v>
+        <v>81000</v>
       </c>
       <c r="K41" s="3">
         <v>48400</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E42" s="3">
         <v>400</v>
       </c>
       <c r="F42" s="3">
-        <v>36400</v>
+        <v>37300</v>
       </c>
       <c r="G42" s="3">
-        <v>36300</v>
+        <v>37200</v>
       </c>
       <c r="H42" s="3">
-        <v>89200</v>
+        <v>91300</v>
       </c>
       <c r="I42" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="J42" s="3">
-        <v>98900</v>
+        <v>101300</v>
       </c>
       <c r="K42" s="3">
         <v>41100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59800</v>
+        <v>61200</v>
       </c>
       <c r="E43" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="F43" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G43" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="H43" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I43" s="3">
         <v>1800</v>
       </c>
       <c r="J43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K43" s="3">
         <v>5300</v>
@@ -2078,22 +2078,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40400</v>
+        <v>41400</v>
       </c>
       <c r="E45" s="3">
-        <v>51900</v>
+        <v>53200</v>
       </c>
       <c r="F45" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G45" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H45" s="3">
-        <v>34100</v>
+        <v>35000</v>
       </c>
       <c r="I45" s="3">
-        <v>284900</v>
+        <v>291800</v>
       </c>
       <c r="J45" s="3">
         <v>2200</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>197900</v>
+        <v>202700</v>
       </c>
       <c r="E46" s="3">
-        <v>351900</v>
+        <v>360400</v>
       </c>
       <c r="F46" s="3">
-        <v>611700</v>
+        <v>626500</v>
       </c>
       <c r="G46" s="3">
-        <v>232800</v>
+        <v>238400</v>
       </c>
       <c r="H46" s="3">
-        <v>513500</v>
+        <v>525900</v>
       </c>
       <c r="I46" s="3">
-        <v>336700</v>
+        <v>344800</v>
       </c>
       <c r="J46" s="3">
-        <v>181300</v>
+        <v>185700</v>
       </c>
       <c r="K46" s="3">
         <v>96700</v>
@@ -2165,7 +2165,7 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6395900</v>
+        <v>6550800</v>
       </c>
       <c r="E48" s="3">
-        <v>5766700</v>
+        <v>5906400</v>
       </c>
       <c r="F48" s="3">
-        <v>4237300</v>
+        <v>4339900</v>
       </c>
       <c r="G48" s="3">
-        <v>3225600</v>
+        <v>3303700</v>
       </c>
       <c r="H48" s="3">
-        <v>2477600</v>
+        <v>2537600</v>
       </c>
       <c r="I48" s="3">
-        <v>1977700</v>
+        <v>2025600</v>
       </c>
       <c r="J48" s="3">
-        <v>1919300</v>
+        <v>1965800</v>
       </c>
       <c r="K48" s="3">
         <v>1947400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>117800</v>
+        <v>120600</v>
       </c>
       <c r="E52" s="3">
-        <v>69200</v>
+        <v>70900</v>
       </c>
       <c r="F52" s="3">
-        <v>30700</v>
+        <v>31400</v>
       </c>
       <c r="G52" s="3">
-        <v>16000</v>
+        <v>16400</v>
       </c>
       <c r="H52" s="3">
-        <v>38300</v>
+        <v>39300</v>
       </c>
       <c r="I52" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J52" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K52" s="3">
         <v>6600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6711700</v>
+        <v>6874300</v>
       </c>
       <c r="E54" s="3">
-        <v>6195600</v>
+        <v>6345700</v>
       </c>
       <c r="F54" s="3">
-        <v>4879900</v>
+        <v>4998100</v>
       </c>
       <c r="G54" s="3">
-        <v>3474300</v>
+        <v>3558500</v>
       </c>
       <c r="H54" s="3">
-        <v>3029400</v>
+        <v>3102800</v>
       </c>
       <c r="I54" s="3">
-        <v>2319000</v>
+        <v>2375100</v>
       </c>
       <c r="J54" s="3">
-        <v>2105800</v>
+        <v>2156800</v>
       </c>
       <c r="K54" s="3">
         <v>2051200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="E57" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F57" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="G57" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H57" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I57" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J57" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K57" s="3">
         <v>3500</v>
@@ -2576,22 +2576,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>326800</v>
+        <v>334700</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>181300</v>
+        <v>185700</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>113000</v>
+        <v>115800</v>
       </c>
       <c r="E59" s="3">
-        <v>114600</v>
+        <v>117400</v>
       </c>
       <c r="F59" s="3">
-        <v>82000</v>
+        <v>84000</v>
       </c>
       <c r="G59" s="3">
-        <v>56100</v>
+        <v>57500</v>
       </c>
       <c r="H59" s="3">
-        <v>57300</v>
+        <v>58700</v>
       </c>
       <c r="I59" s="3">
-        <v>56100</v>
+        <v>57400</v>
       </c>
       <c r="J59" s="3">
-        <v>38200</v>
+        <v>39100</v>
       </c>
       <c r="K59" s="3">
         <v>43800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>447900</v>
+        <v>458800</v>
       </c>
       <c r="E60" s="3">
-        <v>118900</v>
+        <v>121800</v>
       </c>
       <c r="F60" s="3">
-        <v>270400</v>
+        <v>277000</v>
       </c>
       <c r="G60" s="3">
-        <v>61500</v>
+        <v>63000</v>
       </c>
       <c r="H60" s="3">
-        <v>61200</v>
+        <v>62700</v>
       </c>
       <c r="I60" s="3">
-        <v>83700</v>
+        <v>85700</v>
       </c>
       <c r="J60" s="3">
-        <v>42300</v>
+        <v>43300</v>
       </c>
       <c r="K60" s="3">
         <v>77500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1892600</v>
+        <v>1938400</v>
       </c>
       <c r="E61" s="3">
-        <v>1777300</v>
+        <v>1820400</v>
       </c>
       <c r="F61" s="3">
-        <v>1418400</v>
+        <v>1452700</v>
       </c>
       <c r="G61" s="3">
-        <v>881900</v>
+        <v>903300</v>
       </c>
       <c r="H61" s="3">
-        <v>866700</v>
+        <v>887700</v>
       </c>
       <c r="I61" s="3">
-        <v>468100</v>
+        <v>479500</v>
       </c>
       <c r="J61" s="3">
-        <v>467800</v>
+        <v>479100</v>
       </c>
       <c r="K61" s="3">
         <v>393300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>407700</v>
+        <v>417600</v>
       </c>
       <c r="E62" s="3">
-        <v>450800</v>
+        <v>461700</v>
       </c>
       <c r="F62" s="3">
-        <v>354500</v>
+        <v>363100</v>
       </c>
       <c r="G62" s="3">
-        <v>254100</v>
+        <v>260200</v>
       </c>
       <c r="H62" s="3">
-        <v>295600</v>
+        <v>302800</v>
       </c>
       <c r="I62" s="3">
-        <v>221000</v>
+        <v>226300</v>
       </c>
       <c r="J62" s="3">
-        <v>185600</v>
+        <v>190100</v>
       </c>
       <c r="K62" s="3">
         <v>184800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2751800</v>
+        <v>2818500</v>
       </c>
       <c r="E66" s="3">
-        <v>2349100</v>
+        <v>2406000</v>
       </c>
       <c r="F66" s="3">
-        <v>2044800</v>
+        <v>2094400</v>
       </c>
       <c r="G66" s="3">
-        <v>1199000</v>
+        <v>1228000</v>
       </c>
       <c r="H66" s="3">
-        <v>1224600</v>
+        <v>1254200</v>
       </c>
       <c r="I66" s="3">
-        <v>773700</v>
+        <v>792500</v>
       </c>
       <c r="J66" s="3">
-        <v>696800</v>
+        <v>713700</v>
       </c>
       <c r="K66" s="3">
         <v>662900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1231200</v>
+        <v>1261100</v>
       </c>
       <c r="E72" s="3">
-        <v>1264900</v>
+        <v>1295500</v>
       </c>
       <c r="F72" s="3">
-        <v>456800</v>
+        <v>467900</v>
       </c>
       <c r="G72" s="3">
-        <v>265600</v>
+        <v>272000</v>
       </c>
       <c r="H72" s="3">
-        <v>90000</v>
+        <v>92200</v>
       </c>
       <c r="I72" s="3">
-        <v>-116200</v>
+        <v>-119000</v>
       </c>
       <c r="J72" s="3">
-        <v>-285900</v>
+        <v>-292800</v>
       </c>
       <c r="K72" s="3">
         <v>-418300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3959900</v>
+        <v>4055800</v>
       </c>
       <c r="E76" s="3">
-        <v>3846600</v>
+        <v>3939700</v>
       </c>
       <c r="F76" s="3">
-        <v>2835100</v>
+        <v>2903800</v>
       </c>
       <c r="G76" s="3">
-        <v>2275400</v>
+        <v>2330500</v>
       </c>
       <c r="H76" s="3">
-        <v>1804800</v>
+        <v>1848500</v>
       </c>
       <c r="I76" s="3">
-        <v>1545200</v>
+        <v>1582700</v>
       </c>
       <c r="J76" s="3">
-        <v>1409000</v>
+        <v>1443100</v>
       </c>
       <c r="K76" s="3">
         <v>1388400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>112700</v>
+        <v>115400</v>
       </c>
       <c r="E81" s="3">
-        <v>947400</v>
+        <v>970300</v>
       </c>
       <c r="F81" s="3">
-        <v>310800</v>
+        <v>318400</v>
       </c>
       <c r="G81" s="3">
-        <v>276300</v>
+        <v>283000</v>
       </c>
       <c r="H81" s="3">
-        <v>336400</v>
+        <v>344600</v>
       </c>
       <c r="I81" s="3">
-        <v>258700</v>
+        <v>265000</v>
       </c>
       <c r="J81" s="3">
-        <v>202000</v>
+        <v>206900</v>
       </c>
       <c r="K81" s="3">
         <v>145200</v>
@@ -3505,7 +3505,7 @@
         <v>1000</v>
       </c>
       <c r="F83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200700</v>
+        <v>205600</v>
       </c>
       <c r="E89" s="3">
-        <v>189700</v>
+        <v>194300</v>
       </c>
       <c r="F89" s="3">
-        <v>176700</v>
+        <v>181000</v>
       </c>
       <c r="G89" s="3">
-        <v>132700</v>
+        <v>135900</v>
       </c>
       <c r="H89" s="3">
-        <v>114200</v>
+        <v>117000</v>
       </c>
       <c r="I89" s="3">
-        <v>114800</v>
+        <v>117500</v>
       </c>
       <c r="J89" s="3">
-        <v>115700</v>
+        <v>118500</v>
       </c>
       <c r="K89" s="3">
         <v>120000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40300</v>
+        <v>-198500</v>
       </c>
       <c r="E91" s="3">
-        <v>-20700</v>
+        <v>-73900</v>
       </c>
       <c r="F91" s="3">
-        <v>-47200</v>
+        <v>-48400</v>
       </c>
       <c r="G91" s="3">
-        <v>-22000</v>
+        <v>-22600</v>
       </c>
       <c r="H91" s="3">
-        <v>-25000</v>
+        <v>-25600</v>
       </c>
       <c r="I91" s="3">
-        <v>-60500</v>
+        <v>-62000</v>
       </c>
       <c r="J91" s="3">
-        <v>-14100</v>
+        <v>-14500</v>
       </c>
       <c r="K91" s="3">
         <v>-20100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-554400</v>
+        <v>-567800</v>
       </c>
       <c r="E94" s="3">
-        <v>-741600</v>
+        <v>-759600</v>
       </c>
       <c r="F94" s="3">
-        <v>-771500</v>
+        <v>-790200</v>
       </c>
       <c r="G94" s="3">
-        <v>-633600</v>
+        <v>-649000</v>
       </c>
       <c r="H94" s="3">
-        <v>69300</v>
+        <v>71000</v>
       </c>
       <c r="I94" s="3">
-        <v>-172000</v>
+        <v>-176200</v>
       </c>
       <c r="J94" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="K94" s="3">
         <v>-15600</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-146300</v>
+        <v>-149800</v>
       </c>
       <c r="E96" s="3">
-        <v>-138200</v>
+        <v>-141500</v>
       </c>
       <c r="F96" s="3">
-        <v>-117900</v>
+        <v>-120800</v>
       </c>
       <c r="G96" s="3">
-        <v>-108900</v>
+        <v>-111600</v>
       </c>
       <c r="H96" s="3">
-        <v>-90500</v>
+        <v>-92700</v>
       </c>
       <c r="I96" s="3">
-        <v>-88700</v>
+        <v>-90800</v>
       </c>
       <c r="J96" s="3">
-        <v>-81800</v>
+        <v>-83800</v>
       </c>
       <c r="K96" s="3">
         <v>-81300</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>155200</v>
+        <v>158900</v>
       </c>
       <c r="E100" s="3">
-        <v>241200</v>
+        <v>247000</v>
       </c>
       <c r="F100" s="3">
-        <v>982300</v>
+        <v>1006100</v>
       </c>
       <c r="G100" s="3">
-        <v>248400</v>
+        <v>254500</v>
       </c>
       <c r="H100" s="3">
-        <v>234500</v>
+        <v>240100</v>
       </c>
       <c r="I100" s="3">
-        <v>-76100</v>
+        <v>-78000</v>
       </c>
       <c r="J100" s="3">
-        <v>-28900</v>
+        <v>-29600</v>
       </c>
       <c r="K100" s="3">
         <v>-108100</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="H101" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="I101" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J101" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="K101" s="3">
         <v>5900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-193400</v>
+        <v>-198100</v>
       </c>
       <c r="E102" s="3">
-        <v>-310100</v>
+        <v>-317600</v>
       </c>
       <c r="F102" s="3">
-        <v>385200</v>
+        <v>394500</v>
       </c>
       <c r="G102" s="3">
-        <v>-260000</v>
+        <v>-266300</v>
       </c>
       <c r="H102" s="3">
-        <v>426100</v>
+        <v>436500</v>
       </c>
       <c r="I102" s="3">
-        <v>-128200</v>
+        <v>-131300</v>
       </c>
       <c r="J102" s="3">
-        <v>91900</v>
+        <v>94100</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>337500</v>
+        <v>337300</v>
       </c>
       <c r="E8" s="3">
-        <v>291500</v>
+        <v>291300</v>
       </c>
       <c r="F8" s="3">
-        <v>252000</v>
+        <v>251900</v>
       </c>
       <c r="G8" s="3">
-        <v>202700</v>
+        <v>202600</v>
       </c>
       <c r="H8" s="3">
-        <v>183300</v>
+        <v>183200</v>
       </c>
       <c r="I8" s="3">
         <v>181200</v>
       </c>
       <c r="J8" s="3">
-        <v>165500</v>
+        <v>165400</v>
       </c>
       <c r="K8" s="3">
         <v>162400</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>281700</v>
+        <v>281600</v>
       </c>
       <c r="E10" s="3">
-        <v>246400</v>
+        <v>246300</v>
       </c>
       <c r="F10" s="3">
-        <v>217100</v>
+        <v>217000</v>
       </c>
       <c r="G10" s="3">
-        <v>176500</v>
+        <v>176400</v>
       </c>
       <c r="H10" s="3">
-        <v>160400</v>
+        <v>160300</v>
       </c>
       <c r="I10" s="3">
-        <v>158000</v>
+        <v>157900</v>
       </c>
       <c r="J10" s="3">
-        <v>159800</v>
+        <v>159700</v>
       </c>
       <c r="K10" s="3">
         <v>157100</v>
@@ -1053,10 +1053,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>114400</v>
+        <v>114300</v>
       </c>
       <c r="E17" s="3">
-        <v>103400</v>
+        <v>103300</v>
       </c>
       <c r="F17" s="3">
         <v>81700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>223100</v>
+        <v>223000</v>
       </c>
       <c r="E18" s="3">
-        <v>188100</v>
+        <v>188000</v>
       </c>
       <c r="F18" s="3">
-        <v>170300</v>
+        <v>170200</v>
       </c>
       <c r="G18" s="3">
-        <v>136300</v>
+        <v>136200</v>
       </c>
       <c r="H18" s="3">
-        <v>124800</v>
+        <v>124700</v>
       </c>
       <c r="I18" s="3">
         <v>118700</v>
       </c>
       <c r="J18" s="3">
-        <v>124400</v>
+        <v>124300</v>
       </c>
       <c r="K18" s="3">
         <v>121500</v>
@@ -1155,22 +1155,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-154800</v>
+        <v>-154700</v>
       </c>
       <c r="E20" s="3">
-        <v>960700</v>
+        <v>960200</v>
       </c>
       <c r="F20" s="3">
-        <v>199400</v>
+        <v>199300</v>
       </c>
       <c r="G20" s="3">
-        <v>178500</v>
+        <v>178400</v>
       </c>
       <c r="H20" s="3">
-        <v>258900</v>
+        <v>258800</v>
       </c>
       <c r="I20" s="3">
-        <v>156200</v>
+        <v>156100</v>
       </c>
       <c r="J20" s="3">
         <v>118800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>69500</v>
+        <v>69400</v>
       </c>
       <c r="E21" s="3">
-        <v>1149700</v>
+        <v>1149200</v>
       </c>
       <c r="F21" s="3">
-        <v>370500</v>
+        <v>370300</v>
       </c>
       <c r="G21" s="3">
-        <v>315400</v>
+        <v>315300</v>
       </c>
       <c r="H21" s="3">
-        <v>383900</v>
+        <v>383700</v>
       </c>
       <c r="I21" s="3">
-        <v>275200</v>
+        <v>275000</v>
       </c>
       <c r="J21" s="3">
-        <v>243700</v>
+        <v>243600</v>
       </c>
       <c r="K21" s="3">
         <v>174500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>68300</v>
+        <v>68200</v>
       </c>
       <c r="E23" s="3">
-        <v>1148800</v>
+        <v>1148200</v>
       </c>
       <c r="F23" s="3">
-        <v>369600</v>
+        <v>369500</v>
       </c>
       <c r="G23" s="3">
-        <v>314800</v>
+        <v>314600</v>
       </c>
       <c r="H23" s="3">
-        <v>383700</v>
+        <v>383500</v>
       </c>
       <c r="I23" s="3">
-        <v>274900</v>
+        <v>274800</v>
       </c>
       <c r="J23" s="3">
-        <v>243200</v>
+        <v>243100</v>
       </c>
       <c r="K23" s="3">
         <v>174000</v>
@@ -1323,10 +1323,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-47200</v>
+        <v>-47100</v>
       </c>
       <c r="E24" s="3">
-        <v>178200</v>
+        <v>178100</v>
       </c>
       <c r="F24" s="3">
         <v>51200</v>
@@ -1410,22 +1410,22 @@
         <v>115400</v>
       </c>
       <c r="E26" s="3">
-        <v>970600</v>
+        <v>970100</v>
       </c>
       <c r="F26" s="3">
-        <v>318500</v>
+        <v>318300</v>
       </c>
       <c r="G26" s="3">
-        <v>283200</v>
+        <v>283000</v>
       </c>
       <c r="H26" s="3">
-        <v>344700</v>
+        <v>344500</v>
       </c>
       <c r="I26" s="3">
-        <v>265000</v>
+        <v>264900</v>
       </c>
       <c r="J26" s="3">
-        <v>207900</v>
+        <v>207800</v>
       </c>
       <c r="K26" s="3">
         <v>146800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>115400</v>
+        <v>115300</v>
       </c>
       <c r="E27" s="3">
-        <v>970300</v>
+        <v>969800</v>
       </c>
       <c r="F27" s="3">
-        <v>318400</v>
+        <v>318200</v>
       </c>
       <c r="G27" s="3">
-        <v>283000</v>
+        <v>282900</v>
       </c>
       <c r="H27" s="3">
-        <v>344600</v>
+        <v>344400</v>
       </c>
       <c r="I27" s="3">
-        <v>265000</v>
+        <v>264800</v>
       </c>
       <c r="J27" s="3">
-        <v>206900</v>
+        <v>206800</v>
       </c>
       <c r="K27" s="3">
         <v>145200</v>
@@ -1659,22 +1659,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>154800</v>
+        <v>154700</v>
       </c>
       <c r="E32" s="3">
-        <v>-960700</v>
+        <v>-960200</v>
       </c>
       <c r="F32" s="3">
-        <v>-199400</v>
+        <v>-199300</v>
       </c>
       <c r="G32" s="3">
-        <v>-178500</v>
+        <v>-178400</v>
       </c>
       <c r="H32" s="3">
-        <v>-258900</v>
+        <v>-258800</v>
       </c>
       <c r="I32" s="3">
-        <v>-156200</v>
+        <v>-156100</v>
       </c>
       <c r="J32" s="3">
         <v>-118800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>115400</v>
+        <v>115300</v>
       </c>
       <c r="E33" s="3">
-        <v>970300</v>
+        <v>969800</v>
       </c>
       <c r="F33" s="3">
-        <v>318400</v>
+        <v>318200</v>
       </c>
       <c r="G33" s="3">
-        <v>283000</v>
+        <v>282900</v>
       </c>
       <c r="H33" s="3">
-        <v>344600</v>
+        <v>344400</v>
       </c>
       <c r="I33" s="3">
-        <v>265000</v>
+        <v>264800</v>
       </c>
       <c r="J33" s="3">
-        <v>206900</v>
+        <v>206800</v>
       </c>
       <c r="K33" s="3">
         <v>145200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>115400</v>
+        <v>115300</v>
       </c>
       <c r="E35" s="3">
-        <v>970300</v>
+        <v>969800</v>
       </c>
       <c r="F35" s="3">
-        <v>318400</v>
+        <v>318200</v>
       </c>
       <c r="G35" s="3">
-        <v>283000</v>
+        <v>282900</v>
       </c>
       <c r="H35" s="3">
-        <v>344600</v>
+        <v>344400</v>
       </c>
       <c r="I35" s="3">
-        <v>265000</v>
+        <v>264800</v>
       </c>
       <c r="J35" s="3">
-        <v>206900</v>
+        <v>206800</v>
       </c>
       <c r="K35" s="3">
         <v>145200</v>
@@ -1913,16 +1913,16 @@
         <v>94100</v>
       </c>
       <c r="E41" s="3">
-        <v>297700</v>
+        <v>297600</v>
       </c>
       <c r="F41" s="3">
-        <v>578500</v>
+        <v>578200</v>
       </c>
       <c r="G41" s="3">
-        <v>184100</v>
+        <v>184000</v>
       </c>
       <c r="H41" s="3">
-        <v>396300</v>
+        <v>396100</v>
       </c>
       <c r="I41" s="3">
         <v>41200</v>
@@ -1958,10 +1958,10 @@
         <v>400</v>
       </c>
       <c r="F42" s="3">
-        <v>37300</v>
+        <v>37200</v>
       </c>
       <c r="G42" s="3">
-        <v>37200</v>
+        <v>37100</v>
       </c>
       <c r="H42" s="3">
         <v>91300</v>
@@ -2093,7 +2093,7 @@
         <v>35000</v>
       </c>
       <c r="I45" s="3">
-        <v>291800</v>
+        <v>291700</v>
       </c>
       <c r="J45" s="3">
         <v>2200</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>202700</v>
+        <v>202600</v>
       </c>
       <c r="E46" s="3">
-        <v>360400</v>
+        <v>360200</v>
       </c>
       <c r="F46" s="3">
-        <v>626500</v>
+        <v>626200</v>
       </c>
       <c r="G46" s="3">
-        <v>238400</v>
+        <v>238300</v>
       </c>
       <c r="H46" s="3">
-        <v>525900</v>
+        <v>525600</v>
       </c>
       <c r="I46" s="3">
-        <v>344800</v>
+        <v>344600</v>
       </c>
       <c r="J46" s="3">
-        <v>185700</v>
+        <v>185600</v>
       </c>
       <c r="K46" s="3">
         <v>96700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6550800</v>
+        <v>6547500</v>
       </c>
       <c r="E48" s="3">
-        <v>5906400</v>
+        <v>5903400</v>
       </c>
       <c r="F48" s="3">
-        <v>4339900</v>
+        <v>4337700</v>
       </c>
       <c r="G48" s="3">
-        <v>3303700</v>
+        <v>3302000</v>
       </c>
       <c r="H48" s="3">
-        <v>2537600</v>
+        <v>2536300</v>
       </c>
       <c r="I48" s="3">
-        <v>2025600</v>
+        <v>2024500</v>
       </c>
       <c r="J48" s="3">
-        <v>1965800</v>
+        <v>1964800</v>
       </c>
       <c r="K48" s="3">
         <v>1947400</v>
@@ -2384,7 +2384,7 @@
         <v>16400</v>
       </c>
       <c r="H52" s="3">
-        <v>39300</v>
+        <v>39200</v>
       </c>
       <c r="I52" s="3">
         <v>4700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6874300</v>
+        <v>6870800</v>
       </c>
       <c r="E54" s="3">
-        <v>6345700</v>
+        <v>6342400</v>
       </c>
       <c r="F54" s="3">
-        <v>4998100</v>
+        <v>4995600</v>
       </c>
       <c r="G54" s="3">
-        <v>3558500</v>
+        <v>3556700</v>
       </c>
       <c r="H54" s="3">
-        <v>3102800</v>
+        <v>3101200</v>
       </c>
       <c r="I54" s="3">
-        <v>2375100</v>
+        <v>2373900</v>
       </c>
       <c r="J54" s="3">
-        <v>2156800</v>
+        <v>2155700</v>
       </c>
       <c r="K54" s="3">
         <v>2051200</v>
@@ -2576,13 +2576,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>334700</v>
+        <v>334500</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>185700</v>
+        <v>185600</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -2618,13 +2618,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>115800</v>
+        <v>115700</v>
       </c>
       <c r="E59" s="3">
-        <v>117400</v>
+        <v>117300</v>
       </c>
       <c r="F59" s="3">
-        <v>84000</v>
+        <v>83900</v>
       </c>
       <c r="G59" s="3">
         <v>57500</v>
@@ -2660,13 +2660,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>458800</v>
+        <v>458500</v>
       </c>
       <c r="E60" s="3">
-        <v>121800</v>
+        <v>121700</v>
       </c>
       <c r="F60" s="3">
-        <v>277000</v>
+        <v>276800</v>
       </c>
       <c r="G60" s="3">
         <v>63000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1938400</v>
+        <v>1937500</v>
       </c>
       <c r="E61" s="3">
-        <v>1820400</v>
+        <v>1819400</v>
       </c>
       <c r="F61" s="3">
-        <v>1452700</v>
+        <v>1452000</v>
       </c>
       <c r="G61" s="3">
-        <v>903300</v>
+        <v>902800</v>
       </c>
       <c r="H61" s="3">
-        <v>887700</v>
+        <v>887300</v>
       </c>
       <c r="I61" s="3">
-        <v>479500</v>
+        <v>479200</v>
       </c>
       <c r="J61" s="3">
-        <v>479100</v>
+        <v>478800</v>
       </c>
       <c r="K61" s="3">
         <v>393300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>417600</v>
+        <v>417400</v>
       </c>
       <c r="E62" s="3">
-        <v>461700</v>
+        <v>461500</v>
       </c>
       <c r="F62" s="3">
-        <v>363100</v>
+        <v>362900</v>
       </c>
       <c r="G62" s="3">
-        <v>260200</v>
+        <v>260100</v>
       </c>
       <c r="H62" s="3">
-        <v>302800</v>
+        <v>302600</v>
       </c>
       <c r="I62" s="3">
-        <v>226300</v>
+        <v>226200</v>
       </c>
       <c r="J62" s="3">
-        <v>190100</v>
+        <v>190000</v>
       </c>
       <c r="K62" s="3">
         <v>184800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2818500</v>
+        <v>2817100</v>
       </c>
       <c r="E66" s="3">
-        <v>2406000</v>
+        <v>2404700</v>
       </c>
       <c r="F66" s="3">
-        <v>2094400</v>
+        <v>2093300</v>
       </c>
       <c r="G66" s="3">
-        <v>1228000</v>
+        <v>1227400</v>
       </c>
       <c r="H66" s="3">
-        <v>1254200</v>
+        <v>1253600</v>
       </c>
       <c r="I66" s="3">
-        <v>792500</v>
+        <v>792100</v>
       </c>
       <c r="J66" s="3">
-        <v>713700</v>
+        <v>713300</v>
       </c>
       <c r="K66" s="3">
         <v>662900</v>
@@ -3140,16 +3140,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1261100</v>
+        <v>1260400</v>
       </c>
       <c r="E72" s="3">
-        <v>1295500</v>
+        <v>1294900</v>
       </c>
       <c r="F72" s="3">
-        <v>467900</v>
+        <v>467600</v>
       </c>
       <c r="G72" s="3">
-        <v>272000</v>
+        <v>271900</v>
       </c>
       <c r="H72" s="3">
         <v>92200</v>
@@ -3158,7 +3158,7 @@
         <v>-119000</v>
       </c>
       <c r="J72" s="3">
-        <v>-292800</v>
+        <v>-292700</v>
       </c>
       <c r="K72" s="3">
         <v>-418300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4055800</v>
+        <v>4053700</v>
       </c>
       <c r="E76" s="3">
-        <v>3939700</v>
+        <v>3937700</v>
       </c>
       <c r="F76" s="3">
-        <v>2903800</v>
+        <v>2902300</v>
       </c>
       <c r="G76" s="3">
-        <v>2330500</v>
+        <v>2329300</v>
       </c>
       <c r="H76" s="3">
-        <v>1848500</v>
+        <v>1847600</v>
       </c>
       <c r="I76" s="3">
-        <v>1582700</v>
+        <v>1581900</v>
       </c>
       <c r="J76" s="3">
-        <v>1443100</v>
+        <v>1442400</v>
       </c>
       <c r="K76" s="3">
         <v>1388400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>115400</v>
+        <v>115300</v>
       </c>
       <c r="E81" s="3">
-        <v>970300</v>
+        <v>969800</v>
       </c>
       <c r="F81" s="3">
-        <v>318400</v>
+        <v>318200</v>
       </c>
       <c r="G81" s="3">
-        <v>283000</v>
+        <v>282900</v>
       </c>
       <c r="H81" s="3">
-        <v>344600</v>
+        <v>344400</v>
       </c>
       <c r="I81" s="3">
-        <v>265000</v>
+        <v>264800</v>
       </c>
       <c r="J81" s="3">
-        <v>206900</v>
+        <v>206800</v>
       </c>
       <c r="K81" s="3">
         <v>145200</v>
@@ -3751,19 +3751,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>205600</v>
+        <v>205400</v>
       </c>
       <c r="E89" s="3">
-        <v>194300</v>
+        <v>194200</v>
       </c>
       <c r="F89" s="3">
-        <v>181000</v>
+        <v>180900</v>
       </c>
       <c r="G89" s="3">
-        <v>135900</v>
+        <v>135800</v>
       </c>
       <c r="H89" s="3">
-        <v>117000</v>
+        <v>116900</v>
       </c>
       <c r="I89" s="3">
         <v>117500</v>
@@ -3811,13 +3811,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-198500</v>
+        <v>-198400</v>
       </c>
       <c r="E91" s="3">
         <v>-73900</v>
       </c>
       <c r="F91" s="3">
-        <v>-48400</v>
+        <v>-48300</v>
       </c>
       <c r="G91" s="3">
         <v>-22600</v>
@@ -3829,7 +3829,7 @@
         <v>-62000</v>
       </c>
       <c r="J91" s="3">
-        <v>-14500</v>
+        <v>-14400</v>
       </c>
       <c r="K91" s="3">
         <v>-20100</v>
@@ -3937,22 +3937,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-567800</v>
+        <v>-567500</v>
       </c>
       <c r="E94" s="3">
-        <v>-759600</v>
+        <v>-759200</v>
       </c>
       <c r="F94" s="3">
-        <v>-790200</v>
+        <v>-789800</v>
       </c>
       <c r="G94" s="3">
-        <v>-649000</v>
+        <v>-648600</v>
       </c>
       <c r="H94" s="3">
         <v>71000</v>
       </c>
       <c r="I94" s="3">
-        <v>-176200</v>
+        <v>-176100</v>
       </c>
       <c r="J94" s="3">
         <v>8700</v>
@@ -4003,19 +4003,19 @@
         <v>-141500</v>
       </c>
       <c r="F96" s="3">
-        <v>-120800</v>
+        <v>-120700</v>
       </c>
       <c r="G96" s="3">
-        <v>-111600</v>
+        <v>-111500</v>
       </c>
       <c r="H96" s="3">
-        <v>-92700</v>
+        <v>-92600</v>
       </c>
       <c r="I96" s="3">
         <v>-90800</v>
       </c>
       <c r="J96" s="3">
-        <v>-83800</v>
+        <v>-83700</v>
       </c>
       <c r="K96" s="3">
         <v>-81300</v>
@@ -4168,19 +4168,19 @@
         <v>158900</v>
       </c>
       <c r="E100" s="3">
-        <v>247000</v>
+        <v>246900</v>
       </c>
       <c r="F100" s="3">
-        <v>1006100</v>
+        <v>1005600</v>
       </c>
       <c r="G100" s="3">
-        <v>254500</v>
+        <v>254300</v>
       </c>
       <c r="H100" s="3">
-        <v>240100</v>
+        <v>240000</v>
       </c>
       <c r="I100" s="3">
-        <v>-78000</v>
+        <v>-77900</v>
       </c>
       <c r="J100" s="3">
         <v>-29600</v>
@@ -4249,22 +4249,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-198100</v>
+        <v>-198000</v>
       </c>
       <c r="E102" s="3">
-        <v>-317600</v>
+        <v>-317400</v>
       </c>
       <c r="F102" s="3">
-        <v>394500</v>
+        <v>394300</v>
       </c>
       <c r="G102" s="3">
-        <v>-266300</v>
+        <v>-266200</v>
       </c>
       <c r="H102" s="3">
-        <v>436500</v>
+        <v>436200</v>
       </c>
       <c r="I102" s="3">
-        <v>-131300</v>
+        <v>-131200</v>
       </c>
       <c r="J102" s="3">
         <v>94100</v>

--- a/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRP.U_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>337300</v>
+        <v>331200</v>
       </c>
       <c r="E8" s="3">
-        <v>291300</v>
+        <v>286100</v>
       </c>
       <c r="F8" s="3">
-        <v>251900</v>
+        <v>247300</v>
       </c>
       <c r="G8" s="3">
-        <v>202600</v>
+        <v>199000</v>
       </c>
       <c r="H8" s="3">
-        <v>183200</v>
+        <v>179900</v>
       </c>
       <c r="I8" s="3">
-        <v>181200</v>
+        <v>177900</v>
       </c>
       <c r="J8" s="3">
-        <v>165400</v>
+        <v>162400</v>
       </c>
       <c r="K8" s="3">
         <v>162400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>55700</v>
+        <v>54700</v>
       </c>
       <c r="E9" s="3">
-        <v>45000</v>
+        <v>44200</v>
       </c>
       <c r="F9" s="3">
-        <v>34900</v>
+        <v>34300</v>
       </c>
       <c r="G9" s="3">
-        <v>26200</v>
+        <v>25700</v>
       </c>
       <c r="H9" s="3">
-        <v>22900</v>
+        <v>22500</v>
       </c>
       <c r="I9" s="3">
-        <v>23200</v>
+        <v>22800</v>
       </c>
       <c r="J9" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K9" s="3">
         <v>5300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>281600</v>
+        <v>276500</v>
       </c>
       <c r="E10" s="3">
-        <v>246300</v>
+        <v>241900</v>
       </c>
       <c r="F10" s="3">
-        <v>217000</v>
+        <v>213000</v>
       </c>
       <c r="G10" s="3">
-        <v>176400</v>
+        <v>173300</v>
       </c>
       <c r="H10" s="3">
-        <v>160300</v>
+        <v>157400</v>
       </c>
       <c r="I10" s="3">
-        <v>157900</v>
+        <v>155100</v>
       </c>
       <c r="J10" s="3">
-        <v>159700</v>
+        <v>156900</v>
       </c>
       <c r="K10" s="3">
         <v>157100</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I14" s="3">
         <v>500</v>
@@ -1002,7 +1002,7 @@
         <v>1000</v>
       </c>
       <c r="F15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>700</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>114300</v>
+        <v>112300</v>
       </c>
       <c r="E17" s="3">
-        <v>103300</v>
+        <v>101400</v>
       </c>
       <c r="F17" s="3">
-        <v>81700</v>
+        <v>80200</v>
       </c>
       <c r="G17" s="3">
-        <v>66400</v>
+        <v>65200</v>
       </c>
       <c r="H17" s="3">
-        <v>58500</v>
+        <v>57400</v>
       </c>
       <c r="I17" s="3">
-        <v>62500</v>
+        <v>61300</v>
       </c>
       <c r="J17" s="3">
-        <v>41100</v>
+        <v>40400</v>
       </c>
       <c r="K17" s="3">
         <v>40900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>223000</v>
+        <v>219000</v>
       </c>
       <c r="E18" s="3">
-        <v>188000</v>
+        <v>184600</v>
       </c>
       <c r="F18" s="3">
-        <v>170200</v>
+        <v>167100</v>
       </c>
       <c r="G18" s="3">
-        <v>136200</v>
+        <v>133800</v>
       </c>
       <c r="H18" s="3">
-        <v>124700</v>
+        <v>122500</v>
       </c>
       <c r="I18" s="3">
-        <v>118700</v>
+        <v>116500</v>
       </c>
       <c r="J18" s="3">
-        <v>124300</v>
+        <v>122100</v>
       </c>
       <c r="K18" s="3">
         <v>121500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-154700</v>
+        <v>-152000</v>
       </c>
       <c r="E20" s="3">
-        <v>960200</v>
+        <v>942900</v>
       </c>
       <c r="F20" s="3">
-        <v>199300</v>
+        <v>195700</v>
       </c>
       <c r="G20" s="3">
-        <v>178400</v>
+        <v>175100</v>
       </c>
       <c r="H20" s="3">
-        <v>258800</v>
+        <v>254100</v>
       </c>
       <c r="I20" s="3">
-        <v>156100</v>
+        <v>153300</v>
       </c>
       <c r="J20" s="3">
-        <v>118800</v>
+        <v>116600</v>
       </c>
       <c r="K20" s="3">
         <v>52500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>69400</v>
+        <v>68200</v>
       </c>
       <c r="E21" s="3">
-        <v>1149200</v>
+        <v>1128400</v>
       </c>
       <c r="F21" s="3">
-        <v>370300</v>
+        <v>363600</v>
       </c>
       <c r="G21" s="3">
-        <v>315300</v>
+        <v>309600</v>
       </c>
       <c r="H21" s="3">
-        <v>383700</v>
+        <v>376800</v>
       </c>
       <c r="I21" s="3">
-        <v>275000</v>
+        <v>270100</v>
       </c>
       <c r="J21" s="3">
-        <v>243600</v>
+        <v>239200</v>
       </c>
       <c r="K21" s="3">
         <v>174500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>68200</v>
+        <v>67000</v>
       </c>
       <c r="E23" s="3">
-        <v>1148200</v>
+        <v>1127500</v>
       </c>
       <c r="F23" s="3">
-        <v>369500</v>
+        <v>362800</v>
       </c>
       <c r="G23" s="3">
-        <v>314600</v>
+        <v>308900</v>
       </c>
       <c r="H23" s="3">
-        <v>383500</v>
+        <v>376600</v>
       </c>
       <c r="I23" s="3">
-        <v>274800</v>
+        <v>269800</v>
       </c>
       <c r="J23" s="3">
-        <v>243100</v>
+        <v>238700</v>
       </c>
       <c r="K23" s="3">
         <v>174000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-47100</v>
+        <v>-46300</v>
       </c>
       <c r="E24" s="3">
-        <v>178100</v>
+        <v>174900</v>
       </c>
       <c r="F24" s="3">
-        <v>51200</v>
+        <v>50200</v>
       </c>
       <c r="G24" s="3">
-        <v>31600</v>
+        <v>31000</v>
       </c>
       <c r="H24" s="3">
-        <v>39000</v>
+        <v>38300</v>
       </c>
       <c r="I24" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="J24" s="3">
-        <v>35300</v>
+        <v>34600</v>
       </c>
       <c r="K24" s="3">
         <v>27100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>115400</v>
+        <v>113300</v>
       </c>
       <c r="E26" s="3">
-        <v>970100</v>
+        <v>952600</v>
       </c>
       <c r="F26" s="3">
-        <v>318300</v>
+        <v>312600</v>
       </c>
       <c r="G26" s="3">
-        <v>283000</v>
+        <v>277900</v>
       </c>
       <c r="H26" s="3">
-        <v>344500</v>
+        <v>338300</v>
       </c>
       <c r="I26" s="3">
-        <v>264900</v>
+        <v>260100</v>
       </c>
       <c r="J26" s="3">
-        <v>207800</v>
+        <v>204100</v>
       </c>
       <c r="K26" s="3">
         <v>146800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>115300</v>
+        <v>113200</v>
       </c>
       <c r="E27" s="3">
-        <v>969800</v>
+        <v>952300</v>
       </c>
       <c r="F27" s="3">
-        <v>318200</v>
+        <v>312500</v>
       </c>
       <c r="G27" s="3">
-        <v>282900</v>
+        <v>277800</v>
       </c>
       <c r="H27" s="3">
-        <v>344400</v>
+        <v>338200</v>
       </c>
       <c r="I27" s="3">
-        <v>264800</v>
+        <v>260100</v>
       </c>
       <c r="J27" s="3">
-        <v>206800</v>
+        <v>203100</v>
       </c>
       <c r="K27" s="3">
         <v>145200</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>154700</v>
+        <v>152000</v>
       </c>
       <c r="E32" s="3">
-        <v>-960200</v>
+        <v>-942900</v>
       </c>
       <c r="F32" s="3">
-        <v>-199300</v>
+        <v>-195700</v>
       </c>
       <c r="G32" s="3">
-        <v>-178400</v>
+        <v>-175100</v>
       </c>
       <c r="H32" s="3">
-        <v>-258800</v>
+        <v>-254100</v>
       </c>
       <c r="I32" s="3">
-        <v>-156100</v>
+        <v>-153300</v>
       </c>
       <c r="J32" s="3">
-        <v>-118800</v>
+        <v>-116600</v>
       </c>
       <c r="K32" s="3">
         <v>-52500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>115300</v>
+        <v>113200</v>
       </c>
       <c r="E33" s="3">
-        <v>969800</v>
+        <v>952300</v>
       </c>
       <c r="F33" s="3">
-        <v>318200</v>
+        <v>312500</v>
       </c>
       <c r="G33" s="3">
-        <v>282900</v>
+        <v>277800</v>
       </c>
       <c r="H33" s="3">
-        <v>344400</v>
+        <v>338200</v>
       </c>
       <c r="I33" s="3">
-        <v>264800</v>
+        <v>260100</v>
       </c>
       <c r="J33" s="3">
-        <v>206800</v>
+        <v>203100</v>
       </c>
       <c r="K33" s="3">
         <v>145200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>115300</v>
+        <v>113200</v>
       </c>
       <c r="E35" s="3">
-        <v>969800</v>
+        <v>952300</v>
       </c>
       <c r="F35" s="3">
-        <v>318200</v>
+        <v>312500</v>
       </c>
       <c r="G35" s="3">
-        <v>282900</v>
+        <v>277800</v>
       </c>
       <c r="H35" s="3">
-        <v>344400</v>
+        <v>338200</v>
       </c>
       <c r="I35" s="3">
-        <v>264800</v>
+        <v>260100</v>
       </c>
       <c r="J35" s="3">
-        <v>206800</v>
+        <v>203100</v>
       </c>
       <c r="K35" s="3">
         <v>145200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94100</v>
+        <v>92400</v>
       </c>
       <c r="E41" s="3">
-        <v>297600</v>
+        <v>292200</v>
       </c>
       <c r="F41" s="3">
-        <v>578200</v>
+        <v>567800</v>
       </c>
       <c r="G41" s="3">
-        <v>184000</v>
+        <v>180700</v>
       </c>
       <c r="H41" s="3">
-        <v>396100</v>
+        <v>388900</v>
       </c>
       <c r="I41" s="3">
-        <v>41200</v>
+        <v>40400</v>
       </c>
       <c r="J41" s="3">
-        <v>81000</v>
+        <v>79500</v>
       </c>
       <c r="K41" s="3">
         <v>48400</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E42" s="3">
         <v>400</v>
       </c>
       <c r="F42" s="3">
-        <v>37200</v>
+        <v>36600</v>
       </c>
       <c r="G42" s="3">
-        <v>37100</v>
+        <v>36500</v>
       </c>
       <c r="H42" s="3">
-        <v>91300</v>
+        <v>89600</v>
       </c>
       <c r="I42" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="J42" s="3">
-        <v>101300</v>
+        <v>99500</v>
       </c>
       <c r="K42" s="3">
         <v>41100</v>
@@ -1994,19 +1994,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>61200</v>
+        <v>60100</v>
       </c>
       <c r="E43" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F43" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="G43" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="H43" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I43" s="3">
         <v>1800</v>
@@ -2078,22 +2078,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41400</v>
+        <v>40600</v>
       </c>
       <c r="E45" s="3">
-        <v>53200</v>
+        <v>52200</v>
       </c>
       <c r="F45" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="G45" s="3">
         <v>2500</v>
       </c>
       <c r="H45" s="3">
-        <v>35000</v>
+        <v>34300</v>
       </c>
       <c r="I45" s="3">
-        <v>291700</v>
+        <v>286400</v>
       </c>
       <c r="J45" s="3">
         <v>2200</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>202600</v>
+        <v>198900</v>
       </c>
       <c r="E46" s="3">
-        <v>360200</v>
+        <v>353700</v>
       </c>
       <c r="F46" s="3">
-        <v>626200</v>
+        <v>614900</v>
       </c>
       <c r="G46" s="3">
-        <v>238300</v>
+        <v>234000</v>
       </c>
       <c r="H46" s="3">
-        <v>525600</v>
+        <v>516200</v>
       </c>
       <c r="I46" s="3">
-        <v>344600</v>
+        <v>338400</v>
       </c>
       <c r="J46" s="3">
-        <v>185600</v>
+        <v>182200</v>
       </c>
       <c r="K46" s="3">
         <v>96700</v>
@@ -2165,7 +2165,7 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6547500</v>
+        <v>6429400</v>
       </c>
       <c r="E48" s="3">
-        <v>5903400</v>
+        <v>5796900</v>
       </c>
       <c r="F48" s="3">
-        <v>4337700</v>
+        <v>4259500</v>
       </c>
       <c r="G48" s="3">
-        <v>3302000</v>
+        <v>3242500</v>
       </c>
       <c r="H48" s="3">
-        <v>2536300</v>
+        <v>2490600</v>
       </c>
       <c r="I48" s="3">
-        <v>2024500</v>
+        <v>1988000</v>
       </c>
       <c r="J48" s="3">
-        <v>1964800</v>
+        <v>1929400</v>
       </c>
       <c r="K48" s="3">
         <v>1947400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>120600</v>
+        <v>118400</v>
       </c>
       <c r="E52" s="3">
-        <v>70900</v>
+        <v>69600</v>
       </c>
       <c r="F52" s="3">
-        <v>31400</v>
+        <v>30800</v>
       </c>
       <c r="G52" s="3">
-        <v>16400</v>
+        <v>16100</v>
       </c>
       <c r="H52" s="3">
-        <v>39200</v>
+        <v>38500</v>
       </c>
       <c r="I52" s="3">
         <v>4700</v>
       </c>
       <c r="J52" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="K52" s="3">
         <v>6600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6870800</v>
+        <v>6746900</v>
       </c>
       <c r="E54" s="3">
-        <v>6342400</v>
+        <v>6228100</v>
       </c>
       <c r="F54" s="3">
-        <v>4995600</v>
+        <v>4905500</v>
       </c>
       <c r="G54" s="3">
-        <v>3556700</v>
+        <v>3492500</v>
       </c>
       <c r="H54" s="3">
-        <v>3101200</v>
+        <v>3045300</v>
       </c>
       <c r="I54" s="3">
-        <v>2373900</v>
+        <v>2331100</v>
       </c>
       <c r="J54" s="3">
-        <v>2155700</v>
+        <v>2116800</v>
       </c>
       <c r="K54" s="3">
         <v>2051200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="E57" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F57" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="G57" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H57" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I57" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J57" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K57" s="3">
         <v>3500</v>
@@ -2576,13 +2576,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>334500</v>
+        <v>328500</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>185600</v>
+        <v>182300</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>24100</v>
+        <v>23700</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>115700</v>
+        <v>113600</v>
       </c>
       <c r="E59" s="3">
-        <v>117300</v>
+        <v>115200</v>
       </c>
       <c r="F59" s="3">
-        <v>83900</v>
+        <v>82400</v>
       </c>
       <c r="G59" s="3">
-        <v>57500</v>
+        <v>56400</v>
       </c>
       <c r="H59" s="3">
-        <v>58700</v>
+        <v>57600</v>
       </c>
       <c r="I59" s="3">
-        <v>57400</v>
+        <v>56400</v>
       </c>
       <c r="J59" s="3">
-        <v>39100</v>
+        <v>38400</v>
       </c>
       <c r="K59" s="3">
         <v>43800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>458500</v>
+        <v>450300</v>
       </c>
       <c r="E60" s="3">
-        <v>121700</v>
+        <v>119500</v>
       </c>
       <c r="F60" s="3">
-        <v>276800</v>
+        <v>271800</v>
       </c>
       <c r="G60" s="3">
-        <v>63000</v>
+        <v>61900</v>
       </c>
       <c r="H60" s="3">
-        <v>62700</v>
+        <v>61500</v>
       </c>
       <c r="I60" s="3">
-        <v>85700</v>
+        <v>84100</v>
       </c>
       <c r="J60" s="3">
-        <v>43300</v>
+        <v>42500</v>
       </c>
       <c r="K60" s="3">
         <v>77500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1937500</v>
+        <v>1902500</v>
       </c>
       <c r="E61" s="3">
-        <v>1819400</v>
+        <v>1786600</v>
       </c>
       <c r="F61" s="3">
-        <v>1452000</v>
+        <v>1425800</v>
       </c>
       <c r="G61" s="3">
-        <v>902800</v>
+        <v>886500</v>
       </c>
       <c r="H61" s="3">
-        <v>887300</v>
+        <v>871300</v>
       </c>
       <c r="I61" s="3">
-        <v>479200</v>
+        <v>470600</v>
       </c>
       <c r="J61" s="3">
-        <v>478800</v>
+        <v>470200</v>
       </c>
       <c r="K61" s="3">
         <v>393300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>417400</v>
+        <v>409900</v>
       </c>
       <c r="E62" s="3">
-        <v>461500</v>
+        <v>453100</v>
       </c>
       <c r="F62" s="3">
-        <v>362900</v>
+        <v>356300</v>
       </c>
       <c r="G62" s="3">
-        <v>260100</v>
+        <v>255400</v>
       </c>
       <c r="H62" s="3">
-        <v>302600</v>
+        <v>297100</v>
       </c>
       <c r="I62" s="3">
-        <v>226200</v>
+        <v>222100</v>
       </c>
       <c r="J62" s="3">
-        <v>190000</v>
+        <v>186600</v>
       </c>
       <c r="K62" s="3">
         <v>184800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2817100</v>
+        <v>2766300</v>
       </c>
       <c r="E66" s="3">
-        <v>2404700</v>
+        <v>2361400</v>
       </c>
       <c r="F66" s="3">
-        <v>2093300</v>
+        <v>2055600</v>
       </c>
       <c r="G66" s="3">
-        <v>1227400</v>
+        <v>1205200</v>
       </c>
       <c r="H66" s="3">
-        <v>1253600</v>
+        <v>1231000</v>
       </c>
       <c r="I66" s="3">
-        <v>792100</v>
+        <v>777800</v>
       </c>
       <c r="J66" s="3">
-        <v>713300</v>
+        <v>700400</v>
       </c>
       <c r="K66" s="3">
         <v>662900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1260400</v>
+        <v>1237700</v>
       </c>
       <c r="E72" s="3">
-        <v>1294900</v>
+        <v>1271500</v>
       </c>
       <c r="F72" s="3">
-        <v>467600</v>
+        <v>459200</v>
       </c>
       <c r="G72" s="3">
-        <v>271900</v>
+        <v>267000</v>
       </c>
       <c r="H72" s="3">
-        <v>92200</v>
+        <v>90500</v>
       </c>
       <c r="I72" s="3">
-        <v>-119000</v>
+        <v>-116800</v>
       </c>
       <c r="J72" s="3">
-        <v>-292700</v>
+        <v>-287400</v>
       </c>
       <c r="K72" s="3">
         <v>-418300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4053700</v>
+        <v>3980700</v>
       </c>
       <c r="E76" s="3">
-        <v>3937700</v>
+        <v>3866700</v>
       </c>
       <c r="F76" s="3">
-        <v>2902300</v>
+        <v>2849900</v>
       </c>
       <c r="G76" s="3">
-        <v>2329300</v>
+        <v>2287300</v>
       </c>
       <c r="H76" s="3">
-        <v>1847600</v>
+        <v>1814300</v>
       </c>
       <c r="I76" s="3">
-        <v>1581900</v>
+        <v>1553300</v>
       </c>
       <c r="J76" s="3">
-        <v>1442400</v>
+        <v>1416400</v>
       </c>
       <c r="K76" s="3">
         <v>1388400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>115300</v>
+        <v>113200</v>
       </c>
       <c r="E81" s="3">
-        <v>969800</v>
+        <v>952300</v>
       </c>
       <c r="F81" s="3">
-        <v>318200</v>
+        <v>312500</v>
       </c>
       <c r="G81" s="3">
-        <v>282900</v>
+        <v>277800</v>
       </c>
       <c r="H81" s="3">
-        <v>344400</v>
+        <v>338200</v>
       </c>
       <c r="I81" s="3">
-        <v>264800</v>
+        <v>260100</v>
       </c>
       <c r="J81" s="3">
-        <v>206800</v>
+        <v>203100</v>
       </c>
       <c r="K81" s="3">
         <v>145200</v>
@@ -3505,7 +3505,7 @@
         <v>1000</v>
       </c>
       <c r="F83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>205400</v>
+        <v>201700</v>
       </c>
       <c r="E89" s="3">
-        <v>194200</v>
+        <v>190700</v>
       </c>
       <c r="F89" s="3">
-        <v>180900</v>
+        <v>177600</v>
       </c>
       <c r="G89" s="3">
-        <v>135800</v>
+        <v>133400</v>
       </c>
       <c r="H89" s="3">
-        <v>116900</v>
+        <v>114800</v>
       </c>
       <c r="I89" s="3">
-        <v>117500</v>
+        <v>115400</v>
       </c>
       <c r="J89" s="3">
-        <v>118500</v>
+        <v>116300</v>
       </c>
       <c r="K89" s="3">
         <v>120000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-198400</v>
+        <v>-194800</v>
       </c>
       <c r="E91" s="3">
-        <v>-73900</v>
+        <v>-72500</v>
       </c>
       <c r="F91" s="3">
-        <v>-48300</v>
+        <v>-47500</v>
       </c>
       <c r="G91" s="3">
-        <v>-22600</v>
+        <v>-22200</v>
       </c>
       <c r="H91" s="3">
-        <v>-25600</v>
+        <v>-25100</v>
       </c>
       <c r="I91" s="3">
-        <v>-62000</v>
+        <v>-60800</v>
       </c>
       <c r="J91" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="K91" s="3">
         <v>-20100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-567500</v>
+        <v>-557300</v>
       </c>
       <c r="E94" s="3">
-        <v>-759200</v>
+        <v>-745500</v>
       </c>
       <c r="F94" s="3">
-        <v>-789800</v>
+        <v>-775600</v>
       </c>
       <c r="G94" s="3">
-        <v>-648600</v>
+        <v>-636900</v>
       </c>
       <c r="H94" s="3">
-        <v>71000</v>
+        <v>69700</v>
       </c>
       <c r="I94" s="3">
-        <v>-176100</v>
+        <v>-172900</v>
       </c>
       <c r="J94" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="K94" s="3">
         <v>-15600</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-149800</v>
+        <v>-147100</v>
       </c>
       <c r="E96" s="3">
-        <v>-141500</v>
+        <v>-138900</v>
       </c>
       <c r="F96" s="3">
-        <v>-120700</v>
+        <v>-118500</v>
       </c>
       <c r="G96" s="3">
-        <v>-111500</v>
+        <v>-109500</v>
       </c>
       <c r="H96" s="3">
-        <v>-92600</v>
+        <v>-91000</v>
       </c>
       <c r="I96" s="3">
-        <v>-90800</v>
+        <v>-89200</v>
       </c>
       <c r="J96" s="3">
-        <v>-83700</v>
+        <v>-82200</v>
       </c>
       <c r="K96" s="3">
         <v>-81300</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>158900</v>
+        <v>156000</v>
       </c>
       <c r="E100" s="3">
-        <v>246900</v>
+        <v>242400</v>
       </c>
       <c r="F100" s="3">
-        <v>1005600</v>
+        <v>987400</v>
       </c>
       <c r="G100" s="3">
-        <v>254300</v>
+        <v>249700</v>
       </c>
       <c r="H100" s="3">
-        <v>240000</v>
+        <v>235700</v>
       </c>
       <c r="I100" s="3">
-        <v>-77900</v>
+        <v>-76500</v>
       </c>
       <c r="J100" s="3">
-        <v>-29600</v>
+        <v>-29100</v>
       </c>
       <c r="K100" s="3">
         <v>-108100</v>
@@ -4207,22 +4207,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G101" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="H101" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="I101" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="J101" s="3">
         <v>-3500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-198000</v>
+        <v>-194400</v>
       </c>
       <c r="E102" s="3">
-        <v>-317400</v>
+        <v>-311700</v>
       </c>
       <c r="F102" s="3">
-        <v>394300</v>
+        <v>387200</v>
       </c>
       <c r="G102" s="3">
-        <v>-266200</v>
+        <v>-261400</v>
       </c>
       <c r="H102" s="3">
-        <v>436200</v>
+        <v>428400</v>
       </c>
       <c r="I102" s="3">
-        <v>-131200</v>
+        <v>-128800</v>
       </c>
       <c r="J102" s="3">
-        <v>94100</v>
+        <v>92400</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>
